--- a/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.994297872615359</v>
+        <v>0.9942978726153578</v>
       </c>
       <c r="D2">
-        <v>1.013585351226911</v>
+        <v>1.01358535122691</v>
       </c>
       <c r="E2">
-        <v>1.000788432767167</v>
+        <v>1.000788432767166</v>
       </c>
       <c r="F2">
-        <v>1.008939215128172</v>
+        <v>1.008939215128171</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,10 +439,10 @@
         <v>1.042839922541158</v>
       </c>
       <c r="J2">
-        <v>1.016650481291605</v>
+        <v>1.016650481291604</v>
       </c>
       <c r="K2">
-        <v>1.024858610218727</v>
+        <v>1.024858610218726</v>
       </c>
       <c r="L2">
         <v>1.012236794386929</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001579031244216</v>
+        <v>1.001579031244214</v>
       </c>
       <c r="D3">
-        <v>1.019152975359987</v>
+        <v>1.019152975359985</v>
       </c>
       <c r="E3">
-        <v>1.00686812938101</v>
+        <v>1.006868129381009</v>
       </c>
       <c r="F3">
-        <v>1.016441267426031</v>
+        <v>1.016441267426029</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045588620729002</v>
+        <v>1.045588620729001</v>
       </c>
       <c r="J3">
-        <v>1.022026742638278</v>
+        <v>1.022026742638276</v>
       </c>
       <c r="K3">
-        <v>1.029546517929573</v>
+        <v>1.029546517929571</v>
       </c>
       <c r="L3">
-        <v>1.017413879038435</v>
+        <v>1.017413879038434</v>
       </c>
       <c r="M3">
-        <v>1.026868013907454</v>
+        <v>1.026868013907452</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -506,7 +506,7 @@
         <v>1.01068768657038</v>
       </c>
       <c r="F4">
-        <v>1.021152124280366</v>
+        <v>1.021152124280365</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>1.032480357971689</v>
       </c>
       <c r="L4">
-        <v>1.020658809539309</v>
+        <v>1.020658809539308</v>
       </c>
       <c r="M4">
         <v>1.03100179242805</v>
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008034879525335</v>
+        <v>1.008034879525336</v>
       </c>
       <c r="D5">
-        <v>1.024092568649685</v>
+        <v>1.024092568649686</v>
       </c>
       <c r="E5">
-        <v>1.012267514782438</v>
+        <v>1.012267514782439</v>
       </c>
       <c r="F5">
         <v>1.023100159142195</v>
@@ -553,16 +553,16 @@
         <v>1.048001824874597</v>
       </c>
       <c r="J5">
-        <v>1.026785466505391</v>
+        <v>1.026785466505392</v>
       </c>
       <c r="K5">
-        <v>1.033691124530441</v>
+        <v>1.033691124530442</v>
       </c>
       <c r="L5">
-        <v>1.021999157383279</v>
+        <v>1.02199915738328</v>
       </c>
       <c r="M5">
-        <v>1.032709738737633</v>
+        <v>1.032709738737634</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008350022326071</v>
+        <v>1.00835002232607</v>
       </c>
       <c r="D6">
-        <v>1.024333755180584</v>
+        <v>1.024333755180583</v>
       </c>
       <c r="E6">
-        <v>1.012531295982199</v>
+        <v>1.012531295982198</v>
       </c>
       <c r="F6">
-        <v>1.023425395586176</v>
+        <v>1.023425395586175</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.048119000502607</v>
       </c>
       <c r="J6">
-        <v>1.027017543794882</v>
+        <v>1.027017543794881</v>
       </c>
       <c r="K6">
-        <v>1.033893124506005</v>
+        <v>1.033893124506004</v>
       </c>
       <c r="L6">
         <v>1.022222846981502</v>
       </c>
       <c r="M6">
-        <v>1.032994804931302</v>
+        <v>1.032994804931301</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006172303262566</v>
+        <v>1.006172303262565</v>
       </c>
       <c r="D7">
-        <v>1.022667198207491</v>
+        <v>1.02266719820749</v>
       </c>
       <c r="E7">
-        <v>1.010708896272456</v>
+        <v>1.010708896272454</v>
       </c>
       <c r="F7">
-        <v>1.021178278922785</v>
+        <v>1.021178278922784</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04730806547184</v>
+        <v>1.047308065471839</v>
       </c>
       <c r="J7">
-        <v>1.025413394538434</v>
+        <v>1.025413394538432</v>
       </c>
       <c r="K7">
-        <v>1.032496623645395</v>
+        <v>1.032496623645393</v>
       </c>
       <c r="L7">
-        <v>1.020676811276518</v>
+        <v>1.020676811276517</v>
       </c>
       <c r="M7">
-        <v>1.031024729378773</v>
+        <v>1.031024729378771</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9967894928480424</v>
+        <v>0.9967894928480432</v>
       </c>
       <c r="D8">
-        <v>1.015490128989002</v>
+        <v>1.015490128989003</v>
       </c>
       <c r="E8">
-        <v>1.002867714107634</v>
+        <v>1.002867714107635</v>
       </c>
       <c r="F8">
-        <v>1.011505496513321</v>
+        <v>1.011505496513322</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>1.043783542208318</v>
       </c>
       <c r="J8">
-        <v>1.0184912367645</v>
+        <v>1.018491236764501</v>
       </c>
       <c r="K8">
-        <v>1.026464286307801</v>
+        <v>1.026464286307802</v>
       </c>
       <c r="L8">
         <v>1.014008980002049</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.979060888626078</v>
+        <v>0.9790608886260791</v>
       </c>
       <c r="D9">
         <v>1.001950112660373</v>
       </c>
       <c r="E9">
-        <v>0.9881006844895917</v>
+        <v>0.988100684489593</v>
       </c>
       <c r="F9">
-        <v>0.9932651832315416</v>
+        <v>0.9932651832315423</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03700947151994</v>
+        <v>1.037009471519941</v>
       </c>
       <c r="J9">
-        <v>1.005375363757483</v>
+        <v>1.005375363757484</v>
       </c>
       <c r="K9">
-        <v>1.015011629684201</v>
+        <v>1.015011629684202</v>
       </c>
       <c r="L9">
-        <v>1.00138981584764</v>
+        <v>1.001389815847641</v>
       </c>
       <c r="M9">
-        <v>1.006468481452427</v>
+        <v>1.006468481452429</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9662864852860534</v>
+        <v>0.9662864852860533</v>
       </c>
       <c r="D10">
-        <v>0.9922165425651376</v>
+        <v>0.992216542565138</v>
       </c>
       <c r="E10">
         <v>0.9775012731170759</v>
       </c>
       <c r="F10">
-        <v>0.9801479568743398</v>
+        <v>0.9801479568743402</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,13 +746,13 @@
         <v>0.9959046381408115</v>
       </c>
       <c r="K10">
-        <v>1.006727766329008</v>
+        <v>1.006727766329009</v>
       </c>
       <c r="L10">
-        <v>0.9922889886755094</v>
+        <v>0.9922889886755095</v>
       </c>
       <c r="M10">
-        <v>0.9948851418371779</v>
+        <v>0.9948851418371781</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9604882788671486</v>
+        <v>0.9604882788671495</v>
       </c>
       <c r="D11">
-        <v>0.9878061321569298</v>
+        <v>0.9878061321569309</v>
       </c>
       <c r="E11">
-        <v>0.9727020501494773</v>
+        <v>0.9727020501494779</v>
       </c>
       <c r="F11">
-        <v>0.974200600745434</v>
+        <v>0.9742006007454352</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029789247701638</v>
+        <v>1.029789247701639</v>
       </c>
       <c r="J11">
-        <v>0.991602455264864</v>
+        <v>0.9916024552648651</v>
       </c>
       <c r="K11">
-        <v>1.002961729887642</v>
+        <v>1.002961729887643</v>
       </c>
       <c r="L11">
-        <v>0.9881578043390057</v>
+        <v>0.9881578043390065</v>
       </c>
       <c r="M11">
-        <v>0.9896260272162032</v>
+        <v>0.9896260272162044</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9582904895674509</v>
+        <v>0.9582904895674511</v>
       </c>
       <c r="D12">
-        <v>0.9861357320532099</v>
+        <v>0.9861357320532101</v>
       </c>
       <c r="E12">
         <v>0.9708848868519132</v>
       </c>
       <c r="F12">
-        <v>0.9719472750611663</v>
+        <v>0.9719472750611666</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -825,10 +825,10 @@
         <v>1.001533458658921</v>
       </c>
       <c r="L12">
-        <v>0.9865919835012471</v>
+        <v>0.9865919835012473</v>
       </c>
       <c r="M12">
-        <v>0.9876324053493499</v>
+        <v>0.9876324053493502</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9587639876356714</v>
+        <v>0.9587639876356709</v>
       </c>
       <c r="D13">
-        <v>0.9864955433194753</v>
+        <v>0.986495543319475</v>
       </c>
       <c r="E13">
-        <v>0.9712762896971046</v>
+        <v>0.9712762896971042</v>
       </c>
       <c r="F13">
-        <v>0.9724326925215105</v>
+        <v>0.9724326925215102</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.029113813232015</v>
       </c>
       <c r="J13">
-        <v>0.9903227577606556</v>
+        <v>0.9903227577606551</v>
       </c>
       <c r="K13">
         <v>1.001841201789097</v>
       </c>
       <c r="L13">
-        <v>0.9869293218550621</v>
+        <v>0.9869293218550618</v>
       </c>
       <c r="M13">
-        <v>0.9880619238633095</v>
+        <v>0.9880619238633093</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9603075331547681</v>
+        <v>0.9603075331547688</v>
       </c>
       <c r="D14">
-        <v>0.9876687301582477</v>
+        <v>0.9876687301582481</v>
       </c>
       <c r="E14">
-        <v>0.9725525660004788</v>
+        <v>0.9725525660004793</v>
       </c>
       <c r="F14">
-        <v>0.9740152673274325</v>
+        <v>0.9740152673274332</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.029718482716564</v>
       </c>
       <c r="J14">
-        <v>0.9914683189922434</v>
+        <v>0.9914683189922441</v>
       </c>
       <c r="K14">
         <v>1.0028442838876</v>
       </c>
       <c r="L14">
-        <v>0.9880290288453931</v>
+        <v>0.9880290288453937</v>
       </c>
       <c r="M14">
-        <v>0.9894620753620921</v>
+        <v>0.9894620753620927</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9612525929560961</v>
+        <v>0.9612525929560989</v>
       </c>
       <c r="D15">
-        <v>0.9883872161040711</v>
+        <v>0.9883872161040732</v>
       </c>
       <c r="E15">
-        <v>0.973334250416792</v>
+        <v>0.9733342504167948</v>
       </c>
       <c r="F15">
-        <v>0.974984355452312</v>
+        <v>0.974984355452314</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030088394316383</v>
+        <v>1.030088394316384</v>
       </c>
       <c r="J15">
-        <v>0.9921696578393081</v>
+        <v>0.9921696578393107</v>
       </c>
       <c r="K15">
-        <v>1.003458339997091</v>
+        <v>1.003458339997093</v>
       </c>
       <c r="L15">
-        <v>0.9887023580560858</v>
+        <v>0.9887023580560883</v>
       </c>
       <c r="M15">
-        <v>0.9903193189129925</v>
+        <v>0.9903193189129944</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9666653433917132</v>
+        <v>0.9666653433917158</v>
       </c>
       <c r="D16">
-        <v>0.9925048951769747</v>
+        <v>0.9925048951769765</v>
       </c>
       <c r="E16">
-        <v>0.977815116316998</v>
+        <v>0.9778151163170002</v>
       </c>
       <c r="F16">
-        <v>0.9805366962532687</v>
+        <v>0.9805366962532704</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032202320779565</v>
+        <v>1.032202320779566</v>
       </c>
       <c r="J16">
-        <v>0.996185683050636</v>
+        <v>0.9961856830506384</v>
       </c>
       <c r="K16">
-        <v>1.006973727636086</v>
+        <v>1.006973727636088</v>
       </c>
       <c r="L16">
-        <v>0.9925589266271252</v>
+        <v>0.9925589266271274</v>
       </c>
       <c r="M16">
-        <v>0.9952287484084594</v>
+        <v>0.995228748408461</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9699865355445707</v>
+        <v>0.9699865355445709</v>
       </c>
       <c r="D17">
-        <v>0.9950335642495435</v>
+        <v>0.9950335642495436</v>
       </c>
       <c r="E17">
-        <v>0.980567714041362</v>
+        <v>0.9805677140413619</v>
       </c>
       <c r="F17">
-        <v>0.983945241175774</v>
+        <v>0.9839452411757742</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>0.9949252620163153</v>
       </c>
       <c r="M17">
-        <v>0.9982407486902202</v>
+        <v>0.9982407486902205</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9718982848010159</v>
+        <v>0.9718982848010145</v>
       </c>
       <c r="D18">
-        <v>0.9964898168077678</v>
+        <v>0.9964898168077665</v>
       </c>
       <c r="E18">
-        <v>0.9821532582749467</v>
+        <v>0.9821532582749456</v>
       </c>
       <c r="F18">
-        <v>0.9859078759725952</v>
+        <v>0.9859078759725934</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034237842060224</v>
+        <v>1.034237842060223</v>
       </c>
       <c r="J18">
-        <v>1.000066654259809</v>
+        <v>1.000066654259807</v>
       </c>
       <c r="K18">
-        <v>1.010369416921522</v>
+        <v>1.010369416921521</v>
       </c>
       <c r="L18">
-        <v>0.9962873286385564</v>
+        <v>0.9962873286385555</v>
       </c>
       <c r="M18">
-        <v>0.9999743737635237</v>
+        <v>0.9999743737635221</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9725459383438882</v>
+        <v>0.9725459383438915</v>
       </c>
       <c r="D19">
-        <v>0.9969832716122574</v>
+        <v>0.9969832716122603</v>
       </c>
       <c r="E19">
-        <v>0.9826905810780187</v>
+        <v>0.9826905810780217</v>
       </c>
       <c r="F19">
-        <v>0.9865728698419221</v>
+        <v>0.9865728698419249</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034489169781506</v>
+        <v>1.034489169781507</v>
       </c>
       <c r="J19">
-        <v>1.000546848931938</v>
+        <v>1.000546848931941</v>
       </c>
       <c r="K19">
-        <v>1.010789457440556</v>
+        <v>1.010789457440559</v>
       </c>
       <c r="L19">
-        <v>0.9967487512476695</v>
+        <v>0.9967487512476725</v>
       </c>
       <c r="M19">
-        <v>1.000561656795271</v>
+        <v>1.000561656795274</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9696328621661655</v>
+        <v>0.9696328621661654</v>
       </c>
       <c r="D20">
-        <v>0.9947642127400615</v>
+        <v>0.9947642127400614</v>
       </c>
       <c r="E20">
-        <v>0.9802744755783059</v>
+        <v>0.9802744755783057</v>
       </c>
       <c r="F20">
-        <v>0.983582202685874</v>
+        <v>0.9835822026858735</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.033357670299415</v>
       </c>
       <c r="J20">
-        <v>0.9983867454585247</v>
+        <v>0.9983867454585246</v>
       </c>
       <c r="K20">
         <v>1.008899756203289</v>
       </c>
       <c r="L20">
-        <v>0.9946732750883678</v>
+        <v>0.9946732750883677</v>
       </c>
       <c r="M20">
-        <v>0.9979200160015632</v>
+        <v>0.9979200160015628</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9598542490807779</v>
+        <v>0.9598542490807774</v>
       </c>
       <c r="D21">
-        <v>0.9873241683011085</v>
+        <v>0.9873241683011083</v>
       </c>
       <c r="E21">
-        <v>0.9721777136927924</v>
+        <v>0.9721777136927919</v>
       </c>
       <c r="F21">
-        <v>0.9735504940990244</v>
+        <v>0.9735504940990241</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.029540976826827</v>
       </c>
       <c r="J21">
-        <v>0.9911319186322466</v>
+        <v>0.991131918632246</v>
       </c>
       <c r="K21">
         <v>1.002549734477729</v>
       </c>
       <c r="L21">
-        <v>0.9877060805302693</v>
+        <v>0.987706080530269</v>
       </c>
       <c r="M21">
-        <v>0.9890509052656953</v>
+        <v>0.9890509052656948</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9534486231718587</v>
+        <v>0.9534486231718579</v>
       </c>
       <c r="D22">
-        <v>0.9824584846056967</v>
+        <v>0.9824584846056964</v>
       </c>
       <c r="E22">
-        <v>0.9668854297330476</v>
+        <v>0.9668854297330473</v>
       </c>
       <c r="F22">
-        <v>0.9669849353228172</v>
+        <v>0.9669849353228168</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.027027037622395</v>
       </c>
       <c r="J22">
-        <v>0.9863772571411024</v>
+        <v>0.9863772571411019</v>
       </c>
       <c r="K22">
-        <v>0.998385639905612</v>
+        <v>0.9983856399056116</v>
       </c>
       <c r="L22">
-        <v>0.9831427283166477</v>
+        <v>0.9831427283166472</v>
       </c>
       <c r="M22">
-        <v>0.9832400796149329</v>
+        <v>0.9832400796149325</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9568702524420261</v>
+        <v>0.9568702524420284</v>
       </c>
       <c r="D23">
-        <v>0.9850567091093779</v>
+        <v>0.9850567091093795</v>
       </c>
       <c r="E23">
-        <v>0.9697111953261582</v>
+        <v>0.9697111953261601</v>
       </c>
       <c r="F23">
-        <v>0.9704914349054127</v>
+        <v>0.9704914349054143</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.02837113395628</v>
       </c>
       <c r="J23">
-        <v>0.9889171758374652</v>
+        <v>0.988917175837467</v>
       </c>
       <c r="K23">
-        <v>1.000610295418716</v>
+        <v>1.000610295418717</v>
       </c>
       <c r="L23">
-        <v>0.985580177124025</v>
+        <v>0.9855801771240268</v>
       </c>
       <c r="M23">
-        <v>0.98634406222057</v>
+        <v>0.9863440622205717</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9697927502821708</v>
+        <v>0.9697927502821699</v>
       </c>
       <c r="D24">
-        <v>0.9948859786063964</v>
+        <v>0.9948859786063956</v>
       </c>
       <c r="E24">
-        <v>0.9804070389977964</v>
+        <v>0.9804070389977957</v>
       </c>
       <c r="F24">
-        <v>0.9837463226940545</v>
+        <v>0.9837463226940539</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033419843634934</v>
       </c>
       <c r="J24">
-        <v>0.9985053211633196</v>
+        <v>0.998505321163319</v>
       </c>
       <c r="K24">
         <v>1.009003501363063</v>
       </c>
       <c r="L24">
-        <v>0.9947871931062982</v>
+        <v>0.9947871931062976</v>
       </c>
       <c r="M24">
-        <v>0.9980650128013202</v>
+        <v>0.9980650128013197</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9838003048160647</v>
+        <v>0.9838003048160662</v>
       </c>
       <c r="D25">
-        <v>1.005566573550436</v>
+        <v>1.005566573550437</v>
       </c>
       <c r="E25">
-        <v>0.9920420109141389</v>
+        <v>0.9920420109141399</v>
       </c>
       <c r="F25">
-        <v>0.9981370912058167</v>
+        <v>0.9981370912058184</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038833247342588</v>
+        <v>1.038833247342589</v>
       </c>
       <c r="J25">
-        <v>1.008885428818608</v>
+        <v>1.008885428818609</v>
       </c>
       <c r="K25">
-        <v>1.018079085891026</v>
+        <v>1.018079085891028</v>
       </c>
       <c r="L25">
-        <v>1.004765133497768</v>
+        <v>1.004765133497769</v>
       </c>
       <c r="M25">
-        <v>1.010764395433785</v>
+        <v>1.010764395433786</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9942978726153578</v>
+        <v>0.994297872615359</v>
       </c>
       <c r="D2">
-        <v>1.01358535122691</v>
+        <v>1.013585351226911</v>
       </c>
       <c r="E2">
-        <v>1.000788432767166</v>
+        <v>1.000788432767167</v>
       </c>
       <c r="F2">
-        <v>1.008939215128171</v>
+        <v>1.008939215128172</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,10 +439,10 @@
         <v>1.042839922541158</v>
       </c>
       <c r="J2">
-        <v>1.016650481291604</v>
+        <v>1.016650481291605</v>
       </c>
       <c r="K2">
-        <v>1.024858610218726</v>
+        <v>1.024858610218727</v>
       </c>
       <c r="L2">
         <v>1.012236794386929</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001579031244214</v>
+        <v>1.001579031244216</v>
       </c>
       <c r="D3">
-        <v>1.019152975359985</v>
+        <v>1.019152975359987</v>
       </c>
       <c r="E3">
-        <v>1.006868129381009</v>
+        <v>1.00686812938101</v>
       </c>
       <c r="F3">
-        <v>1.016441267426029</v>
+        <v>1.016441267426031</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045588620729001</v>
+        <v>1.045588620729002</v>
       </c>
       <c r="J3">
-        <v>1.022026742638276</v>
+        <v>1.022026742638278</v>
       </c>
       <c r="K3">
-        <v>1.029546517929571</v>
+        <v>1.029546517929573</v>
       </c>
       <c r="L3">
-        <v>1.017413879038434</v>
+        <v>1.017413879038435</v>
       </c>
       <c r="M3">
-        <v>1.026868013907452</v>
+        <v>1.026868013907454</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -506,7 +506,7 @@
         <v>1.01068768657038</v>
       </c>
       <c r="F4">
-        <v>1.021152124280365</v>
+        <v>1.021152124280366</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>1.032480357971689</v>
       </c>
       <c r="L4">
-        <v>1.020658809539308</v>
+        <v>1.020658809539309</v>
       </c>
       <c r="M4">
         <v>1.03100179242805</v>
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008034879525336</v>
+        <v>1.008034879525335</v>
       </c>
       <c r="D5">
-        <v>1.024092568649686</v>
+        <v>1.024092568649685</v>
       </c>
       <c r="E5">
-        <v>1.012267514782439</v>
+        <v>1.012267514782438</v>
       </c>
       <c r="F5">
         <v>1.023100159142195</v>
@@ -553,16 +553,16 @@
         <v>1.048001824874597</v>
       </c>
       <c r="J5">
-        <v>1.026785466505392</v>
+        <v>1.026785466505391</v>
       </c>
       <c r="K5">
-        <v>1.033691124530442</v>
+        <v>1.033691124530441</v>
       </c>
       <c r="L5">
-        <v>1.02199915738328</v>
+        <v>1.021999157383279</v>
       </c>
       <c r="M5">
-        <v>1.032709738737634</v>
+        <v>1.032709738737633</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00835002232607</v>
+        <v>1.008350022326071</v>
       </c>
       <c r="D6">
-        <v>1.024333755180583</v>
+        <v>1.024333755180584</v>
       </c>
       <c r="E6">
-        <v>1.012531295982198</v>
+        <v>1.012531295982199</v>
       </c>
       <c r="F6">
-        <v>1.023425395586175</v>
+        <v>1.023425395586176</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.048119000502607</v>
       </c>
       <c r="J6">
-        <v>1.027017543794881</v>
+        <v>1.027017543794882</v>
       </c>
       <c r="K6">
-        <v>1.033893124506004</v>
+        <v>1.033893124506005</v>
       </c>
       <c r="L6">
         <v>1.022222846981502</v>
       </c>
       <c r="M6">
-        <v>1.032994804931301</v>
+        <v>1.032994804931302</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006172303262565</v>
+        <v>1.006172303262566</v>
       </c>
       <c r="D7">
-        <v>1.02266719820749</v>
+        <v>1.022667198207491</v>
       </c>
       <c r="E7">
-        <v>1.010708896272454</v>
+        <v>1.010708896272456</v>
       </c>
       <c r="F7">
-        <v>1.021178278922784</v>
+        <v>1.021178278922785</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047308065471839</v>
+        <v>1.04730806547184</v>
       </c>
       <c r="J7">
-        <v>1.025413394538432</v>
+        <v>1.025413394538434</v>
       </c>
       <c r="K7">
-        <v>1.032496623645393</v>
+        <v>1.032496623645395</v>
       </c>
       <c r="L7">
-        <v>1.020676811276517</v>
+        <v>1.020676811276518</v>
       </c>
       <c r="M7">
-        <v>1.031024729378771</v>
+        <v>1.031024729378773</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9967894928480432</v>
+        <v>0.9967894928480424</v>
       </c>
       <c r="D8">
-        <v>1.015490128989003</v>
+        <v>1.015490128989002</v>
       </c>
       <c r="E8">
-        <v>1.002867714107635</v>
+        <v>1.002867714107634</v>
       </c>
       <c r="F8">
-        <v>1.011505496513322</v>
+        <v>1.011505496513321</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>1.043783542208318</v>
       </c>
       <c r="J8">
-        <v>1.018491236764501</v>
+        <v>1.0184912367645</v>
       </c>
       <c r="K8">
-        <v>1.026464286307802</v>
+        <v>1.026464286307801</v>
       </c>
       <c r="L8">
         <v>1.014008980002049</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9790608886260791</v>
+        <v>0.979060888626078</v>
       </c>
       <c r="D9">
         <v>1.001950112660373</v>
       </c>
       <c r="E9">
-        <v>0.988100684489593</v>
+        <v>0.9881006844895917</v>
       </c>
       <c r="F9">
-        <v>0.9932651832315423</v>
+        <v>0.9932651832315416</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037009471519941</v>
+        <v>1.03700947151994</v>
       </c>
       <c r="J9">
-        <v>1.005375363757484</v>
+        <v>1.005375363757483</v>
       </c>
       <c r="K9">
-        <v>1.015011629684202</v>
+        <v>1.015011629684201</v>
       </c>
       <c r="L9">
-        <v>1.001389815847641</v>
+        <v>1.00138981584764</v>
       </c>
       <c r="M9">
-        <v>1.006468481452429</v>
+        <v>1.006468481452427</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9662864852860533</v>
+        <v>0.9662864852860534</v>
       </c>
       <c r="D10">
-        <v>0.992216542565138</v>
+        <v>0.9922165425651376</v>
       </c>
       <c r="E10">
         <v>0.9775012731170759</v>
       </c>
       <c r="F10">
-        <v>0.9801479568743402</v>
+        <v>0.9801479568743398</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,13 +746,13 @@
         <v>0.9959046381408115</v>
       </c>
       <c r="K10">
-        <v>1.006727766329009</v>
+        <v>1.006727766329008</v>
       </c>
       <c r="L10">
-        <v>0.9922889886755095</v>
+        <v>0.9922889886755094</v>
       </c>
       <c r="M10">
-        <v>0.9948851418371781</v>
+        <v>0.9948851418371779</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9604882788671495</v>
+        <v>0.9604882788671486</v>
       </c>
       <c r="D11">
-        <v>0.9878061321569309</v>
+        <v>0.9878061321569298</v>
       </c>
       <c r="E11">
-        <v>0.9727020501494779</v>
+        <v>0.9727020501494773</v>
       </c>
       <c r="F11">
-        <v>0.9742006007454352</v>
+        <v>0.974200600745434</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029789247701639</v>
+        <v>1.029789247701638</v>
       </c>
       <c r="J11">
-        <v>0.9916024552648651</v>
+        <v>0.991602455264864</v>
       </c>
       <c r="K11">
-        <v>1.002961729887643</v>
+        <v>1.002961729887642</v>
       </c>
       <c r="L11">
-        <v>0.9881578043390065</v>
+        <v>0.9881578043390057</v>
       </c>
       <c r="M11">
-        <v>0.9896260272162044</v>
+        <v>0.9896260272162032</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9582904895674511</v>
+        <v>0.9582904895674509</v>
       </c>
       <c r="D12">
-        <v>0.9861357320532101</v>
+        <v>0.9861357320532099</v>
       </c>
       <c r="E12">
         <v>0.9708848868519132</v>
       </c>
       <c r="F12">
-        <v>0.9719472750611666</v>
+        <v>0.9719472750611663</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -825,10 +825,10 @@
         <v>1.001533458658921</v>
       </c>
       <c r="L12">
-        <v>0.9865919835012473</v>
+        <v>0.9865919835012471</v>
       </c>
       <c r="M12">
-        <v>0.9876324053493502</v>
+        <v>0.9876324053493499</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9587639876356709</v>
+        <v>0.9587639876356714</v>
       </c>
       <c r="D13">
-        <v>0.986495543319475</v>
+        <v>0.9864955433194753</v>
       </c>
       <c r="E13">
-        <v>0.9712762896971042</v>
+        <v>0.9712762896971046</v>
       </c>
       <c r="F13">
-        <v>0.9724326925215102</v>
+        <v>0.9724326925215105</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.029113813232015</v>
       </c>
       <c r="J13">
-        <v>0.9903227577606551</v>
+        <v>0.9903227577606556</v>
       </c>
       <c r="K13">
         <v>1.001841201789097</v>
       </c>
       <c r="L13">
-        <v>0.9869293218550618</v>
+        <v>0.9869293218550621</v>
       </c>
       <c r="M13">
-        <v>0.9880619238633093</v>
+        <v>0.9880619238633095</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9603075331547688</v>
+        <v>0.9603075331547681</v>
       </c>
       <c r="D14">
-        <v>0.9876687301582481</v>
+        <v>0.9876687301582477</v>
       </c>
       <c r="E14">
-        <v>0.9725525660004793</v>
+        <v>0.9725525660004788</v>
       </c>
       <c r="F14">
-        <v>0.9740152673274332</v>
+        <v>0.9740152673274325</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.029718482716564</v>
       </c>
       <c r="J14">
-        <v>0.9914683189922441</v>
+        <v>0.9914683189922434</v>
       </c>
       <c r="K14">
         <v>1.0028442838876</v>
       </c>
       <c r="L14">
-        <v>0.9880290288453937</v>
+        <v>0.9880290288453931</v>
       </c>
       <c r="M14">
-        <v>0.9894620753620927</v>
+        <v>0.9894620753620921</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9612525929560989</v>
+        <v>0.9612525929560961</v>
       </c>
       <c r="D15">
-        <v>0.9883872161040732</v>
+        <v>0.9883872161040711</v>
       </c>
       <c r="E15">
-        <v>0.9733342504167948</v>
+        <v>0.973334250416792</v>
       </c>
       <c r="F15">
-        <v>0.974984355452314</v>
+        <v>0.974984355452312</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030088394316384</v>
+        <v>1.030088394316383</v>
       </c>
       <c r="J15">
-        <v>0.9921696578393107</v>
+        <v>0.9921696578393081</v>
       </c>
       <c r="K15">
-        <v>1.003458339997093</v>
+        <v>1.003458339997091</v>
       </c>
       <c r="L15">
-        <v>0.9887023580560883</v>
+        <v>0.9887023580560858</v>
       </c>
       <c r="M15">
-        <v>0.9903193189129944</v>
+        <v>0.9903193189129925</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9666653433917158</v>
+        <v>0.9666653433917132</v>
       </c>
       <c r="D16">
-        <v>0.9925048951769765</v>
+        <v>0.9925048951769747</v>
       </c>
       <c r="E16">
-        <v>0.9778151163170002</v>
+        <v>0.977815116316998</v>
       </c>
       <c r="F16">
-        <v>0.9805366962532704</v>
+        <v>0.9805366962532687</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032202320779566</v>
+        <v>1.032202320779565</v>
       </c>
       <c r="J16">
-        <v>0.9961856830506384</v>
+        <v>0.996185683050636</v>
       </c>
       <c r="K16">
-        <v>1.006973727636088</v>
+        <v>1.006973727636086</v>
       </c>
       <c r="L16">
-        <v>0.9925589266271274</v>
+        <v>0.9925589266271252</v>
       </c>
       <c r="M16">
-        <v>0.995228748408461</v>
+        <v>0.9952287484084594</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9699865355445709</v>
+        <v>0.9699865355445707</v>
       </c>
       <c r="D17">
-        <v>0.9950335642495436</v>
+        <v>0.9950335642495435</v>
       </c>
       <c r="E17">
-        <v>0.9805677140413619</v>
+        <v>0.980567714041362</v>
       </c>
       <c r="F17">
-        <v>0.9839452411757742</v>
+        <v>0.983945241175774</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>0.9949252620163153</v>
       </c>
       <c r="M17">
-        <v>0.9982407486902205</v>
+        <v>0.9982407486902202</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9718982848010145</v>
+        <v>0.9718982848010159</v>
       </c>
       <c r="D18">
-        <v>0.9964898168077665</v>
+        <v>0.9964898168077678</v>
       </c>
       <c r="E18">
-        <v>0.9821532582749456</v>
+        <v>0.9821532582749467</v>
       </c>
       <c r="F18">
-        <v>0.9859078759725934</v>
+        <v>0.9859078759725952</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034237842060223</v>
+        <v>1.034237842060224</v>
       </c>
       <c r="J18">
-        <v>1.000066654259807</v>
+        <v>1.000066654259809</v>
       </c>
       <c r="K18">
-        <v>1.010369416921521</v>
+        <v>1.010369416921522</v>
       </c>
       <c r="L18">
-        <v>0.9962873286385555</v>
+        <v>0.9962873286385564</v>
       </c>
       <c r="M18">
-        <v>0.9999743737635221</v>
+        <v>0.9999743737635237</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9725459383438915</v>
+        <v>0.9725459383438882</v>
       </c>
       <c r="D19">
-        <v>0.9969832716122603</v>
+        <v>0.9969832716122574</v>
       </c>
       <c r="E19">
-        <v>0.9826905810780217</v>
+        <v>0.9826905810780187</v>
       </c>
       <c r="F19">
-        <v>0.9865728698419249</v>
+        <v>0.9865728698419221</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034489169781507</v>
+        <v>1.034489169781506</v>
       </c>
       <c r="J19">
-        <v>1.000546848931941</v>
+        <v>1.000546848931938</v>
       </c>
       <c r="K19">
-        <v>1.010789457440559</v>
+        <v>1.010789457440556</v>
       </c>
       <c r="L19">
-        <v>0.9967487512476725</v>
+        <v>0.9967487512476695</v>
       </c>
       <c r="M19">
-        <v>1.000561656795274</v>
+        <v>1.000561656795271</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9696328621661654</v>
+        <v>0.9696328621661655</v>
       </c>
       <c r="D20">
-        <v>0.9947642127400614</v>
+        <v>0.9947642127400615</v>
       </c>
       <c r="E20">
-        <v>0.9802744755783057</v>
+        <v>0.9802744755783059</v>
       </c>
       <c r="F20">
-        <v>0.9835822026858735</v>
+        <v>0.983582202685874</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.033357670299415</v>
       </c>
       <c r="J20">
-        <v>0.9983867454585246</v>
+        <v>0.9983867454585247</v>
       </c>
       <c r="K20">
         <v>1.008899756203289</v>
       </c>
       <c r="L20">
-        <v>0.9946732750883677</v>
+        <v>0.9946732750883678</v>
       </c>
       <c r="M20">
-        <v>0.9979200160015628</v>
+        <v>0.9979200160015632</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9598542490807774</v>
+        <v>0.9598542490807779</v>
       </c>
       <c r="D21">
-        <v>0.9873241683011083</v>
+        <v>0.9873241683011085</v>
       </c>
       <c r="E21">
-        <v>0.9721777136927919</v>
+        <v>0.9721777136927924</v>
       </c>
       <c r="F21">
-        <v>0.9735504940990241</v>
+        <v>0.9735504940990244</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.029540976826827</v>
       </c>
       <c r="J21">
-        <v>0.991131918632246</v>
+        <v>0.9911319186322466</v>
       </c>
       <c r="K21">
         <v>1.002549734477729</v>
       </c>
       <c r="L21">
-        <v>0.987706080530269</v>
+        <v>0.9877060805302693</v>
       </c>
       <c r="M21">
-        <v>0.9890509052656948</v>
+        <v>0.9890509052656953</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9534486231718579</v>
+        <v>0.9534486231718587</v>
       </c>
       <c r="D22">
-        <v>0.9824584846056964</v>
+        <v>0.9824584846056967</v>
       </c>
       <c r="E22">
-        <v>0.9668854297330473</v>
+        <v>0.9668854297330476</v>
       </c>
       <c r="F22">
-        <v>0.9669849353228168</v>
+        <v>0.9669849353228172</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.027027037622395</v>
       </c>
       <c r="J22">
-        <v>0.9863772571411019</v>
+        <v>0.9863772571411024</v>
       </c>
       <c r="K22">
-        <v>0.9983856399056116</v>
+        <v>0.998385639905612</v>
       </c>
       <c r="L22">
-        <v>0.9831427283166472</v>
+        <v>0.9831427283166477</v>
       </c>
       <c r="M22">
-        <v>0.9832400796149325</v>
+        <v>0.9832400796149329</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9568702524420284</v>
+        <v>0.9568702524420261</v>
       </c>
       <c r="D23">
-        <v>0.9850567091093795</v>
+        <v>0.9850567091093779</v>
       </c>
       <c r="E23">
-        <v>0.9697111953261601</v>
+        <v>0.9697111953261582</v>
       </c>
       <c r="F23">
-        <v>0.9704914349054143</v>
+        <v>0.9704914349054127</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.02837113395628</v>
       </c>
       <c r="J23">
-        <v>0.988917175837467</v>
+        <v>0.9889171758374652</v>
       </c>
       <c r="K23">
-        <v>1.000610295418717</v>
+        <v>1.000610295418716</v>
       </c>
       <c r="L23">
-        <v>0.9855801771240268</v>
+        <v>0.985580177124025</v>
       </c>
       <c r="M23">
-        <v>0.9863440622205717</v>
+        <v>0.98634406222057</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9697927502821699</v>
+        <v>0.9697927502821708</v>
       </c>
       <c r="D24">
-        <v>0.9948859786063956</v>
+        <v>0.9948859786063964</v>
       </c>
       <c r="E24">
-        <v>0.9804070389977957</v>
+        <v>0.9804070389977964</v>
       </c>
       <c r="F24">
-        <v>0.9837463226940539</v>
+        <v>0.9837463226940545</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033419843634934</v>
       </c>
       <c r="J24">
-        <v>0.998505321163319</v>
+        <v>0.9985053211633196</v>
       </c>
       <c r="K24">
         <v>1.009003501363063</v>
       </c>
       <c r="L24">
-        <v>0.9947871931062976</v>
+        <v>0.9947871931062982</v>
       </c>
       <c r="M24">
-        <v>0.9980650128013197</v>
+        <v>0.9980650128013202</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9838003048160662</v>
+        <v>0.9838003048160647</v>
       </c>
       <c r="D25">
-        <v>1.005566573550437</v>
+        <v>1.005566573550436</v>
       </c>
       <c r="E25">
-        <v>0.9920420109141399</v>
+        <v>0.9920420109141389</v>
       </c>
       <c r="F25">
-        <v>0.9981370912058184</v>
+        <v>0.9981370912058167</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038833247342589</v>
+        <v>1.038833247342588</v>
       </c>
       <c r="J25">
-        <v>1.008885428818609</v>
+        <v>1.008885428818608</v>
       </c>
       <c r="K25">
-        <v>1.018079085891028</v>
+        <v>1.018079085891026</v>
       </c>
       <c r="L25">
-        <v>1.004765133497769</v>
+        <v>1.004765133497768</v>
       </c>
       <c r="M25">
-        <v>1.010764395433786</v>
+        <v>1.010764395433785</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.994297872615359</v>
+        <v>0.9964694599503006</v>
       </c>
       <c r="D2">
-        <v>1.013585351226911</v>
+        <v>1.015253179877398</v>
       </c>
       <c r="E2">
-        <v>1.000788432767167</v>
+        <v>1.002658338144061</v>
       </c>
       <c r="F2">
-        <v>1.008939215128172</v>
+        <v>1.010427634290646</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042839922541158</v>
+        <v>1.043810432045403</v>
       </c>
       <c r="J2">
-        <v>1.016650481291605</v>
+        <v>1.01875628409992</v>
       </c>
       <c r="K2">
-        <v>1.024858610218727</v>
+        <v>1.026504026252263</v>
       </c>
       <c r="L2">
-        <v>1.012236794386929</v>
+        <v>1.014080761916456</v>
       </c>
       <c r="M2">
-        <v>1.020275401589112</v>
+        <v>1.021743582273536</v>
+      </c>
+      <c r="N2">
+        <v>1.020203034876321</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001579031244216</v>
+        <v>1.003735934249124</v>
       </c>
       <c r="D3">
-        <v>1.019152975359987</v>
+        <v>1.02081158155976</v>
       </c>
       <c r="E3">
-        <v>1.00686812938101</v>
+        <v>1.008727798312919</v>
       </c>
       <c r="F3">
-        <v>1.016441267426031</v>
+        <v>1.017914616058408</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045588620729002</v>
+        <v>1.046554717215355</v>
       </c>
       <c r="J3">
-        <v>1.022026742638278</v>
+        <v>1.024125269469705</v>
       </c>
       <c r="K3">
-        <v>1.029546517929573</v>
+        <v>1.031184923118686</v>
       </c>
       <c r="L3">
-        <v>1.017413879038435</v>
+        <v>1.019250210160351</v>
       </c>
       <c r="M3">
-        <v>1.026868013907454</v>
+        <v>1.028323294611245</v>
+      </c>
+      <c r="N3">
+        <v>1.025579644821163</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006146951688049</v>
+        <v>1.008295274285605</v>
       </c>
       <c r="D4">
-        <v>1.022647798742075</v>
+        <v>1.024301052663521</v>
       </c>
       <c r="E4">
-        <v>1.01068768657038</v>
+        <v>1.012541407607969</v>
       </c>
       <c r="F4">
-        <v>1.021152124280366</v>
+        <v>1.022616590660902</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047298608477091</v>
+        <v>1.048262202246043</v>
       </c>
       <c r="J4">
-        <v>1.025394714195112</v>
+        <v>1.027489140286661</v>
       </c>
       <c r="K4">
-        <v>1.032480357971689</v>
+        <v>1.034114772136174</v>
       </c>
       <c r="L4">
-        <v>1.020658809539309</v>
+        <v>1.022490789142461</v>
       </c>
       <c r="M4">
-        <v>1.03100179242805</v>
+        <v>1.032449506246863</v>
+      </c>
+      <c r="N4">
+        <v>1.02894829272052</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008034879525335</v>
+        <v>1.010179796062527</v>
       </c>
       <c r="D5">
-        <v>1.024092568649685</v>
+        <v>1.025743707189212</v>
       </c>
       <c r="E5">
-        <v>1.012267514782438</v>
+        <v>1.014118883146112</v>
       </c>
       <c r="F5">
-        <v>1.023100159142195</v>
+        <v>1.024561081240005</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048001824874597</v>
+        <v>1.048964443990551</v>
       </c>
       <c r="J5">
-        <v>1.026785466505391</v>
+        <v>1.028878301265487</v>
       </c>
       <c r="K5">
-        <v>1.033691124530441</v>
+        <v>1.035323980281896</v>
       </c>
       <c r="L5">
-        <v>1.021999157383279</v>
+        <v>1.0238294365958</v>
       </c>
       <c r="M5">
-        <v>1.032709738737633</v>
+        <v>1.034154441993975</v>
+      </c>
+      <c r="N5">
+        <v>1.030339426467274</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008350022326071</v>
+        <v>1.010494378245711</v>
       </c>
       <c r="D6">
-        <v>1.024333755180584</v>
+        <v>1.025984546101062</v>
       </c>
       <c r="E6">
-        <v>1.012531295982199</v>
+        <v>1.014382277615852</v>
       </c>
       <c r="F6">
-        <v>1.023425395586176</v>
+        <v>1.024885733223935</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048119000502607</v>
+        <v>1.049081460327537</v>
       </c>
       <c r="J6">
-        <v>1.027017543794882</v>
+        <v>1.029110118798785</v>
       </c>
       <c r="K6">
-        <v>1.033893124506005</v>
+        <v>1.035525725296643</v>
       </c>
       <c r="L6">
-        <v>1.022222846981502</v>
+        <v>1.024052847928363</v>
       </c>
       <c r="M6">
-        <v>1.032994804931302</v>
+        <v>1.034439012267734</v>
+      </c>
+      <c r="N6">
+        <v>1.03057157320806</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006172303262566</v>
+        <v>1.00832057958169</v>
       </c>
       <c r="D7">
-        <v>1.022667198207491</v>
+        <v>1.024320423349218</v>
       </c>
       <c r="E7">
-        <v>1.010708896272456</v>
+        <v>1.012562585309826</v>
       </c>
       <c r="F7">
-        <v>1.021178278922785</v>
+        <v>1.022642697221093</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04730806547184</v>
+        <v>1.04827164592151</v>
       </c>
       <c r="J7">
-        <v>1.025413394538434</v>
+        <v>1.027507798861102</v>
       </c>
       <c r="K7">
-        <v>1.032496623645395</v>
+        <v>1.034131016530791</v>
       </c>
       <c r="L7">
-        <v>1.020676811276518</v>
+        <v>1.022508767667115</v>
       </c>
       <c r="M7">
-        <v>1.031024729378773</v>
+        <v>1.032472402320082</v>
+      </c>
+      <c r="N7">
+        <v>1.028966977792277</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9967894928480424</v>
+        <v>0.9989559142784539</v>
       </c>
       <c r="D8">
-        <v>1.015490128989002</v>
+        <v>1.017154705384097</v>
       </c>
       <c r="E8">
-        <v>1.002867714107634</v>
+        <v>1.004734011131117</v>
       </c>
       <c r="F8">
-        <v>1.011505496513321</v>
+        <v>1.012988630719756</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043783542208318</v>
+        <v>1.04475248277527</v>
       </c>
       <c r="J8">
-        <v>1.0184912367645</v>
+        <v>1.020594446653616</v>
       </c>
       <c r="K8">
-        <v>1.026464286307801</v>
+        <v>1.028107212862674</v>
       </c>
       <c r="L8">
-        <v>1.014008980002049</v>
+        <v>1.015850236810877</v>
       </c>
       <c r="M8">
-        <v>1.022531841680317</v>
+        <v>1.023995490746052</v>
+      </c>
+      <c r="N8">
+        <v>1.022043807831683</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.979060888626078</v>
+        <v>0.9812673657533936</v>
       </c>
       <c r="D9">
-        <v>1.001950112660373</v>
+        <v>1.003640067047997</v>
       </c>
       <c r="E9">
-        <v>0.9881006844895917</v>
+        <v>0.9899951098235823</v>
       </c>
       <c r="F9">
-        <v>0.9932651832315416</v>
+        <v>0.9947889232441343</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03700947151994</v>
+        <v>1.037990927769806</v>
       </c>
       <c r="J9">
-        <v>1.005375363757483</v>
+        <v>1.007499416870576</v>
       </c>
       <c r="K9">
-        <v>1.015011629684201</v>
+        <v>1.016674361485929</v>
       </c>
       <c r="L9">
-        <v>1.00138981584764</v>
+        <v>1.003252622184523</v>
       </c>
       <c r="M9">
-        <v>1.006468481452427</v>
+        <v>1.007967116146693</v>
+      </c>
+      <c r="N9">
+        <v>1.00893018160433</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9662864852860534</v>
+        <v>0.9685268330602842</v>
       </c>
       <c r="D10">
-        <v>0.9922165425651376</v>
+        <v>0.9939281501480066</v>
       </c>
       <c r="E10">
-        <v>0.9775012731170759</v>
+        <v>0.9794196669445522</v>
       </c>
       <c r="F10">
-        <v>0.9801479568743398</v>
+        <v>0.9817055316707269</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03205463005962</v>
+        <v>1.033047117950429</v>
       </c>
       <c r="J10">
-        <v>0.9959046381408115</v>
+        <v>0.9980473124313255</v>
       </c>
       <c r="K10">
-        <v>1.006727766329008</v>
+        <v>1.008407905997519</v>
       </c>
       <c r="L10">
-        <v>0.9922889886755094</v>
+        <v>0.9941707208209334</v>
       </c>
       <c r="M10">
-        <v>0.9948851418371779</v>
+        <v>0.9964131458325691</v>
+      </c>
+      <c r="N10">
+        <v>0.9994646540926048</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9604882788671486</v>
+        <v>0.96274549280934</v>
       </c>
       <c r="D11">
-        <v>0.9878061321569298</v>
+        <v>0.9895285614424746</v>
       </c>
       <c r="E11">
-        <v>0.9727020501494773</v>
+        <v>0.9746324172530264</v>
       </c>
       <c r="F11">
-        <v>0.974200600745434</v>
+        <v>0.9757749035836129</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029789247701638</v>
+        <v>1.030787329931033</v>
       </c>
       <c r="J11">
-        <v>0.991602455264864</v>
+        <v>0.9937546445302315</v>
       </c>
       <c r="K11">
-        <v>1.002961729887642</v>
+        <v>1.004650692959406</v>
       </c>
       <c r="L11">
-        <v>0.9881578043390057</v>
+        <v>0.9900491273959887</v>
       </c>
       <c r="M11">
-        <v>0.9896260272162032</v>
+        <v>0.9911686013159224</v>
+      </c>
+      <c r="N11">
+        <v>0.9951658901107153</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9582904895674509</v>
+        <v>0.9605543523365678</v>
       </c>
       <c r="D12">
-        <v>0.9861357320532099</v>
+        <v>0.9878624326681806</v>
       </c>
       <c r="E12">
-        <v>0.9708848868519132</v>
+        <v>0.9728199791144271</v>
       </c>
       <c r="F12">
-        <v>0.9719472750611663</v>
+        <v>0.9735281541648098</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02892820250514</v>
+        <v>1.029928504808636</v>
       </c>
       <c r="J12">
-        <v>0.9899713267257777</v>
+        <v>0.9921273038610248</v>
       </c>
       <c r="K12">
-        <v>1.001533458658921</v>
+        <v>1.003225923155197</v>
       </c>
       <c r="L12">
-        <v>0.9865919835012471</v>
+        <v>0.9884871123969059</v>
       </c>
       <c r="M12">
-        <v>0.9876324053493499</v>
+        <v>0.9891807146695765</v>
+      </c>
+      <c r="N12">
+        <v>0.9935362384310999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9587639876356714</v>
+        <v>0.9610264058548593</v>
       </c>
       <c r="D13">
-        <v>0.9864955433194753</v>
+        <v>0.9882213157012922</v>
       </c>
       <c r="E13">
-        <v>0.9712762896971046</v>
+        <v>0.9732103551307972</v>
       </c>
       <c r="F13">
-        <v>0.9724326925215105</v>
+        <v>0.9740121436529905</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029113813232015</v>
+        <v>1.030113632539975</v>
       </c>
       <c r="J13">
-        <v>0.9903227577606556</v>
+        <v>0.9924779102605263</v>
       </c>
       <c r="K13">
-        <v>1.001841201789097</v>
+        <v>1.003532904515865</v>
       </c>
       <c r="L13">
-        <v>0.9869293218550621</v>
+        <v>0.9888236227582519</v>
       </c>
       <c r="M13">
-        <v>0.9880619238633095</v>
+        <v>0.9896089875114862</v>
+      </c>
+      <c r="N13">
+        <v>0.9938873427319037</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9603075331547681</v>
+        <v>0.9625652885097854</v>
       </c>
       <c r="D14">
-        <v>0.9876687301582477</v>
+        <v>0.9893915071549774</v>
       </c>
       <c r="E14">
-        <v>0.9725525660004788</v>
+        <v>0.9744833177728212</v>
       </c>
       <c r="F14">
-        <v>0.9740152673274325</v>
+        <v>0.9755901060323454</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029718482716564</v>
+        <v>1.030716745433997</v>
       </c>
       <c r="J14">
-        <v>0.9914683189922434</v>
+        <v>0.9936208159599681</v>
       </c>
       <c r="K14">
-        <v>1.0028442838876</v>
+        <v>1.004533531617239</v>
       </c>
       <c r="L14">
-        <v>0.9880290288453931</v>
+        <v>0.9899206613109727</v>
       </c>
       <c r="M14">
-        <v>0.9894620753620921</v>
+        <v>0.9910051166508629</v>
+      </c>
+      <c r="N14">
+        <v>0.9950318714885316</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9612525929560961</v>
+        <v>0.9635075280319939</v>
       </c>
       <c r="D15">
-        <v>0.9883872161040711</v>
+        <v>0.9901081820429731</v>
       </c>
       <c r="E15">
-        <v>0.973334250416792</v>
+        <v>0.9752629986100729</v>
       </c>
       <c r="F15">
-        <v>0.974984355452312</v>
+        <v>0.9765564020441845</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030088394316383</v>
+        <v>1.031085717437757</v>
       </c>
       <c r="J15">
-        <v>0.9921696578393081</v>
+        <v>0.9943205534325792</v>
       </c>
       <c r="K15">
-        <v>1.003458339997091</v>
+        <v>1.005146105836871</v>
       </c>
       <c r="L15">
-        <v>0.9887023580560858</v>
+        <v>0.9905923797772809</v>
       </c>
       <c r="M15">
-        <v>0.9903193189129925</v>
+        <v>0.9918599262222285</v>
+      </c>
+      <c r="N15">
+        <v>0.9957326026686152</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9666653433917132</v>
+        <v>0.968904622488324</v>
       </c>
       <c r="D16">
-        <v>0.9925048951769747</v>
+        <v>0.9942158178069662</v>
       </c>
       <c r="E16">
-        <v>0.977815116316998</v>
+        <v>0.9797327522045702</v>
       </c>
       <c r="F16">
-        <v>0.9805366962532687</v>
+        <v>0.9820932087253951</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032202320779565</v>
+        <v>1.033194456175099</v>
       </c>
       <c r="J16">
-        <v>0.996185683050636</v>
+        <v>0.9983277593194672</v>
       </c>
       <c r="K16">
-        <v>1.006973727636086</v>
+        <v>1.008653311307798</v>
       </c>
       <c r="L16">
-        <v>0.9925589266271252</v>
+        <v>0.9944400543851699</v>
       </c>
       <c r="M16">
-        <v>0.9952287484084594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9967558281005862</v>
+      </c>
+      <c r="N16">
+        <v>0.9997454992474951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9699865355445707</v>
+        <v>0.9722166175703969</v>
       </c>
       <c r="D17">
-        <v>0.9950335642495435</v>
+        <v>0.9967385963032009</v>
       </c>
       <c r="E17">
-        <v>0.980567714041362</v>
+        <v>0.9824788310902791</v>
       </c>
       <c r="F17">
-        <v>0.983945241175774</v>
+        <v>0.9854925983459272</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033495187403094</v>
+        <v>1.034484299994026</v>
       </c>
       <c r="J17">
-        <v>0.9986490332299151</v>
+        <v>1.000785988958035</v>
       </c>
       <c r="K17">
-        <v>1.009129237066204</v>
+        <v>1.010804052416138</v>
       </c>
       <c r="L17">
-        <v>0.9949252620163153</v>
+        <v>0.9968012062636573</v>
       </c>
       <c r="M17">
-        <v>0.9982407486902202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9997598679119605</v>
+      </c>
+      <c r="N17">
+        <v>1.002207219854113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9718982848010159</v>
+        <v>0.9741232104686458</v>
       </c>
       <c r="D18">
-        <v>0.9964898168077678</v>
+        <v>0.9981915498213895</v>
       </c>
       <c r="E18">
-        <v>0.9821532582749467</v>
+        <v>0.9840607239245054</v>
       </c>
       <c r="F18">
-        <v>0.9859078759725952</v>
+        <v>0.987450089535337</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034237842060224</v>
+        <v>1.035225268897029</v>
       </c>
       <c r="J18">
-        <v>1.000066654259809</v>
+        <v>1.002200760609966</v>
       </c>
       <c r="K18">
-        <v>1.010369416921522</v>
+        <v>1.012041572657286</v>
       </c>
       <c r="L18">
-        <v>0.9962873286385564</v>
+        <v>0.9981603815215849</v>
       </c>
       <c r="M18">
-        <v>0.9999743737635237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.00148902510329</v>
+      </c>
+      <c r="N18">
+        <v>1.003624000644066</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9725459383438882</v>
+        <v>0.9747691396752822</v>
       </c>
       <c r="D19">
-        <v>0.9969832716122574</v>
+        <v>0.9986839020092581</v>
       </c>
       <c r="E19">
-        <v>0.9826905810780187</v>
+        <v>0.984596826255547</v>
       </c>
       <c r="F19">
-        <v>0.9865728698419221</v>
+        <v>0.9881133615245278</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034489169781506</v>
+        <v>1.035476034423474</v>
       </c>
       <c r="J19">
-        <v>1.000546848931938</v>
+        <v>1.00268000605006</v>
       </c>
       <c r="K19">
-        <v>1.010789457440556</v>
+        <v>1.012460726113792</v>
       </c>
       <c r="L19">
-        <v>0.9967487512476695</v>
+        <v>0.9986208397397288</v>
       </c>
       <c r="M19">
-        <v>1.000561656795271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.002074813221087</v>
+      </c>
+      <c r="N19">
+        <v>1.004103926667655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9696328621661655</v>
+        <v>0.9718639090694048</v>
       </c>
       <c r="D20">
-        <v>0.9947642127400615</v>
+        <v>0.9964698624160752</v>
       </c>
       <c r="E20">
-        <v>0.9802744755783059</v>
+        <v>0.9821862761738028</v>
       </c>
       <c r="F20">
-        <v>0.983582202685874</v>
+        <v>0.9851305214720323</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033357670299415</v>
+        <v>1.03434709907618</v>
       </c>
       <c r="J20">
-        <v>0.9983867454585247</v>
+        <v>1.000524236132107</v>
       </c>
       <c r="K20">
-        <v>1.008899756203289</v>
+        <v>1.010575070360923</v>
       </c>
       <c r="L20">
-        <v>0.9946732750883678</v>
+        <v>0.9965497615929197</v>
       </c>
       <c r="M20">
-        <v>0.9979200160015632</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9994399708760416</v>
+      </c>
+      <c r="N20">
+        <v>1.001945095309149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9598542490807779</v>
+        <v>0.9621133664492008</v>
       </c>
       <c r="D21">
-        <v>0.9873241683011085</v>
+        <v>0.9890478201049695</v>
       </c>
       <c r="E21">
-        <v>0.9721777136927924</v>
+        <v>0.974109433243308</v>
       </c>
       <c r="F21">
-        <v>0.9735504940990244</v>
+        <v>0.9751266805768641</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029540976826827</v>
+        <v>1.030539693824655</v>
       </c>
       <c r="J21">
-        <v>0.9911319186322466</v>
+        <v>0.9932851902665015</v>
       </c>
       <c r="K21">
-        <v>1.002549734477729</v>
+        <v>1.004239698679277</v>
       </c>
       <c r="L21">
-        <v>0.9877060805302693</v>
+        <v>0.9895984917621333</v>
       </c>
       <c r="M21">
-        <v>0.9890509052656953</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9905951217099557</v>
+      </c>
+      <c r="N21">
+        <v>0.9946957691680838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9534486231718587</v>
+        <v>0.9557276461943793</v>
       </c>
       <c r="D22">
-        <v>0.9824584846056967</v>
+        <v>0.9841949336867206</v>
       </c>
       <c r="E22">
-        <v>0.9668854297330476</v>
+        <v>0.9688313050634935</v>
       </c>
       <c r="F22">
-        <v>0.9669849353228172</v>
+        <v>0.968580775177069</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027027037622395</v>
+        <v>1.028032429194324</v>
       </c>
       <c r="J22">
-        <v>0.9863772571411024</v>
+        <v>0.9885419413359565</v>
       </c>
       <c r="K22">
-        <v>0.998385639905612</v>
+        <v>1.000086131518333</v>
       </c>
       <c r="L22">
-        <v>0.9831427283166477</v>
+        <v>0.9850465820299891</v>
       </c>
       <c r="M22">
-        <v>0.9832400796149329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9848014498307046</v>
+      </c>
+      <c r="N22">
+        <v>0.9899457842799992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9568702524420261</v>
+        <v>0.9591384883321671</v>
       </c>
       <c r="D23">
-        <v>0.9850567091093779</v>
+        <v>0.9867862205162522</v>
       </c>
       <c r="E23">
-        <v>0.9697111953261582</v>
+        <v>0.9716493968461275</v>
       </c>
       <c r="F23">
-        <v>0.9704914349054127</v>
+        <v>0.9720766342826551</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02837113395628</v>
+        <v>1.029372900573227</v>
       </c>
       <c r="J23">
-        <v>0.9889171758374652</v>
+        <v>0.9910756548886098</v>
       </c>
       <c r="K23">
-        <v>1.000610295418716</v>
+        <v>1.002305069429106</v>
       </c>
       <c r="L23">
-        <v>0.985580177124025</v>
+        <v>0.9874778162920489</v>
       </c>
       <c r="M23">
-        <v>0.98634406222057</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9878961413300348</v>
+      </c>
+      <c r="N23">
+        <v>0.9924830959965182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9697927502821708</v>
+        <v>0.9720233605595626</v>
       </c>
       <c r="D24">
-        <v>0.9948859786063964</v>
+        <v>0.9965913487851316</v>
       </c>
       <c r="E24">
-        <v>0.9804070389977964</v>
+        <v>0.9823185302644084</v>
       </c>
       <c r="F24">
-        <v>0.9837463226940545</v>
+        <v>0.9852942063637304</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033419843634934</v>
+        <v>1.034409129303169</v>
       </c>
       <c r="J24">
-        <v>0.9985053211633196</v>
+        <v>1.000642569696239</v>
       </c>
       <c r="K24">
-        <v>1.009003501363063</v>
+        <v>1.01067858975725</v>
       </c>
       <c r="L24">
-        <v>0.9947871931062982</v>
+        <v>0.9966634341824344</v>
       </c>
       <c r="M24">
-        <v>0.9980650128013202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9995845895417832</v>
+      </c>
+      <c r="N24">
+        <v>1.002063596920514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9838003048160647</v>
+        <v>0.9859953088080712</v>
       </c>
       <c r="D25">
-        <v>1.005566573550436</v>
+        <v>1.007249226563032</v>
       </c>
       <c r="E25">
-        <v>0.9920420109141389</v>
+        <v>0.9939283490929802</v>
       </c>
       <c r="F25">
-        <v>0.9981370912058167</v>
+        <v>0.9996492788375594</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038833247342588</v>
+        <v>1.039811046576015</v>
       </c>
       <c r="J25">
-        <v>1.008885428818608</v>
+        <v>1.011003356665447</v>
       </c>
       <c r="K25">
-        <v>1.018079085891026</v>
+        <v>1.019736040363504</v>
       </c>
       <c r="L25">
-        <v>1.004765133497768</v>
+        <v>1.006621656569775</v>
       </c>
       <c r="M25">
-        <v>1.010764395433785</v>
+        <v>1.012253041741048</v>
+      </c>
+      <c r="N25">
+        <v>1.012439097395618</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9964694599503006</v>
+        <v>0.9906041174589484</v>
       </c>
       <c r="D2">
-        <v>1.015253179877398</v>
+        <v>1.009192159630552</v>
       </c>
       <c r="E2">
-        <v>1.002658338144061</v>
+        <v>0.9980705872260962</v>
       </c>
       <c r="F2">
-        <v>1.010427634290646</v>
+        <v>0.9604682909312203</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043810432045403</v>
+        <v>1.03566602691854</v>
       </c>
       <c r="J2">
-        <v>1.01875628409992</v>
+        <v>1.013069536179227</v>
       </c>
       <c r="K2">
-        <v>1.026504026252263</v>
+        <v>1.020524901430428</v>
       </c>
       <c r="L2">
-        <v>1.014080761916456</v>
+        <v>1.009556867440751</v>
       </c>
       <c r="M2">
-        <v>1.021743582273536</v>
+        <v>0.9725072925480429</v>
       </c>
       <c r="N2">
-        <v>1.020203034876321</v>
+        <v>1.014508211121301</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003735934249124</v>
+        <v>0.9967941748457946</v>
       </c>
       <c r="D3">
-        <v>1.02081158155976</v>
+        <v>1.013916923370992</v>
       </c>
       <c r="E3">
-        <v>1.008727798312919</v>
+        <v>1.003142533550028</v>
       </c>
       <c r="F3">
-        <v>1.017914616058408</v>
+        <v>0.9727999806642551</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046554717215355</v>
+        <v>1.037819917083749</v>
       </c>
       <c r="J3">
-        <v>1.024125269469705</v>
+        <v>1.017372617050168</v>
       </c>
       <c r="K3">
-        <v>1.031184923118686</v>
+        <v>1.024374778250783</v>
       </c>
       <c r="L3">
-        <v>1.019250210160351</v>
+        <v>1.013735362367226</v>
       </c>
       <c r="M3">
-        <v>1.028323294611245</v>
+        <v>0.983793141658721</v>
       </c>
       <c r="N3">
-        <v>1.025579644821163</v>
+        <v>1.01881740286065</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008295274285605</v>
+        <v>1.000685672095011</v>
       </c>
       <c r="D4">
-        <v>1.024301052663521</v>
+        <v>1.016886732024259</v>
       </c>
       <c r="E4">
-        <v>1.012541407607969</v>
+        <v>1.006337074374692</v>
       </c>
       <c r="F4">
-        <v>1.022616590660902</v>
+        <v>0.9804140531230779</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048262202246043</v>
+        <v>1.039154208197563</v>
       </c>
       <c r="J4">
-        <v>1.027489140286661</v>
+        <v>1.020071854558351</v>
       </c>
       <c r="K4">
-        <v>1.034114772136174</v>
+        <v>1.02678553323335</v>
       </c>
       <c r="L4">
-        <v>1.022490789142461</v>
+        <v>1.01635961347523</v>
       </c>
       <c r="M4">
-        <v>1.032449506246863</v>
+        <v>0.9907547559765238</v>
       </c>
       <c r="N4">
-        <v>1.02894829272052</v>
+        <v>1.021520473595701</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010179796062527</v>
+        <v>1.002295915918847</v>
       </c>
       <c r="D5">
-        <v>1.025743707189212</v>
+        <v>1.018115462362086</v>
       </c>
       <c r="E5">
-        <v>1.014118883146112</v>
+        <v>1.007660295842982</v>
       </c>
       <c r="F5">
-        <v>1.024561081240005</v>
+        <v>0.983535293333745</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048964443990551</v>
+        <v>1.039701718653905</v>
       </c>
       <c r="J5">
-        <v>1.028878301265487</v>
+        <v>1.021187330490607</v>
       </c>
       <c r="K5">
-        <v>1.035323980281896</v>
+        <v>1.027780812466465</v>
       </c>
       <c r="L5">
-        <v>1.0238294365958</v>
+        <v>1.017444835276424</v>
       </c>
       <c r="M5">
-        <v>1.034154441993975</v>
+        <v>0.9936068756087864</v>
       </c>
       <c r="N5">
-        <v>1.030339426467274</v>
+        <v>1.022637533631727</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010494378245711</v>
+        <v>1.002564815019702</v>
       </c>
       <c r="D6">
-        <v>1.025984546101062</v>
+        <v>1.01832064321576</v>
       </c>
       <c r="E6">
-        <v>1.014382277615852</v>
+        <v>1.007881342931476</v>
       </c>
       <c r="F6">
-        <v>1.024885733223935</v>
+        <v>0.9840548935673763</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049081460327537</v>
+        <v>1.039792882281738</v>
       </c>
       <c r="J6">
-        <v>1.029110118798785</v>
+        <v>1.021373522951551</v>
       </c>
       <c r="K6">
-        <v>1.035525725296643</v>
+        <v>1.027946885053512</v>
       </c>
       <c r="L6">
-        <v>1.024052847928363</v>
+        <v>1.017626020337856</v>
       </c>
       <c r="M6">
-        <v>1.034439012267734</v>
+        <v>0.9940815758659095</v>
       </c>
       <c r="N6">
-        <v>1.03057157320806</v>
+        <v>1.022823990507323</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00832057958169</v>
+        <v>1.000707287492859</v>
       </c>
       <c r="D7">
-        <v>1.024320423349218</v>
+        <v>1.016903226651212</v>
       </c>
       <c r="E7">
-        <v>1.012562585309826</v>
+        <v>1.006354831545575</v>
       </c>
       <c r="F7">
-        <v>1.022642697221093</v>
+        <v>0.9804560630976212</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04827164592151</v>
+        <v>1.039161575825104</v>
       </c>
       <c r="J7">
-        <v>1.027507798861102</v>
+        <v>1.020086834000269</v>
       </c>
       <c r="K7">
-        <v>1.034131016530791</v>
+        <v>1.026798902431037</v>
       </c>
       <c r="L7">
-        <v>1.022508767667115</v>
+        <v>1.016374183764648</v>
       </c>
       <c r="M7">
-        <v>1.032472402320082</v>
+        <v>0.9907931503949901</v>
       </c>
       <c r="N7">
-        <v>1.028966977792277</v>
+        <v>1.021535474310144</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9989559142784539</v>
+        <v>0.9927206215352864</v>
       </c>
       <c r="D8">
-        <v>1.017154705384097</v>
+        <v>1.010807752173545</v>
       </c>
       <c r="E8">
-        <v>1.004734011131117</v>
+        <v>0.9998034889438364</v>
       </c>
       <c r="F8">
-        <v>1.012988630719756</v>
+        <v>0.9647165347662879</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04475248277527</v>
+        <v>1.036406760873432</v>
       </c>
       <c r="J8">
-        <v>1.020594446653616</v>
+        <v>1.014542111171214</v>
       </c>
       <c r="K8">
-        <v>1.028107212862674</v>
+        <v>1.021843288977034</v>
       </c>
       <c r="L8">
-        <v>1.015850236810877</v>
+        <v>1.010986122754401</v>
       </c>
       <c r="M8">
-        <v>1.023995490746052</v>
+        <v>0.9763966481298044</v>
       </c>
       <c r="N8">
-        <v>1.022043807831683</v>
+        <v>1.015982877338683</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9812673657533936</v>
+        <v>0.9776974118135867</v>
       </c>
       <c r="D9">
-        <v>1.003640067047997</v>
+        <v>0.9993378540094742</v>
       </c>
       <c r="E9">
-        <v>0.9899951098235823</v>
+        <v>0.9875316904957215</v>
       </c>
       <c r="F9">
-        <v>0.9947889232441343</v>
+        <v>0.9337599707210886</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037990927769806</v>
+        <v>1.031055184836236</v>
       </c>
       <c r="J9">
-        <v>1.007499416870576</v>
+        <v>1.004063082273575</v>
       </c>
       <c r="K9">
-        <v>1.016674361485929</v>
+        <v>1.012441683213174</v>
       </c>
       <c r="L9">
-        <v>1.003252622184523</v>
+        <v>1.000830349211141</v>
       </c>
       <c r="M9">
-        <v>1.007967116146693</v>
+        <v>0.9480276805959513</v>
       </c>
       <c r="N9">
-        <v>1.00893018160433</v>
+        <v>1.005488967018048</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9685268330602842</v>
+        <v>0.966917009837404</v>
       </c>
       <c r="D10">
-        <v>0.9939281501480066</v>
+        <v>0.9911030690407374</v>
       </c>
       <c r="E10">
-        <v>0.9794196669445522</v>
+        <v>0.9787655615237266</v>
       </c>
       <c r="F10">
-        <v>0.9817055316707269</v>
+        <v>0.9101997648049283</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033047117950429</v>
+        <v>1.027081063470744</v>
       </c>
       <c r="J10">
-        <v>0.9980473124313255</v>
+        <v>0.9965076080182096</v>
       </c>
       <c r="K10">
-        <v>1.008407905997519</v>
+        <v>1.005634840086244</v>
       </c>
       <c r="L10">
-        <v>0.9941707208209334</v>
+        <v>0.9935290946285015</v>
       </c>
       <c r="M10">
-        <v>0.9964131458325691</v>
+        <v>0.9264046229234126</v>
       </c>
       <c r="N10">
-        <v>0.9994646540926048</v>
+        <v>0.9979227631226157</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.96274549280934</v>
+        <v>0.9620322343889756</v>
       </c>
       <c r="D11">
-        <v>0.9895285614424746</v>
+        <v>0.9873698001378273</v>
       </c>
       <c r="E11">
-        <v>0.9746324172530264</v>
+        <v>0.9748040796211576</v>
       </c>
       <c r="F11">
-        <v>0.9757749035836129</v>
+        <v>0.8990654157564301</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030787329931033</v>
+        <v>1.025242296584262</v>
       </c>
       <c r="J11">
-        <v>0.9937546445302315</v>
+        <v>0.9930744963763763</v>
       </c>
       <c r="K11">
-        <v>1.004650692959406</v>
+        <v>1.002533899961616</v>
       </c>
       <c r="L11">
-        <v>0.9900491273959887</v>
+        <v>0.9902173275391177</v>
       </c>
       <c r="M11">
-        <v>0.9911686013159224</v>
+        <v>0.9161797657045925</v>
       </c>
       <c r="N11">
-        <v>0.9951658901107153</v>
+        <v>0.9944847760684677</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9605543523365678</v>
+        <v>0.9601814979540064</v>
       </c>
       <c r="D12">
-        <v>0.9878624326681806</v>
+        <v>0.9859548933376538</v>
       </c>
       <c r="E12">
-        <v>0.9728199791144271</v>
+        <v>0.973304845151456</v>
       </c>
       <c r="F12">
-        <v>0.9735281541648098</v>
+        <v>0.8947612644598433</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029928504808636</v>
+        <v>1.024539150948105</v>
       </c>
       <c r="J12">
-        <v>0.9921273038610248</v>
+        <v>0.9917721676653397</v>
       </c>
       <c r="K12">
-        <v>1.003225923155197</v>
+        <v>1.001356214637837</v>
       </c>
       <c r="L12">
-        <v>0.9884871123969059</v>
+        <v>0.9889619978730316</v>
       </c>
       <c r="M12">
-        <v>0.9891807146695765</v>
+        <v>0.9122264952840574</v>
       </c>
       <c r="N12">
-        <v>0.9935362384310999</v>
+        <v>0.993180597901282</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9610264058548593</v>
+        <v>0.9605801992342901</v>
       </c>
       <c r="D13">
-        <v>0.9882213157012922</v>
+        <v>0.9862597283753659</v>
       </c>
       <c r="E13">
-        <v>0.9732103551307972</v>
+        <v>0.973627745358099</v>
       </c>
       <c r="F13">
-        <v>0.9740121436529905</v>
+        <v>0.8956926889166389</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030113632539975</v>
+        <v>1.024690935863752</v>
       </c>
       <c r="J13">
-        <v>0.9924779102605263</v>
+        <v>0.9920528015987852</v>
       </c>
       <c r="K13">
-        <v>1.003532904515865</v>
+        <v>1.001610054394783</v>
       </c>
       <c r="L13">
-        <v>0.9888236227582519</v>
+        <v>0.9892324587469459</v>
       </c>
       <c r="M13">
-        <v>0.9896089875114862</v>
+        <v>0.9130820160444603</v>
       </c>
       <c r="N13">
-        <v>0.9938873427319037</v>
+        <v>0.9934616303671024</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9625652885097854</v>
+        <v>0.9618800171834367</v>
       </c>
       <c r="D14">
-        <v>0.9893915071549774</v>
+        <v>0.9872534389084321</v>
       </c>
       <c r="E14">
-        <v>0.9744833177728212</v>
+        <v>0.974680737633961</v>
       </c>
       <c r="F14">
-        <v>0.9755901060323454</v>
+        <v>0.898713262697544</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030716745433997</v>
+        <v>1.025184601682718</v>
       </c>
       <c r="J14">
-        <v>0.9936208159599681</v>
+        <v>0.992967417464772</v>
       </c>
       <c r="K14">
-        <v>1.004533531617239</v>
+        <v>1.002437098138301</v>
       </c>
       <c r="L14">
-        <v>0.9899206613109727</v>
+        <v>0.9901140927138399</v>
       </c>
       <c r="M14">
-        <v>0.9910051166508629</v>
+        <v>0.9158563333426516</v>
       </c>
       <c r="N14">
-        <v>0.9950318714885316</v>
+        <v>0.9943775450925264</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9635075280319939</v>
+        <v>0.9626759407829565</v>
       </c>
       <c r="D15">
-        <v>0.9901081820429731</v>
+        <v>0.9878618568613918</v>
       </c>
       <c r="E15">
-        <v>0.9752629986100729</v>
+        <v>0.975325745579027</v>
       </c>
       <c r="F15">
-        <v>0.9765564020441845</v>
+        <v>0.9005510351681375</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031085717437757</v>
+        <v>1.025486012397665</v>
       </c>
       <c r="J15">
-        <v>0.9943205534325792</v>
+        <v>0.9935272529609913</v>
       </c>
       <c r="K15">
-        <v>1.005146105836871</v>
+        <v>1.002943145950951</v>
       </c>
       <c r="L15">
-        <v>0.9905923797772809</v>
+        <v>0.9906538702621117</v>
       </c>
       <c r="M15">
-        <v>0.9918599262222285</v>
+        <v>0.9175441951046415</v>
       </c>
       <c r="N15">
-        <v>0.9957326026686152</v>
+        <v>0.9949381756193646</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.968904622488324</v>
+        <v>0.9672363263126642</v>
       </c>
       <c r="D16">
-        <v>0.9942158178069662</v>
+        <v>0.9913470600144748</v>
       </c>
       <c r="E16">
-        <v>0.9797327522045702</v>
+        <v>0.979024749553933</v>
       </c>
       <c r="F16">
-        <v>0.9820932087253951</v>
+        <v>0.9109168434408904</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033194456175099</v>
+        <v>1.027200418351955</v>
       </c>
       <c r="J16">
-        <v>0.9983277593194672</v>
+        <v>0.9967318196269924</v>
       </c>
       <c r="K16">
-        <v>1.008653311307798</v>
+        <v>1.005837180501042</v>
       </c>
       <c r="L16">
-        <v>0.9944400543851699</v>
+        <v>0.9937455089729621</v>
       </c>
       <c r="M16">
-        <v>0.9967558281005862</v>
+        <v>0.927063021966951</v>
       </c>
       <c r="N16">
-        <v>0.9997454992474951</v>
+        <v>0.9981472931376003</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9722166175703969</v>
+        <v>0.9700364792796622</v>
       </c>
       <c r="D17">
-        <v>0.9967385963032009</v>
+        <v>0.9934864381111508</v>
       </c>
       <c r="E17">
-        <v>0.9824788310902791</v>
+        <v>0.9812988295869473</v>
       </c>
       <c r="F17">
-        <v>0.9854925983459272</v>
+        <v>0.9171519059059059</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034484299994026</v>
+        <v>1.028242715749037</v>
       </c>
       <c r="J17">
-        <v>1.000785988958035</v>
+        <v>0.9986968846853704</v>
       </c>
       <c r="K17">
-        <v>1.010804052416138</v>
+        <v>1.007609645731778</v>
       </c>
       <c r="L17">
-        <v>0.9968012062636573</v>
+        <v>0.9956429007972672</v>
       </c>
       <c r="M17">
-        <v>0.9997598679119605</v>
+        <v>0.9327872182773711</v>
       </c>
       <c r="N17">
-        <v>1.002207219854113</v>
+        <v>1.000115148813757</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9741232104686458</v>
+        <v>0.9716491314818121</v>
       </c>
       <c r="D18">
-        <v>0.9981915498213895</v>
+        <v>0.994718369907867</v>
       </c>
       <c r="E18">
-        <v>0.9840607239245054</v>
+        <v>0.982609496409367</v>
       </c>
       <c r="F18">
-        <v>0.987450089535337</v>
+        <v>0.9207010030396859</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035225268897029</v>
+        <v>1.028839481676011</v>
       </c>
       <c r="J18">
-        <v>1.002200760609966</v>
+        <v>0.9998277079246869</v>
       </c>
       <c r="K18">
-        <v>1.012041572657286</v>
+        <v>1.008628898235699</v>
       </c>
       <c r="L18">
-        <v>0.9981603815215849</v>
+        <v>0.9967353199326934</v>
       </c>
       <c r="M18">
-        <v>1.00148902510329</v>
+        <v>0.9360449596721058</v>
       </c>
       <c r="N18">
-        <v>1.003624000644066</v>
+        <v>1.001247577951781</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9747691396752822</v>
+        <v>0.9721956068461057</v>
       </c>
       <c r="D19">
-        <v>0.9986839020092581</v>
+        <v>0.9951358061330479</v>
       </c>
       <c r="E19">
-        <v>0.984596826255547</v>
+        <v>0.9830538036046716</v>
       </c>
       <c r="F19">
-        <v>0.9881133615245278</v>
+        <v>0.9218970035213357</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035476034423474</v>
+        <v>1.029041129601947</v>
       </c>
       <c r="J19">
-        <v>1.00268000605006</v>
+        <v>1.000210759896832</v>
       </c>
       <c r="K19">
-        <v>1.012460726113792</v>
+        <v>1.008974036035279</v>
       </c>
       <c r="L19">
-        <v>0.9986208397397288</v>
+        <v>0.9971054521700958</v>
       </c>
       <c r="M19">
-        <v>1.002074813221087</v>
+        <v>0.9371426766169468</v>
       </c>
       <c r="N19">
-        <v>1.004103926667655</v>
+        <v>1.001631173901663</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9718639090694048</v>
+        <v>0.9697382078431503</v>
       </c>
       <c r="D20">
-        <v>0.9964698624160752</v>
+        <v>0.9932585707154816</v>
       </c>
       <c r="E20">
-        <v>0.9821862761738028</v>
+        <v>0.9810564918837613</v>
       </c>
       <c r="F20">
-        <v>0.9851305214720323</v>
+        <v>0.9164921925098832</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03434709907618</v>
+        <v>1.028132059943086</v>
       </c>
       <c r="J20">
-        <v>1.000524236132107</v>
+        <v>0.9984876598035778</v>
       </c>
       <c r="K20">
-        <v>1.010575070360923</v>
+        <v>1.007421004939098</v>
       </c>
       <c r="L20">
-        <v>0.9965497615929197</v>
+        <v>0.9954408245862403</v>
       </c>
       <c r="M20">
-        <v>0.9994399708760416</v>
+        <v>0.9321816156218385</v>
       </c>
       <c r="N20">
-        <v>1.001945095309149</v>
+        <v>0.9999056268086344</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9621133664492008</v>
+        <v>0.9614982896368208</v>
       </c>
       <c r="D21">
-        <v>0.9890478201049695</v>
+        <v>0.9869616223781086</v>
       </c>
       <c r="E21">
-        <v>0.974109433243308</v>
+        <v>0.9743714502511185</v>
       </c>
       <c r="F21">
-        <v>0.9751266805768641</v>
+        <v>0.8978286976397275</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030539693824655</v>
+        <v>1.025039808285922</v>
       </c>
       <c r="J21">
-        <v>0.9932851902665015</v>
+        <v>0.9926988606004505</v>
       </c>
       <c r="K21">
-        <v>1.004239698679277</v>
+        <v>1.002194293924985</v>
       </c>
       <c r="L21">
-        <v>0.9895984917621333</v>
+        <v>0.9898551928335158</v>
       </c>
       <c r="M21">
-        <v>0.9905951217099557</v>
+        <v>0.9150439007877728</v>
       </c>
       <c r="N21">
-        <v>0.9946957691680838</v>
+        <v>0.9941086068466541</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9557276461943793</v>
+        <v>0.9561049369111139</v>
       </c>
       <c r="D22">
-        <v>0.9841949336867206</v>
+        <v>0.9828372250317253</v>
       </c>
       <c r="E22">
-        <v>0.9688313050634935</v>
+        <v>0.9700057395900029</v>
       </c>
       <c r="F22">
-        <v>0.968580775177069</v>
+        <v>0.8850988545982067</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028032429194324</v>
+        <v>1.0229772916208</v>
       </c>
       <c r="J22">
-        <v>0.9885419413359565</v>
+        <v>0.988900379396728</v>
       </c>
       <c r="K22">
-        <v>1.000086131518333</v>
+        <v>0.9987565232657826</v>
       </c>
       <c r="L22">
-        <v>0.9850465820299891</v>
+        <v>0.9861957625553891</v>
       </c>
       <c r="M22">
-        <v>0.9848014498307046</v>
+        <v>0.9033507691085508</v>
       </c>
       <c r="N22">
-        <v>0.9899457842799992</v>
+        <v>0.9903047313639304</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9591384883321671</v>
+        <v>0.9589856785416818</v>
       </c>
       <c r="D23">
-        <v>0.9867862205162522</v>
+        <v>0.985040521956269</v>
       </c>
       <c r="E23">
-        <v>0.9716493968461275</v>
+        <v>0.9723366290481099</v>
       </c>
       <c r="F23">
-        <v>0.9720766342826551</v>
+        <v>0.8919534979029631</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029372900573227</v>
+        <v>1.024082880272127</v>
       </c>
       <c r="J23">
-        <v>0.9910756548886098</v>
+        <v>0.9909302158354328</v>
       </c>
       <c r="K23">
-        <v>1.002305069429106</v>
+        <v>1.000594434144544</v>
       </c>
       <c r="L23">
-        <v>0.9874778162920489</v>
+        <v>0.9881507175330907</v>
       </c>
       <c r="M23">
-        <v>0.9878961413300348</v>
+        <v>0.909647456582295</v>
       </c>
       <c r="N23">
-        <v>0.9924830959965182</v>
+        <v>0.9923374504032039</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9720233605595626</v>
+        <v>0.9698730473445916</v>
       </c>
       <c r="D24">
-        <v>0.9965913487851316</v>
+        <v>0.9933615831948354</v>
       </c>
       <c r="E24">
-        <v>0.9823185302644084</v>
+        <v>0.981166042371621</v>
       </c>
       <c r="F24">
-        <v>0.9852942063637304</v>
+        <v>0.9167905576090934</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034409129303169</v>
+        <v>1.02818209493858</v>
       </c>
       <c r="J24">
-        <v>1.000642569696239</v>
+        <v>0.9985822467994763</v>
       </c>
       <c r="K24">
-        <v>1.01067858975725</v>
+        <v>1.007506288497648</v>
       </c>
       <c r="L24">
-        <v>0.9966634341824344</v>
+        <v>0.9955321781204123</v>
       </c>
       <c r="M24">
-        <v>0.9995845895417832</v>
+        <v>0.9324555101118939</v>
       </c>
       <c r="N24">
-        <v>1.002063596920514</v>
+        <v>1.000000348128916</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9859953088080712</v>
+        <v>0.9817056921809668</v>
       </c>
       <c r="D25">
-        <v>1.007249226563032</v>
+        <v>1.002398620267855</v>
       </c>
       <c r="E25">
-        <v>0.9939283490929802</v>
+        <v>0.9907994405700685</v>
       </c>
       <c r="F25">
-        <v>0.9996492788375594</v>
+        <v>0.9422122923442195</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039811046576015</v>
+        <v>1.032504217420652</v>
       </c>
       <c r="J25">
-        <v>1.011003356665447</v>
+        <v>1.006864817195358</v>
       </c>
       <c r="K25">
-        <v>1.019736040363504</v>
+        <v>1.01495981451308</v>
       </c>
       <c r="L25">
-        <v>1.006621656569775</v>
+        <v>1.003542282447174</v>
       </c>
       <c r="M25">
-        <v>1.012253041741048</v>
+        <v>0.9557792231071771</v>
       </c>
       <c r="N25">
-        <v>1.012439097395618</v>
+        <v>1.008294680724784</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9906041174589484</v>
+        <v>0.9926009238883232</v>
       </c>
       <c r="D2">
-        <v>1.009192159630552</v>
+        <v>1.011139777931482</v>
       </c>
       <c r="E2">
-        <v>0.9980705872260962</v>
+        <v>1.00548805478573</v>
       </c>
       <c r="F2">
-        <v>0.9604682909312203</v>
+        <v>1.006471793359922</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03566602691854</v>
+        <v>1.039339862336984</v>
       </c>
       <c r="J2">
-        <v>1.013069536179227</v>
+        <v>1.015005214934611</v>
       </c>
       <c r="K2">
-        <v>1.020524901430428</v>
+        <v>1.022446069195407</v>
       </c>
       <c r="L2">
-        <v>1.009556867440751</v>
+        <v>1.016871458137059</v>
       </c>
       <c r="M2">
-        <v>0.9725072925480429</v>
+        <v>1.017841696176931</v>
       </c>
       <c r="N2">
-        <v>1.014508211121301</v>
+        <v>1.016446638762539</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9967941748457946</v>
+        <v>0.9972527959218723</v>
       </c>
       <c r="D3">
-        <v>1.013916923370992</v>
+        <v>1.014322956303118</v>
       </c>
       <c r="E3">
-        <v>1.003142533550028</v>
+        <v>1.009685020876467</v>
       </c>
       <c r="F3">
-        <v>0.9727999806642551</v>
+        <v>1.011696249854357</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037819917083749</v>
+        <v>1.040213357857491</v>
       </c>
       <c r="J3">
-        <v>1.017372617050168</v>
+        <v>1.017818633692025</v>
       </c>
       <c r="K3">
-        <v>1.024374778250783</v>
+        <v>1.024775794486478</v>
       </c>
       <c r="L3">
-        <v>1.013735362367226</v>
+        <v>1.020195461884904</v>
       </c>
       <c r="M3">
-        <v>0.983793141658721</v>
+        <v>1.022181630758019</v>
       </c>
       <c r="N3">
-        <v>1.01881740286065</v>
+        <v>1.019264052897296</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000685672095011</v>
+        <v>1.000199383097546</v>
       </c>
       <c r="D4">
-        <v>1.016886732024259</v>
+        <v>1.016341073839361</v>
       </c>
       <c r="E4">
-        <v>1.006337074374692</v>
+        <v>1.012349234253564</v>
       </c>
       <c r="F4">
-        <v>0.9804140531230779</v>
+        <v>1.015013324126763</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039154208197563</v>
+        <v>1.04075531407943</v>
       </c>
       <c r="J4">
-        <v>1.020071854558351</v>
+        <v>1.019597990009892</v>
       </c>
       <c r="K4">
-        <v>1.02678553323335</v>
+        <v>1.026246197255298</v>
       </c>
       <c r="L4">
-        <v>1.01635961347523</v>
+        <v>1.022300865123177</v>
       </c>
       <c r="M4">
-        <v>0.9907547559765238</v>
+        <v>1.024933866467556</v>
       </c>
       <c r="N4">
-        <v>1.021520473595701</v>
+        <v>1.02104593610523</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002295915918847</v>
+        <v>1.00142349243474</v>
       </c>
       <c r="D5">
-        <v>1.018115462362086</v>
+        <v>1.017179836618564</v>
       </c>
       <c r="E5">
-        <v>1.007660295842982</v>
+        <v>1.013457392550329</v>
       </c>
       <c r="F5">
-        <v>0.983535293333745</v>
+        <v>1.016393226287953</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039701718653905</v>
+        <v>1.040977694918616</v>
       </c>
       <c r="J5">
-        <v>1.021187330490607</v>
+        <v>1.020336505760249</v>
       </c>
       <c r="K5">
-        <v>1.027780812466465</v>
+        <v>1.026855729888683</v>
       </c>
       <c r="L5">
-        <v>1.017444835276424</v>
+        <v>1.023175470204583</v>
       </c>
       <c r="M5">
-        <v>0.9936068756087864</v>
+        <v>1.026078002041962</v>
       </c>
       <c r="N5">
-        <v>1.022637533631727</v>
+        <v>1.021785500632661</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002564815019702</v>
+        <v>1.001628183328705</v>
       </c>
       <c r="D6">
-        <v>1.01832064321576</v>
+        <v>1.017320111143832</v>
       </c>
       <c r="E6">
-        <v>1.007881342931476</v>
+        <v>1.013642773479175</v>
       </c>
       <c r="F6">
-        <v>0.9840548935673763</v>
+        <v>1.016624079051706</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039792882281738</v>
+        <v>1.041014716676989</v>
       </c>
       <c r="J6">
-        <v>1.021373522951551</v>
+        <v>1.020459956127956</v>
       </c>
       <c r="K6">
-        <v>1.027946885053512</v>
+        <v>1.026957574471523</v>
       </c>
       <c r="L6">
-        <v>1.017626020337856</v>
+        <v>1.023321714665122</v>
       </c>
       <c r="M6">
-        <v>0.9940815758659095</v>
+        <v>1.026269364788207</v>
       </c>
       <c r="N6">
-        <v>1.022823990507323</v>
+        <v>1.021909126314051</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000707287492859</v>
+        <v>1.000215796492108</v>
       </c>
       <c r="D7">
-        <v>1.016903226651212</v>
+        <v>1.016352318964359</v>
       </c>
       <c r="E7">
-        <v>1.006354831545575</v>
+        <v>1.012364087603923</v>
       </c>
       <c r="F7">
-        <v>0.9804560630976212</v>
+        <v>1.015031819019621</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039161575825104</v>
+        <v>1.040758306846473</v>
       </c>
       <c r="J7">
-        <v>1.020086834000269</v>
+        <v>1.019607895114573</v>
       </c>
       <c r="K7">
-        <v>1.026798902431037</v>
+        <v>1.026254375422613</v>
       </c>
       <c r="L7">
-        <v>1.016374183764648</v>
+        <v>1.022312592440451</v>
       </c>
       <c r="M7">
-        <v>0.9907931503949901</v>
+        <v>1.024949204524541</v>
       </c>
       <c r="N7">
-        <v>1.021535474310144</v>
+        <v>1.021055855276295</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9927206215352864</v>
+        <v>0.9941865391280102</v>
       </c>
       <c r="D8">
-        <v>1.010807752173545</v>
+        <v>1.012224354492857</v>
       </c>
       <c r="E8">
-        <v>0.9998034889438364</v>
+        <v>1.006917383832317</v>
       </c>
       <c r="F8">
-        <v>0.9647165347662879</v>
+        <v>1.008250945641596</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036406760873432</v>
+        <v>1.039639946930436</v>
       </c>
       <c r="J8">
-        <v>1.014542111171214</v>
+        <v>1.015964732108901</v>
       </c>
       <c r="K8">
-        <v>1.021843288977034</v>
+        <v>1.023241246499061</v>
       </c>
       <c r="L8">
-        <v>1.010986122754401</v>
+        <v>1.01800446299434</v>
       </c>
       <c r="M8">
-        <v>0.9763966481298044</v>
+        <v>1.019320300605674</v>
       </c>
       <c r="N8">
-        <v>1.015982877338683</v>
+        <v>1.01740751856128</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9776974118135867</v>
+        <v>0.9830491220448657</v>
       </c>
       <c r="D9">
-        <v>0.9993378540094742</v>
+        <v>1.004616980477023</v>
       </c>
       <c r="E9">
-        <v>0.9875316904957215</v>
+        <v>0.9969035238731685</v>
       </c>
       <c r="F9">
-        <v>0.9337599707210886</v>
+        <v>0.995786933039532</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031055184836236</v>
+        <v>1.037485915741624</v>
       </c>
       <c r="J9">
-        <v>1.004063082273575</v>
+        <v>1.009214994443209</v>
       </c>
       <c r="K9">
-        <v>1.012441683213174</v>
+        <v>1.017635591905689</v>
       </c>
       <c r="L9">
-        <v>1.000830349211141</v>
+        <v>1.010047039814955</v>
       </c>
       <c r="M9">
-        <v>0.9480276805959513</v>
+        <v>1.00894873615965</v>
       </c>
       <c r="N9">
-        <v>1.005488967018048</v>
+        <v>1.010648195493896</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.966917009837404</v>
+        <v>0.9752389774564906</v>
       </c>
       <c r="D10">
-        <v>0.9911030690407374</v>
+        <v>0.9992993657813557</v>
       </c>
       <c r="E10">
-        <v>0.9787655615237266</v>
+        <v>0.9899156019739177</v>
       </c>
       <c r="F10">
-        <v>0.9101997648049283</v>
+        <v>0.9870878966508655</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027081063470744</v>
+        <v>1.035918767872805</v>
       </c>
       <c r="J10">
-        <v>0.9965076080182096</v>
+        <v>1.004470650845065</v>
       </c>
       <c r="K10">
-        <v>1.005634840086244</v>
+        <v>1.013681281928622</v>
       </c>
       <c r="L10">
-        <v>0.9935290946285015</v>
+        <v>1.004469352145803</v>
       </c>
       <c r="M10">
-        <v>0.9264046229234126</v>
+        <v>1.001694263394203</v>
       </c>
       <c r="N10">
-        <v>0.9979227631226157</v>
+        <v>1.005897114383659</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9620322343889756</v>
+        <v>0.9717559134396688</v>
       </c>
       <c r="D11">
-        <v>0.9873698001378273</v>
+        <v>0.9969331062756887</v>
       </c>
       <c r="E11">
-        <v>0.9748040796211576</v>
+        <v>0.9868078927146604</v>
       </c>
       <c r="F11">
-        <v>0.8990654157564301</v>
+        <v>0.9832181269237131</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025242296584262</v>
+        <v>1.035207152176752</v>
       </c>
       <c r="J11">
-        <v>0.9930744963763763</v>
+        <v>1.002352784071929</v>
       </c>
       <c r="K11">
-        <v>1.002533899961616</v>
+        <v>1.011913092410611</v>
       </c>
       <c r="L11">
-        <v>0.9902173275391177</v>
+        <v>1.001982956044477</v>
       </c>
       <c r="M11">
-        <v>0.9161797657045925</v>
+        <v>0.9984636194008548</v>
       </c>
       <c r="N11">
-        <v>0.9944847760684677</v>
+        <v>1.003776239996782</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9601814979540064</v>
+        <v>0.9704460306951087</v>
       </c>
       <c r="D12">
-        <v>0.9859548933376538</v>
+        <v>0.9960441113056175</v>
       </c>
       <c r="E12">
-        <v>0.973304845151456</v>
+        <v>0.9856405210039404</v>
       </c>
       <c r="F12">
-        <v>0.8947612644598433</v>
+        <v>0.9817642642398701</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024539150948105</v>
+        <v>1.034937685658491</v>
       </c>
       <c r="J12">
-        <v>0.9917721676653397</v>
+        <v>1.001556057857194</v>
       </c>
       <c r="K12">
-        <v>1.001356214637837</v>
+        <v>1.011247494368729</v>
       </c>
       <c r="L12">
-        <v>0.9889619978730316</v>
+        <v>1.001048095494428</v>
       </c>
       <c r="M12">
-        <v>0.9122264952840574</v>
+        <v>0.9972493746638899</v>
       </c>
       <c r="N12">
-        <v>0.993180597901282</v>
+        <v>1.002978382339437</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9605801992342901</v>
+        <v>0.970727749739166</v>
       </c>
       <c r="D13">
-        <v>0.9862597283753659</v>
+        <v>0.9962352672965851</v>
       </c>
       <c r="E13">
-        <v>0.973627745358099</v>
+        <v>0.9858915281042754</v>
       </c>
       <c r="F13">
-        <v>0.8956926889166389</v>
+        <v>0.9820768840201384</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024690935863752</v>
+        <v>1.034995722783371</v>
       </c>
       <c r="J13">
-        <v>0.9920528015987852</v>
+        <v>1.001727422024483</v>
       </c>
       <c r="K13">
-        <v>1.001610054394783</v>
+        <v>1.011390673139267</v>
       </c>
       <c r="L13">
-        <v>0.9892324587469459</v>
+        <v>1.001249147879602</v>
       </c>
       <c r="M13">
-        <v>0.9130820160444603</v>
+        <v>0.9975104922920395</v>
       </c>
       <c r="N13">
-        <v>0.9934616303671024</v>
+        <v>1.003149989863498</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9618800171834367</v>
+        <v>0.9716479724318663</v>
       </c>
       <c r="D14">
-        <v>0.9872534389084321</v>
+        <v>0.9968598298778379</v>
       </c>
       <c r="E14">
-        <v>0.974680737633961</v>
+        <v>0.9867116676092235</v>
       </c>
       <c r="F14">
-        <v>0.898713262697544</v>
+        <v>0.9830982918432684</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025184601682718</v>
+        <v>1.035184983939081</v>
       </c>
       <c r="J14">
-        <v>0.992967417464772</v>
+        <v>1.002287134667723</v>
       </c>
       <c r="K14">
-        <v>1.002437098138301</v>
+        <v>1.011858256134892</v>
       </c>
       <c r="L14">
-        <v>0.9901140927138399</v>
+        <v>1.001905914386837</v>
       </c>
       <c r="M14">
-        <v>0.9158563333426516</v>
+        <v>0.9983635449215157</v>
       </c>
       <c r="N14">
-        <v>0.9943775450925264</v>
+        <v>1.003710497362893</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9626759407829565</v>
+        <v>0.972212787838332</v>
       </c>
       <c r="D15">
-        <v>0.9878618568613918</v>
+        <v>0.9972432950486073</v>
       </c>
       <c r="E15">
-        <v>0.975325745579027</v>
+        <v>0.9872152333575572</v>
       </c>
       <c r="F15">
-        <v>0.9005510351681375</v>
+        <v>0.9837254035333935</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025486012397665</v>
+        <v>1.035300907221185</v>
       </c>
       <c r="J15">
-        <v>0.9935272529609913</v>
+        <v>1.002630643627673</v>
       </c>
       <c r="K15">
-        <v>1.002943145950951</v>
+        <v>1.012145168819444</v>
       </c>
       <c r="L15">
-        <v>0.9906538702621117</v>
+        <v>1.002309053459705</v>
       </c>
       <c r="M15">
-        <v>0.9175441951046415</v>
+        <v>0.9988872267263409</v>
       </c>
       <c r="N15">
-        <v>0.9949381756193646</v>
+        <v>1.004054494144967</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9672363263126642</v>
+        <v>0.9754679282060444</v>
       </c>
       <c r="D16">
-        <v>0.9913470600144748</v>
+        <v>0.9994550234932715</v>
       </c>
       <c r="E16">
-        <v>0.979024749553933</v>
+        <v>0.9901200642086592</v>
       </c>
       <c r="F16">
-        <v>0.9109168434408904</v>
+        <v>0.9873424679409868</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027200418351955</v>
+        <v>1.035965284632562</v>
       </c>
       <c r="J16">
-        <v>0.9967318196269924</v>
+        <v>1.004609825345848</v>
       </c>
       <c r="K16">
-        <v>1.005837180501042</v>
+        <v>1.013797417934518</v>
       </c>
       <c r="L16">
-        <v>0.9937455089729621</v>
+        <v>1.004632815143681</v>
       </c>
       <c r="M16">
-        <v>0.927063021966951</v>
+        <v>1.001906719342108</v>
       </c>
       <c r="N16">
-        <v>0.9981472931376003</v>
+        <v>1.006036486528196</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9700364792796622</v>
+        <v>0.9774820709518907</v>
       </c>
       <c r="D17">
-        <v>0.9934864381111508</v>
+        <v>1.00082499306942</v>
       </c>
       <c r="E17">
-        <v>0.9812988295869473</v>
+        <v>0.9919197664728021</v>
       </c>
       <c r="F17">
-        <v>0.9171519059059059</v>
+        <v>0.9895831049246081</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028242715749037</v>
+        <v>1.036373066112464</v>
       </c>
       <c r="J17">
-        <v>0.9986968846853704</v>
+        <v>1.005833954881395</v>
       </c>
       <c r="K17">
-        <v>1.007609645731778</v>
+        <v>1.014818572614987</v>
       </c>
       <c r="L17">
-        <v>0.9956429007972672</v>
+        <v>1.006070970441742</v>
       </c>
       <c r="M17">
-        <v>0.9327872182773711</v>
+        <v>1.003776279000063</v>
       </c>
       <c r="N17">
-        <v>1.000115148813757</v>
+        <v>1.007262354468094</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9716491314818121</v>
+        <v>0.9786471851520764</v>
       </c>
       <c r="D18">
-        <v>0.994718369907867</v>
+        <v>1.001617962274699</v>
       </c>
       <c r="E18">
-        <v>0.982609496409367</v>
+        <v>0.9929616527170012</v>
       </c>
       <c r="F18">
-        <v>0.9207010030396859</v>
+        <v>0.990880159650542</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028839481676011</v>
+        <v>1.036607743938734</v>
       </c>
       <c r="J18">
-        <v>0.9998277079246869</v>
+        <v>1.006541875217688</v>
       </c>
       <c r="K18">
-        <v>1.008628898235699</v>
+        <v>1.015408825904049</v>
       </c>
       <c r="L18">
-        <v>0.9967353199326934</v>
+        <v>1.006902993336622</v>
       </c>
       <c r="M18">
-        <v>0.9360449596721058</v>
+        <v>1.004858192439422</v>
       </c>
       <c r="N18">
-        <v>1.001247577951781</v>
+        <v>1.007971280132464</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9721956068461057</v>
+        <v>0.979042840023734</v>
       </c>
       <c r="D19">
-        <v>0.9951358061330479</v>
+        <v>1.001887322108036</v>
       </c>
       <c r="E19">
-        <v>0.9830538036046716</v>
+        <v>0.9933155987597264</v>
       </c>
       <c r="F19">
-        <v>0.9218970035213357</v>
+        <v>0.991320776034026</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029041129601947</v>
+        <v>1.036687229810003</v>
       </c>
       <c r="J19">
-        <v>1.000210759896832</v>
+        <v>1.006782239053216</v>
       </c>
       <c r="K19">
-        <v>1.008974036035279</v>
+        <v>1.01560918826171</v>
       </c>
       <c r="L19">
-        <v>0.9971054521700958</v>
+        <v>1.007185550926313</v>
       </c>
       <c r="M19">
-        <v>0.9371426766169468</v>
+        <v>1.00522566701739</v>
       </c>
       <c r="N19">
-        <v>1.001631173901663</v>
+        <v>1.008211985312208</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9697382078431503</v>
+        <v>0.9772669822959356</v>
       </c>
       <c r="D20">
-        <v>0.9932585707154816</v>
+        <v>1.000678643811273</v>
       </c>
       <c r="E20">
-        <v>0.9810564918837613</v>
+        <v>0.991727492456881</v>
       </c>
       <c r="F20">
-        <v>0.9164921925098832</v>
+        <v>0.9893437336138604</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028132059943086</v>
+        <v>1.036329644589009</v>
       </c>
       <c r="J20">
-        <v>0.9984876598035778</v>
+        <v>1.005703251238873</v>
       </c>
       <c r="K20">
-        <v>1.007421004939098</v>
+        <v>1.014709570573229</v>
       </c>
       <c r="L20">
-        <v>0.9954408245862403</v>
+        <v>1.005917380528746</v>
       </c>
       <c r="M20">
-        <v>0.9321816156218385</v>
+        <v>1.003576584920075</v>
       </c>
       <c r="N20">
-        <v>0.9999056268086344</v>
+        <v>1.007131465211407</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9614982896368208</v>
+        <v>0.9713774423760575</v>
       </c>
       <c r="D21">
-        <v>0.9869616223781086</v>
+        <v>0.9966761936161133</v>
       </c>
       <c r="E21">
-        <v>0.9743714502511185</v>
+        <v>0.9864705227703845</v>
       </c>
       <c r="F21">
-        <v>0.8978286976397275</v>
+        <v>0.9827979752553687</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025039808285922</v>
+        <v>1.035129394656069</v>
       </c>
       <c r="J21">
-        <v>0.9926988606004505</v>
+        <v>1.002122595140958</v>
       </c>
       <c r="K21">
-        <v>1.002194293924985</v>
+        <v>1.011720811331218</v>
       </c>
       <c r="L21">
-        <v>0.9898551928335158</v>
+        <v>1.00171283008444</v>
       </c>
       <c r="M21">
-        <v>0.9150439007877728</v>
+        <v>0.9981127420594068</v>
       </c>
       <c r="N21">
-        <v>0.9941086068466541</v>
+        <v>1.003545724171126</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9561049369111139</v>
+        <v>0.9675806996878393</v>
       </c>
       <c r="D22">
-        <v>0.9828372250317253</v>
+        <v>0.9941012155814628</v>
       </c>
       <c r="E22">
-        <v>0.9700057395900029</v>
+        <v>0.9830894685665815</v>
       </c>
       <c r="F22">
-        <v>0.8850988545982067</v>
+        <v>0.9785866358079625</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0229772916208</v>
+        <v>1.034344908653404</v>
       </c>
       <c r="J22">
-        <v>0.988900379396728</v>
+        <v>0.999812830760451</v>
       </c>
       <c r="K22">
-        <v>0.9987565232657826</v>
+        <v>1.009790441302941</v>
       </c>
       <c r="L22">
-        <v>0.9861957625553891</v>
+        <v>0.9990035383804289</v>
       </c>
       <c r="M22">
-        <v>0.9033507691085508</v>
+        <v>0.9945945750235405</v>
       </c>
       <c r="N22">
-        <v>0.9903047313639304</v>
+        <v>1.001232679660265</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9589856785416818</v>
+        <v>0.9696026344392894</v>
       </c>
       <c r="D23">
-        <v>0.985040521956269</v>
+        <v>0.9954719767614927</v>
       </c>
       <c r="E23">
-        <v>0.9723366290481099</v>
+        <v>0.9848892703896813</v>
       </c>
       <c r="F23">
-        <v>0.8919534979029631</v>
+        <v>0.9808285705270278</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024082880272127</v>
+        <v>1.03476367126333</v>
       </c>
       <c r="J23">
-        <v>0.9909302158354328</v>
+        <v>1.001043003083562</v>
       </c>
       <c r="K23">
-        <v>1.000594434144544</v>
+        <v>1.010818766360524</v>
       </c>
       <c r="L23">
-        <v>0.9881507175330907</v>
+        <v>1.000446228248224</v>
       </c>
       <c r="M23">
-        <v>0.909647456582295</v>
+        <v>0.9964677593207844</v>
       </c>
       <c r="N23">
-        <v>0.9923374504032039</v>
+        <v>1.002464598969178</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9698730473445916</v>
+        <v>0.9773642015140457</v>
       </c>
       <c r="D24">
-        <v>0.9933615831948354</v>
+        <v>1.00074479159031</v>
       </c>
       <c r="E24">
-        <v>0.981166042371621</v>
+        <v>0.9918143970130934</v>
       </c>
       <c r="F24">
-        <v>0.9167905576090934</v>
+        <v>0.9894519256380749</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02818209493858</v>
+        <v>1.036349274702588</v>
       </c>
       <c r="J24">
-        <v>0.9985822467994763</v>
+        <v>1.005762329382937</v>
       </c>
       <c r="K24">
-        <v>1.007506288497648</v>
+        <v>1.014758840465879</v>
       </c>
       <c r="L24">
-        <v>0.9955321781204123</v>
+        <v>1.00598680225815</v>
       </c>
       <c r="M24">
-        <v>0.9324555101118939</v>
+        <v>1.00366684450111</v>
       </c>
       <c r="N24">
-        <v>1.000000348128916</v>
+        <v>1.007190627253212</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9817056921809668</v>
+        <v>0.9859931848291679</v>
       </c>
       <c r="D25">
-        <v>1.002398620267855</v>
+        <v>1.00662533983003</v>
       </c>
       <c r="E25">
-        <v>0.9907994405700685</v>
+        <v>0.9995448415938044</v>
       </c>
       <c r="F25">
-        <v>0.9422122923442195</v>
+        <v>0.9990745091611701</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032504217420652</v>
+        <v>1.038065286253437</v>
       </c>
       <c r="J25">
-        <v>1.006864817195358</v>
+        <v>1.011001307037127</v>
       </c>
       <c r="K25">
-        <v>1.01495981451308</v>
+        <v>1.019121669242601</v>
       </c>
       <c r="L25">
-        <v>1.003542282447174</v>
+        <v>1.012150227421798</v>
       </c>
       <c r="M25">
-        <v>0.9557792231071771</v>
+        <v>1.011687209192165</v>
       </c>
       <c r="N25">
-        <v>1.008294680724784</v>
+        <v>1.01243704485659</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9926009238883232</v>
+        <v>1.026976621435872</v>
       </c>
       <c r="D2">
-        <v>1.011139777931482</v>
+        <v>1.02956058023653</v>
       </c>
       <c r="E2">
-        <v>1.00548805478573</v>
+        <v>1.036641762943746</v>
       </c>
       <c r="F2">
-        <v>1.006471793359922</v>
+        <v>1.046593706844036</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039339862336984</v>
+        <v>1.029305136208412</v>
       </c>
       <c r="J2">
-        <v>1.015005214934611</v>
+        <v>1.03213706313554</v>
       </c>
       <c r="K2">
-        <v>1.022446069195407</v>
+        <v>1.032374135958401</v>
       </c>
       <c r="L2">
-        <v>1.016871458137059</v>
+        <v>1.039434922222618</v>
       </c>
       <c r="M2">
-        <v>1.017841696176931</v>
+        <v>1.049358707036724</v>
       </c>
       <c r="N2">
-        <v>1.016446638762539</v>
+        <v>1.033602816152981</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9972527959218723</v>
+        <v>1.027957525184079</v>
       </c>
       <c r="D3">
-        <v>1.014322956303118</v>
+        <v>1.03024396543975</v>
       </c>
       <c r="E3">
-        <v>1.009685020876467</v>
+        <v>1.037586974853386</v>
       </c>
       <c r="F3">
-        <v>1.011696249854357</v>
+        <v>1.047791776093722</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040213357857491</v>
+        <v>1.029422768792544</v>
       </c>
       <c r="J3">
-        <v>1.017818633692025</v>
+        <v>1.032757794265601</v>
       </c>
       <c r="K3">
-        <v>1.024775794486478</v>
+        <v>1.032866028154563</v>
       </c>
       <c r="L3">
-        <v>1.020195461884904</v>
+        <v>1.040189418138664</v>
       </c>
       <c r="M3">
-        <v>1.022181630758019</v>
+        <v>1.050367446765378</v>
       </c>
       <c r="N3">
-        <v>1.019264052897296</v>
+        <v>1.034224428792434</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000199383097546</v>
+        <v>1.02859251344822</v>
       </c>
       <c r="D4">
-        <v>1.016341073839361</v>
+        <v>1.030686121826785</v>
       </c>
       <c r="E4">
-        <v>1.012349234253564</v>
+        <v>1.038199261807337</v>
       </c>
       <c r="F4">
-        <v>1.015013324126763</v>
+        <v>1.048568167141819</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04075531407943</v>
+        <v>1.029497481391321</v>
       </c>
       <c r="J4">
-        <v>1.019597990009892</v>
+        <v>1.033159143959063</v>
       </c>
       <c r="K4">
-        <v>1.026246197255298</v>
+        <v>1.033183599474197</v>
       </c>
       <c r="L4">
-        <v>1.022300865123177</v>
+        <v>1.040677677490814</v>
       </c>
       <c r="M4">
-        <v>1.024933866467556</v>
+        <v>1.051020758284741</v>
       </c>
       <c r="N4">
-        <v>1.02104593610523</v>
+        <v>1.034626348448495</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00142349243474</v>
+        <v>1.028859528596911</v>
       </c>
       <c r="D5">
-        <v>1.017179836618564</v>
+        <v>1.030871993750427</v>
       </c>
       <c r="E5">
-        <v>1.013457392550329</v>
+        <v>1.038456827348609</v>
       </c>
       <c r="F5">
-        <v>1.016393226287953</v>
+        <v>1.048894839413128</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040977694918616</v>
+        <v>1.029528554110763</v>
       </c>
       <c r="J5">
-        <v>1.020336505760249</v>
+        <v>1.033327797766417</v>
       </c>
       <c r="K5">
-        <v>1.026855729888683</v>
+        <v>1.033316934306799</v>
       </c>
       <c r="L5">
-        <v>1.023175470204583</v>
+        <v>1.040882953156755</v>
       </c>
       <c r="M5">
-        <v>1.026078002041962</v>
+        <v>1.051295551200866</v>
       </c>
       <c r="N5">
-        <v>1.021785500632661</v>
+        <v>1.034795241763601</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.001628183328705</v>
+        <v>1.028904365477165</v>
       </c>
       <c r="D6">
-        <v>1.017320111143832</v>
+        <v>1.030903201807772</v>
       </c>
       <c r="E6">
-        <v>1.013642773479175</v>
+        <v>1.038500083105104</v>
       </c>
       <c r="F6">
-        <v>1.016624079051706</v>
+        <v>1.04894970538866</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041014716676989</v>
+        <v>1.029533751614158</v>
       </c>
       <c r="J6">
-        <v>1.020459956127956</v>
+        <v>1.0333561111486</v>
       </c>
       <c r="K6">
-        <v>1.026957574471523</v>
+        <v>1.033339311694222</v>
       </c>
       <c r="L6">
-        <v>1.023321714665122</v>
+        <v>1.04091742049902</v>
       </c>
       <c r="M6">
-        <v>1.026269364788207</v>
+        <v>1.05134169838398</v>
       </c>
       <c r="N6">
-        <v>1.021909126314051</v>
+        <v>1.034823595354034</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000215796492108</v>
+        <v>1.028596081058613</v>
       </c>
       <c r="D7">
-        <v>1.016352318964359</v>
+        <v>1.030688605499721</v>
       </c>
       <c r="E7">
-        <v>1.012364087603923</v>
+        <v>1.038202702782457</v>
       </c>
       <c r="F7">
-        <v>1.015031819019621</v>
+        <v>1.048572531062728</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040758306846473</v>
+        <v>1.029497897909122</v>
       </c>
       <c r="J7">
-        <v>1.019607895114573</v>
+        <v>1.033161397809483</v>
       </c>
       <c r="K7">
-        <v>1.026254375422613</v>
+        <v>1.033185381778173</v>
       </c>
       <c r="L7">
-        <v>1.022312592440451</v>
+        <v>1.040680420350062</v>
       </c>
       <c r="M7">
-        <v>1.024949204524541</v>
+        <v>1.05102442952852</v>
       </c>
       <c r="N7">
-        <v>1.021055855276295</v>
+        <v>1.034628605499641</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9941865391280102</v>
+        <v>1.027308064622169</v>
       </c>
       <c r="D8">
-        <v>1.012224354492857</v>
+        <v>1.029791540957082</v>
       </c>
       <c r="E8">
-        <v>1.006917383832317</v>
+        <v>1.036961062251733</v>
       </c>
       <c r="F8">
-        <v>1.008250945641596</v>
+        <v>1.046998359583137</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039639946930436</v>
+        <v>1.029345181037698</v>
       </c>
       <c r="J8">
-        <v>1.015964732108901</v>
+        <v>1.032346904875704</v>
       </c>
       <c r="K8">
-        <v>1.023241246499061</v>
+        <v>1.032540520975797</v>
       </c>
       <c r="L8">
-        <v>1.01800446299434</v>
+        <v>1.03968989695907</v>
       </c>
       <c r="M8">
-        <v>1.019320300605674</v>
+        <v>1.049699493077365</v>
       </c>
       <c r="N8">
-        <v>1.01740751856128</v>
+        <v>1.033812955892473</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9830491220448657</v>
+        <v>1.02504056388426</v>
       </c>
       <c r="D9">
-        <v>1.004616980477023</v>
+        <v>1.028210546676084</v>
       </c>
       <c r="E9">
-        <v>0.9969035238731685</v>
+        <v>1.034778307136867</v>
       </c>
       <c r="F9">
-        <v>0.995786933039532</v>
+        <v>1.044233364911079</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037485915741624</v>
+        <v>1.029065344461944</v>
       </c>
       <c r="J9">
-        <v>1.009214994443209</v>
+        <v>1.030909356681318</v>
       </c>
       <c r="K9">
-        <v>1.017635591905689</v>
+        <v>1.031398745801676</v>
       </c>
       <c r="L9">
-        <v>1.010047039814955</v>
+        <v>1.037944875390918</v>
       </c>
       <c r="M9">
-        <v>1.00894873615965</v>
+        <v>1.047369316259821</v>
       </c>
       <c r="N9">
-        <v>1.010648195493896</v>
+        <v>1.032373366214762</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9752389774564906</v>
+        <v>1.023530366306495</v>
       </c>
       <c r="D10">
-        <v>0.9992993657813557</v>
+        <v>1.027156448664628</v>
       </c>
       <c r="E10">
-        <v>0.9899156019739177</v>
+        <v>1.033326654779589</v>
       </c>
       <c r="F10">
-        <v>0.9870878966508655</v>
+        <v>1.042396029494541</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035918767872805</v>
+        <v>1.028871598512176</v>
       </c>
       <c r="J10">
-        <v>1.004470650845065</v>
+        <v>1.029949475167546</v>
       </c>
       <c r="K10">
-        <v>1.013681281928622</v>
+        <v>1.030633944653139</v>
       </c>
       <c r="L10">
-        <v>1.004469352145803</v>
+        <v>1.036781832172202</v>
       </c>
       <c r="M10">
-        <v>1.001694263394203</v>
+        <v>1.045818930386779</v>
       </c>
       <c r="N10">
-        <v>1.005897114383659</v>
+        <v>1.031412121559139</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9717559134396688</v>
+        <v>1.022876787177276</v>
       </c>
       <c r="D11">
-        <v>0.9969331062756887</v>
+        <v>1.026700002364288</v>
       </c>
       <c r="E11">
-        <v>0.9868078927146604</v>
+        <v>1.032698915281215</v>
       </c>
       <c r="F11">
-        <v>0.9832181269237131</v>
+        <v>1.041601866615615</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035207152176752</v>
+        <v>1.028786004747578</v>
       </c>
       <c r="J11">
-        <v>1.002352784071929</v>
+        <v>1.029533483331833</v>
       </c>
       <c r="K11">
-        <v>1.011913092410611</v>
+        <v>1.030301928458542</v>
       </c>
       <c r="L11">
-        <v>1.001982956044477</v>
+        <v>1.036278299802555</v>
       </c>
       <c r="M11">
-        <v>0.9984636194008548</v>
+        <v>1.045148326597921</v>
       </c>
       <c r="N11">
-        <v>1.003776239996782</v>
+        <v>1.030995538967305</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9704460306951087</v>
+        <v>1.022634071105623</v>
       </c>
       <c r="D12">
-        <v>0.9960441113056175</v>
+        <v>1.026530456728948</v>
       </c>
       <c r="E12">
-        <v>0.9856405210039404</v>
+        <v>1.032465870964337</v>
       </c>
       <c r="F12">
-        <v>0.9817642642398701</v>
+        <v>1.04130709187564</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034937685658491</v>
+        <v>1.028753956327508</v>
       </c>
       <c r="J12">
-        <v>1.001556057857194</v>
+        <v>1.02937891234629</v>
       </c>
       <c r="K12">
-        <v>1.011247494368729</v>
+        <v>1.030178475514376</v>
       </c>
       <c r="L12">
-        <v>1.001048095494428</v>
+        <v>1.036091276846211</v>
       </c>
       <c r="M12">
-        <v>0.9972493746638899</v>
+        <v>1.04489934337771</v>
       </c>
       <c r="N12">
-        <v>1.002978382339437</v>
+        <v>1.030840748473233</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.970727749739166</v>
+        <v>1.022686132154949</v>
       </c>
       <c r="D13">
-        <v>0.9962352672965851</v>
+        <v>1.026566824878218</v>
       </c>
       <c r="E13">
-        <v>0.9858915281042754</v>
+        <v>1.032515854047014</v>
       </c>
       <c r="F13">
-        <v>0.9820768840201384</v>
+        <v>1.041370312431358</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034995722783371</v>
+        <v>1.028760842359193</v>
       </c>
       <c r="J13">
-        <v>1.001727422024483</v>
+        <v>1.029412070741882</v>
       </c>
       <c r="K13">
-        <v>1.011390673139267</v>
+        <v>1.030204962341522</v>
       </c>
       <c r="L13">
-        <v>1.001249147879602</v>
+        <v>1.036131393383302</v>
       </c>
       <c r="M13">
-        <v>0.9975104922920395</v>
+        <v>1.044952746193331</v>
       </c>
       <c r="N13">
-        <v>1.003149989863498</v>
+        <v>1.03087395395755</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9716479724318663</v>
+        <v>1.022856723122199</v>
       </c>
       <c r="D14">
-        <v>0.9968598298778379</v>
+        <v>1.02668598768651</v>
       </c>
       <c r="E14">
-        <v>0.9867116676092235</v>
+        <v>1.032679649190036</v>
       </c>
       <c r="F14">
-        <v>0.9830982918432684</v>
+        <v>1.041577496104034</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035184983939081</v>
+        <v>1.028783360816548</v>
       </c>
       <c r="J14">
-        <v>1.002287134667723</v>
+        <v>1.02952070752613</v>
       </c>
       <c r="K14">
-        <v>1.011858256134892</v>
+        <v>1.030291726393481</v>
       </c>
       <c r="L14">
-        <v>1.001905914386837</v>
+        <v>1.036262840191969</v>
       </c>
       <c r="M14">
-        <v>0.9983635449215157</v>
+        <v>1.045127743344951</v>
       </c>
       <c r="N14">
-        <v>1.003710497362893</v>
+        <v>1.030982745018493</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.972212787838332</v>
+        <v>1.02296183678827</v>
       </c>
       <c r="D15">
-        <v>0.9972432950486073</v>
+        <v>1.026759407704728</v>
       </c>
       <c r="E15">
-        <v>0.9872152333575572</v>
+        <v>1.032780585507299</v>
       </c>
       <c r="F15">
-        <v>0.9837254035333935</v>
+        <v>1.04170517699098</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035300907221185</v>
+        <v>1.028797201391919</v>
       </c>
       <c r="J15">
-        <v>1.002630643627673</v>
+        <v>1.029587635213959</v>
       </c>
       <c r="K15">
-        <v>1.012145168819444</v>
+        <v>1.030345167735589</v>
       </c>
       <c r="L15">
-        <v>1.002309053459705</v>
+        <v>1.036343830430238</v>
       </c>
       <c r="M15">
-        <v>0.9988872267263409</v>
+        <v>1.045235579299693</v>
       </c>
       <c r="N15">
-        <v>1.004054494144967</v>
+        <v>1.031049767751315</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9754679282060444</v>
+        <v>1.023573749522306</v>
       </c>
       <c r="D16">
-        <v>0.9994550234932715</v>
+        <v>1.027186741280798</v>
       </c>
       <c r="E16">
-        <v>0.9901200642086592</v>
+        <v>1.033368333433759</v>
       </c>
       <c r="F16">
-        <v>0.9873424679409868</v>
+        <v>1.042448765296281</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035965284632562</v>
+        <v>1.028877243294739</v>
       </c>
       <c r="J16">
-        <v>1.004609825345848</v>
+        <v>1.029977075701694</v>
       </c>
       <c r="K16">
-        <v>1.013797417934518</v>
+        <v>1.030655961577868</v>
       </c>
       <c r="L16">
-        <v>1.004632815143681</v>
+        <v>1.03681525153105</v>
       </c>
       <c r="M16">
-        <v>1.001906719342108</v>
+        <v>1.045863451411118</v>
       </c>
       <c r="N16">
-        <v>1.006036486528196</v>
+        <v>1.031439761289212</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9774820709518907</v>
+        <v>1.023957679145908</v>
       </c>
       <c r="D17">
-        <v>1.00082499306942</v>
+        <v>1.027454793118096</v>
       </c>
       <c r="E17">
-        <v>0.9919197664728021</v>
+        <v>1.033737236269084</v>
       </c>
       <c r="F17">
-        <v>0.9895831049246081</v>
+        <v>1.042915577595346</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036373066112464</v>
+        <v>1.028926996474743</v>
       </c>
       <c r="J17">
-        <v>1.005833954881395</v>
+        <v>1.030221266263749</v>
       </c>
       <c r="K17">
-        <v>1.014818572614987</v>
+        <v>1.030850686663015</v>
       </c>
       <c r="L17">
-        <v>1.006070970441742</v>
+        <v>1.037110981374608</v>
       </c>
       <c r="M17">
-        <v>1.003776279000063</v>
+        <v>1.046257492835367</v>
       </c>
       <c r="N17">
-        <v>1.007262354468094</v>
+        <v>1.031684298629874</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9786471851520764</v>
+        <v>1.024181652202407</v>
       </c>
       <c r="D18">
-        <v>1.001617962274699</v>
+        <v>1.027611141709059</v>
       </c>
       <c r="E18">
-        <v>0.9929616527170012</v>
+        <v>1.033952491633172</v>
       </c>
       <c r="F18">
-        <v>0.990880159650542</v>
+        <v>1.043187997881054</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036607743938734</v>
+        <v>1.028955852563795</v>
       </c>
       <c r="J18">
-        <v>1.006541875217688</v>
+        <v>1.030363664026334</v>
       </c>
       <c r="K18">
-        <v>1.015408825904049</v>
+        <v>1.030964184234344</v>
       </c>
       <c r="L18">
-        <v>1.006902993336622</v>
+        <v>1.037283482606301</v>
       </c>
       <c r="M18">
-        <v>1.004858192439422</v>
+        <v>1.046487400328558</v>
       </c>
       <c r="N18">
-        <v>1.007971280132464</v>
+        <v>1.031826898613616</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.979042840023734</v>
+        <v>1.024258026883995</v>
       </c>
       <c r="D19">
-        <v>1.001887322108036</v>
+        <v>1.027664452248939</v>
       </c>
       <c r="E19">
-        <v>0.9933155987597264</v>
+        <v>1.03402590180094</v>
       </c>
       <c r="F19">
-        <v>0.991320776034026</v>
+        <v>1.043280909321528</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036687229810003</v>
+        <v>1.028965663898403</v>
       </c>
       <c r="J19">
-        <v>1.006782239053216</v>
+        <v>1.030412212122813</v>
       </c>
       <c r="K19">
-        <v>1.01560918826171</v>
+        <v>1.031002869996494</v>
       </c>
       <c r="L19">
-        <v>1.007185550926313</v>
+        <v>1.037342302246134</v>
       </c>
       <c r="M19">
-        <v>1.00522566701739</v>
+        <v>1.046565804675659</v>
       </c>
       <c r="N19">
-        <v>1.008211985312208</v>
+        <v>1.031875515653961</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9772669822959356</v>
+        <v>1.023916483673694</v>
       </c>
       <c r="D20">
-        <v>1.000678643811273</v>
+        <v>1.027426033841158</v>
       </c>
       <c r="E20">
-        <v>0.991727492456881</v>
+        <v>1.033697648147136</v>
       </c>
       <c r="F20">
-        <v>0.9893437336138604</v>
+        <v>1.042865478927009</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036329644589009</v>
+        <v>1.02892167540006</v>
       </c>
       <c r="J20">
-        <v>1.005703251238873</v>
+        <v>1.030195070488147</v>
       </c>
       <c r="K20">
-        <v>1.014709570573229</v>
+        <v>1.030829803009407</v>
       </c>
       <c r="L20">
-        <v>1.005917380528746</v>
+        <v>1.037079251632257</v>
       </c>
       <c r="M20">
-        <v>1.003576584920075</v>
+        <v>1.046215208698855</v>
       </c>
       <c r="N20">
-        <v>1.007131465211407</v>
+        <v>1.031658065653266</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9713774423760575</v>
+        <v>1.022806486887749</v>
       </c>
       <c r="D21">
-        <v>0.9966761936161133</v>
+        <v>1.026650897232752</v>
       </c>
       <c r="E21">
-        <v>0.9864705227703845</v>
+        <v>1.032631412117964</v>
       </c>
       <c r="F21">
-        <v>0.9827979752553687</v>
+        <v>1.041516479803961</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035129394656069</v>
+        <v>1.028776736730535</v>
       </c>
       <c r="J21">
-        <v>1.002122595140958</v>
+        <v>1.029488718162469</v>
       </c>
       <c r="K21">
-        <v>1.011720811331218</v>
+        <v>1.030266180052528</v>
       </c>
       <c r="L21">
-        <v>1.00171283008444</v>
+        <v>1.036224132065401</v>
       </c>
       <c r="M21">
-        <v>0.9981127420594068</v>
+        <v>1.045076208038212</v>
       </c>
       <c r="N21">
-        <v>1.003545724171126</v>
+        <v>1.030950710226266</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9675806996878393</v>
+        <v>1.022108890686034</v>
       </c>
       <c r="D22">
-        <v>0.9941012155814628</v>
+        <v>1.026163531927309</v>
       </c>
       <c r="E22">
-        <v>0.9830894685665815</v>
+        <v>1.031961756958803</v>
       </c>
       <c r="F22">
-        <v>0.9785866358079625</v>
+        <v>1.040669541238313</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034344908653404</v>
+        <v>1.02868413238975</v>
       </c>
       <c r="J22">
-        <v>0.999812830760451</v>
+        <v>1.029044299478179</v>
       </c>
       <c r="K22">
-        <v>1.009790441302941</v>
+        <v>1.029911071485355</v>
       </c>
       <c r="L22">
-        <v>0.9990035383804289</v>
+        <v>1.035686550534523</v>
       </c>
       <c r="M22">
-        <v>0.9945945750235405</v>
+        <v>1.044360703189233</v>
       </c>
       <c r="N22">
-        <v>1.001232679660265</v>
+        <v>1.030505660416468</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9696026344392894</v>
+        <v>1.022478670832985</v>
       </c>
       <c r="D23">
-        <v>0.9954719767614927</v>
+        <v>1.026421893719385</v>
       </c>
       <c r="E23">
-        <v>0.9848892703896813</v>
+        <v>1.032316684472549</v>
       </c>
       <c r="F23">
-        <v>0.9808285705270278</v>
+        <v>1.041118402718801</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03476367126333</v>
+        <v>1.028733363445371</v>
       </c>
       <c r="J23">
-        <v>1.001043003083562</v>
+        <v>1.029279923155323</v>
       </c>
       <c r="K23">
-        <v>1.010818766360524</v>
+        <v>1.030099390830363</v>
       </c>
       <c r="L23">
-        <v>1.000446228248224</v>
+        <v>1.03597152627253</v>
       </c>
       <c r="M23">
-        <v>0.9964677593207844</v>
+        <v>1.04473994606114</v>
       </c>
       <c r="N23">
-        <v>1.002464598969178</v>
+        <v>1.030741618706261</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9773642015140457</v>
+        <v>1.023935098031062</v>
       </c>
       <c r="D24">
-        <v>1.00074479159031</v>
+        <v>1.027439028925225</v>
       </c>
       <c r="E24">
-        <v>0.9918143970130934</v>
+        <v>1.033715536066387</v>
       </c>
       <c r="F24">
-        <v>0.9894519256380749</v>
+        <v>1.042888115936649</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036349274702588</v>
+        <v>1.028924080271727</v>
       </c>
       <c r="J24">
-        <v>1.005762329382937</v>
+        <v>1.030206907338026</v>
       </c>
       <c r="K24">
-        <v>1.014758840465879</v>
+        <v>1.030839239687793</v>
       </c>
       <c r="L24">
-        <v>1.00598680225815</v>
+        <v>1.037093588915316</v>
       </c>
       <c r="M24">
-        <v>1.00366684450111</v>
+        <v>1.046234314864286</v>
       </c>
       <c r="N24">
-        <v>1.007190627253212</v>
+        <v>1.03166991931283</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9859931848291679</v>
+        <v>1.025626509985362</v>
       </c>
       <c r="D25">
-        <v>1.00662533983003</v>
+        <v>1.028619294477664</v>
       </c>
       <c r="E25">
-        <v>0.9995448415938044</v>
+        <v>1.035341984488402</v>
       </c>
       <c r="F25">
-        <v>0.9990745091611701</v>
+        <v>1.04494712671842</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038065286253437</v>
+        <v>1.029138957801592</v>
       </c>
       <c r="J25">
-        <v>1.011001307037127</v>
+        <v>1.031281267158212</v>
       </c>
       <c r="K25">
-        <v>1.019121669242601</v>
+        <v>1.031694563006964</v>
       </c>
       <c r="L25">
-        <v>1.012150227421798</v>
+        <v>1.03839595388061</v>
       </c>
       <c r="M25">
-        <v>1.011687209192165</v>
+        <v>1.047971183961924</v>
       </c>
       <c r="N25">
-        <v>1.01243704485659</v>
+        <v>1.032745804847192</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026976621435872</v>
+        <v>0.9926009238883238</v>
       </c>
       <c r="D2">
-        <v>1.02956058023653</v>
+        <v>1.011139777931482</v>
       </c>
       <c r="E2">
-        <v>1.036641762943746</v>
+        <v>1.005488054785731</v>
       </c>
       <c r="F2">
-        <v>1.046593706844036</v>
+        <v>1.006471793359923</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029305136208412</v>
+        <v>1.039339862336984</v>
       </c>
       <c r="J2">
-        <v>1.03213706313554</v>
+        <v>1.015005214934612</v>
       </c>
       <c r="K2">
-        <v>1.032374135958401</v>
+        <v>1.022446069195407</v>
       </c>
       <c r="L2">
-        <v>1.039434922222618</v>
+        <v>1.01687145813706</v>
       </c>
       <c r="M2">
-        <v>1.049358707036724</v>
+        <v>1.017841696176932</v>
       </c>
       <c r="N2">
-        <v>1.033602816152981</v>
+        <v>1.01644663876254</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027957525184079</v>
+        <v>0.9972527959218721</v>
       </c>
       <c r="D3">
-        <v>1.03024396543975</v>
+        <v>1.014322956303117</v>
       </c>
       <c r="E3">
-        <v>1.037586974853386</v>
+        <v>1.009685020876466</v>
       </c>
       <c r="F3">
-        <v>1.047791776093722</v>
+        <v>1.011696249854357</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029422768792544</v>
+        <v>1.040213357857491</v>
       </c>
       <c r="J3">
-        <v>1.032757794265601</v>
+        <v>1.017818633692024</v>
       </c>
       <c r="K3">
-        <v>1.032866028154563</v>
+        <v>1.024775794486478</v>
       </c>
       <c r="L3">
-        <v>1.040189418138664</v>
+        <v>1.020195461884903</v>
       </c>
       <c r="M3">
-        <v>1.050367446765378</v>
+        <v>1.022181630758019</v>
       </c>
       <c r="N3">
-        <v>1.034224428792434</v>
+        <v>1.019264052897296</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02859251344822</v>
+        <v>1.000199383097546</v>
       </c>
       <c r="D4">
-        <v>1.030686121826785</v>
+        <v>1.01634107383936</v>
       </c>
       <c r="E4">
-        <v>1.038199261807337</v>
+        <v>1.012349234253563</v>
       </c>
       <c r="F4">
-        <v>1.048568167141819</v>
+        <v>1.015013324126761</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029497481391321</v>
+        <v>1.04075531407943</v>
       </c>
       <c r="J4">
-        <v>1.033159143959063</v>
+        <v>1.019597990009891</v>
       </c>
       <c r="K4">
-        <v>1.033183599474197</v>
+        <v>1.026246197255297</v>
       </c>
       <c r="L4">
-        <v>1.040677677490814</v>
+        <v>1.022300865123176</v>
       </c>
       <c r="M4">
-        <v>1.051020758284741</v>
+        <v>1.024933866467554</v>
       </c>
       <c r="N4">
-        <v>1.034626348448495</v>
+        <v>1.021045936105229</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028859528596911</v>
+        <v>1.001423492434741</v>
       </c>
       <c r="D5">
-        <v>1.030871993750427</v>
+        <v>1.017179836618564</v>
       </c>
       <c r="E5">
-        <v>1.038456827348609</v>
+        <v>1.013457392550329</v>
       </c>
       <c r="F5">
-        <v>1.048894839413128</v>
+        <v>1.016393226287953</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029528554110763</v>
+        <v>1.040977694918617</v>
       </c>
       <c r="J5">
-        <v>1.033327797766417</v>
+        <v>1.02033650576025</v>
       </c>
       <c r="K5">
-        <v>1.033316934306799</v>
+        <v>1.026855729888683</v>
       </c>
       <c r="L5">
-        <v>1.040882953156755</v>
+        <v>1.023175470204583</v>
       </c>
       <c r="M5">
-        <v>1.051295551200866</v>
+        <v>1.026078002041962</v>
       </c>
       <c r="N5">
-        <v>1.034795241763601</v>
+        <v>1.021785500632662</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028904365477165</v>
+        <v>1.001628183328705</v>
       </c>
       <c r="D6">
-        <v>1.030903201807772</v>
+        <v>1.017320111143831</v>
       </c>
       <c r="E6">
-        <v>1.038500083105104</v>
+        <v>1.013642773479174</v>
       </c>
       <c r="F6">
-        <v>1.04894970538866</v>
+        <v>1.016624079051706</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029533751614158</v>
+        <v>1.041014716676989</v>
       </c>
       <c r="J6">
-        <v>1.0333561111486</v>
+        <v>1.020459956127956</v>
       </c>
       <c r="K6">
-        <v>1.033339311694222</v>
+        <v>1.026957574471522</v>
       </c>
       <c r="L6">
-        <v>1.04091742049902</v>
+        <v>1.023321714665122</v>
       </c>
       <c r="M6">
-        <v>1.05134169838398</v>
+        <v>1.026269364788206</v>
       </c>
       <c r="N6">
-        <v>1.034823595354034</v>
+        <v>1.021909126314051</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028596081058613</v>
+        <v>1.000215796492107</v>
       </c>
       <c r="D7">
-        <v>1.030688605499721</v>
+        <v>1.016352318964359</v>
       </c>
       <c r="E7">
-        <v>1.038202702782457</v>
+        <v>1.012364087603923</v>
       </c>
       <c r="F7">
-        <v>1.048572531062728</v>
+        <v>1.015031819019621</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029497897909122</v>
+        <v>1.040758306846473</v>
       </c>
       <c r="J7">
-        <v>1.033161397809483</v>
+        <v>1.019607895114572</v>
       </c>
       <c r="K7">
-        <v>1.033185381778173</v>
+        <v>1.026254375422613</v>
       </c>
       <c r="L7">
-        <v>1.040680420350062</v>
+        <v>1.022312592440451</v>
       </c>
       <c r="M7">
-        <v>1.05102442952852</v>
+        <v>1.024949204524541</v>
       </c>
       <c r="N7">
-        <v>1.034628605499641</v>
+        <v>1.021055855276295</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027308064622169</v>
+        <v>0.9941865391280094</v>
       </c>
       <c r="D8">
-        <v>1.029791540957082</v>
+        <v>1.012224354492856</v>
       </c>
       <c r="E8">
-        <v>1.036961062251733</v>
+        <v>1.006917383832316</v>
       </c>
       <c r="F8">
-        <v>1.046998359583137</v>
+        <v>1.008250945641595</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029345181037698</v>
+        <v>1.039639946930435</v>
       </c>
       <c r="J8">
-        <v>1.032346904875704</v>
+        <v>1.015964732108901</v>
       </c>
       <c r="K8">
-        <v>1.032540520975797</v>
+        <v>1.02324124649906</v>
       </c>
       <c r="L8">
-        <v>1.03968989695907</v>
+        <v>1.018004462994339</v>
       </c>
       <c r="M8">
-        <v>1.049699493077365</v>
+        <v>1.019320300605672</v>
       </c>
       <c r="N8">
-        <v>1.033812955892473</v>
+        <v>1.017407518561279</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02504056388426</v>
+        <v>0.9830491220448658</v>
       </c>
       <c r="D9">
-        <v>1.028210546676084</v>
+        <v>1.004616980477023</v>
       </c>
       <c r="E9">
-        <v>1.034778307136867</v>
+        <v>0.9969035238731685</v>
       </c>
       <c r="F9">
-        <v>1.044233364911079</v>
+        <v>0.9957869330395321</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029065344461944</v>
+        <v>1.037485915741624</v>
       </c>
       <c r="J9">
-        <v>1.030909356681318</v>
+        <v>1.009214994443209</v>
       </c>
       <c r="K9">
-        <v>1.031398745801676</v>
+        <v>1.017635591905689</v>
       </c>
       <c r="L9">
-        <v>1.037944875390918</v>
+        <v>1.010047039814955</v>
       </c>
       <c r="M9">
-        <v>1.047369316259821</v>
+        <v>1.00894873615965</v>
       </c>
       <c r="N9">
-        <v>1.032373366214762</v>
+        <v>1.010648195493896</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023530366306495</v>
+        <v>0.9752389774564905</v>
       </c>
       <c r="D10">
-        <v>1.027156448664628</v>
+        <v>0.9992993657813554</v>
       </c>
       <c r="E10">
-        <v>1.033326654779589</v>
+        <v>0.9899156019739176</v>
       </c>
       <c r="F10">
-        <v>1.042396029494541</v>
+        <v>0.9870878966508656</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028871598512176</v>
+        <v>1.035918767872805</v>
       </c>
       <c r="J10">
-        <v>1.029949475167546</v>
+        <v>1.004470650845065</v>
       </c>
       <c r="K10">
-        <v>1.030633944653139</v>
+        <v>1.013681281928621</v>
       </c>
       <c r="L10">
-        <v>1.036781832172202</v>
+        <v>1.004469352145803</v>
       </c>
       <c r="M10">
-        <v>1.045818930386779</v>
+        <v>1.001694263394203</v>
       </c>
       <c r="N10">
-        <v>1.031412121559139</v>
+        <v>1.005897114383659</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022876787177276</v>
+        <v>0.9717559134396689</v>
       </c>
       <c r="D11">
-        <v>1.026700002364288</v>
+        <v>0.9969331062756895</v>
       </c>
       <c r="E11">
-        <v>1.032698915281215</v>
+        <v>0.9868078927146609</v>
       </c>
       <c r="F11">
-        <v>1.041601866615615</v>
+        <v>0.9832181269237137</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028786004747578</v>
+        <v>1.035207152176753</v>
       </c>
       <c r="J11">
-        <v>1.029533483331833</v>
+        <v>1.00235278407193</v>
       </c>
       <c r="K11">
-        <v>1.030301928458542</v>
+        <v>1.011913092410612</v>
       </c>
       <c r="L11">
-        <v>1.036278299802555</v>
+        <v>1.001982956044477</v>
       </c>
       <c r="M11">
-        <v>1.045148326597921</v>
+        <v>0.9984636194008555</v>
       </c>
       <c r="N11">
-        <v>1.030995538967305</v>
+        <v>1.003776239996783</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022634071105623</v>
+        <v>0.9704460306951098</v>
       </c>
       <c r="D12">
-        <v>1.026530456728948</v>
+        <v>0.9960441113056182</v>
       </c>
       <c r="E12">
-        <v>1.032465870964337</v>
+        <v>0.9856405210039414</v>
       </c>
       <c r="F12">
-        <v>1.04130709187564</v>
+        <v>0.981764264239871</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028753956327508</v>
+        <v>1.034937685658491</v>
       </c>
       <c r="J12">
-        <v>1.02937891234629</v>
+        <v>1.001556057857195</v>
       </c>
       <c r="K12">
-        <v>1.030178475514376</v>
+        <v>1.011247494368729</v>
       </c>
       <c r="L12">
-        <v>1.036091276846211</v>
+        <v>1.001048095494429</v>
       </c>
       <c r="M12">
-        <v>1.04489934337771</v>
+        <v>0.997249374663891</v>
       </c>
       <c r="N12">
-        <v>1.030840748473233</v>
+        <v>1.002978382339438</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022686132154949</v>
+        <v>0.9707277497391645</v>
       </c>
       <c r="D13">
-        <v>1.026566824878218</v>
+        <v>0.9962352672965841</v>
       </c>
       <c r="E13">
-        <v>1.032515854047014</v>
+        <v>0.9858915281042738</v>
       </c>
       <c r="F13">
-        <v>1.041370312431358</v>
+        <v>0.9820768840201368</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028760842359193</v>
+        <v>1.034995722783371</v>
       </c>
       <c r="J13">
-        <v>1.029412070741882</v>
+        <v>1.001727422024481</v>
       </c>
       <c r="K13">
-        <v>1.030204962341522</v>
+        <v>1.011390673139266</v>
       </c>
       <c r="L13">
-        <v>1.036131393383302</v>
+        <v>1.0012491478796</v>
       </c>
       <c r="M13">
-        <v>1.044952746193331</v>
+        <v>0.9975104922920378</v>
       </c>
       <c r="N13">
-        <v>1.03087395395755</v>
+        <v>1.003149989863497</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022856723122199</v>
+        <v>0.9716479724318661</v>
       </c>
       <c r="D14">
-        <v>1.02668598768651</v>
+        <v>0.9968598298778378</v>
       </c>
       <c r="E14">
-        <v>1.032679649190036</v>
+        <v>0.9867116676092232</v>
       </c>
       <c r="F14">
-        <v>1.041577496104034</v>
+        <v>0.9830982918432682</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028783360816548</v>
+        <v>1.035184983939081</v>
       </c>
       <c r="J14">
-        <v>1.02952070752613</v>
+        <v>1.002287134667723</v>
       </c>
       <c r="K14">
-        <v>1.030291726393481</v>
+        <v>1.011858256134891</v>
       </c>
       <c r="L14">
-        <v>1.036262840191969</v>
+        <v>1.001905914386836</v>
       </c>
       <c r="M14">
-        <v>1.045127743344951</v>
+        <v>0.9983635449215157</v>
       </c>
       <c r="N14">
-        <v>1.030982745018493</v>
+        <v>1.003710497362892</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02296183678827</v>
+        <v>0.9722127878383326</v>
       </c>
       <c r="D15">
-        <v>1.026759407704728</v>
+        <v>0.9972432950486083</v>
       </c>
       <c r="E15">
-        <v>1.032780585507299</v>
+        <v>0.9872152333575579</v>
       </c>
       <c r="F15">
-        <v>1.04170517699098</v>
+        <v>0.9837254035333941</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028797201391919</v>
+        <v>1.035300907221185</v>
       </c>
       <c r="J15">
-        <v>1.029587635213959</v>
+        <v>1.002630643627674</v>
       </c>
       <c r="K15">
-        <v>1.030345167735589</v>
+        <v>1.012145168819445</v>
       </c>
       <c r="L15">
-        <v>1.036343830430238</v>
+        <v>1.002309053459706</v>
       </c>
       <c r="M15">
-        <v>1.045235579299693</v>
+        <v>0.9988872267263414</v>
       </c>
       <c r="N15">
-        <v>1.031049767751315</v>
+        <v>1.004054494144967</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023573749522306</v>
+        <v>0.9754679282060438</v>
       </c>
       <c r="D16">
-        <v>1.027186741280798</v>
+        <v>0.9994550234932712</v>
       </c>
       <c r="E16">
-        <v>1.033368333433759</v>
+        <v>0.9901200642086582</v>
       </c>
       <c r="F16">
-        <v>1.042448765296281</v>
+        <v>0.9873424679409857</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028877243294739</v>
+        <v>1.035965284632562</v>
       </c>
       <c r="J16">
-        <v>1.029977075701694</v>
+        <v>1.004609825345847</v>
       </c>
       <c r="K16">
-        <v>1.030655961577868</v>
+        <v>1.013797417934517</v>
       </c>
       <c r="L16">
-        <v>1.03681525153105</v>
+        <v>1.004632815143679</v>
       </c>
       <c r="M16">
-        <v>1.045863451411118</v>
+        <v>1.001906719342107</v>
       </c>
       <c r="N16">
-        <v>1.031439761289212</v>
+        <v>1.006036486528195</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023957679145908</v>
+        <v>0.9774820709518909</v>
       </c>
       <c r="D17">
-        <v>1.027454793118096</v>
+        <v>1.00082499306942</v>
       </c>
       <c r="E17">
-        <v>1.033737236269084</v>
+        <v>0.9919197664728022</v>
       </c>
       <c r="F17">
-        <v>1.042915577595346</v>
+        <v>0.9895831049246081</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028926996474743</v>
+        <v>1.036373066112464</v>
       </c>
       <c r="J17">
-        <v>1.030221266263749</v>
+        <v>1.005833954881395</v>
       </c>
       <c r="K17">
-        <v>1.030850686663015</v>
+        <v>1.014818572614987</v>
       </c>
       <c r="L17">
-        <v>1.037110981374608</v>
+        <v>1.006070970441742</v>
       </c>
       <c r="M17">
-        <v>1.046257492835367</v>
+        <v>1.003776279000063</v>
       </c>
       <c r="N17">
-        <v>1.031684298629874</v>
+        <v>1.007262354468094</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024181652202407</v>
+        <v>0.9786471851520766</v>
       </c>
       <c r="D18">
-        <v>1.027611141709059</v>
+        <v>1.001617962274699</v>
       </c>
       <c r="E18">
-        <v>1.033952491633172</v>
+        <v>0.9929616527170013</v>
       </c>
       <c r="F18">
-        <v>1.043187997881054</v>
+        <v>0.9908801596505424</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028955852563795</v>
+        <v>1.036607743938734</v>
       </c>
       <c r="J18">
-        <v>1.030363664026334</v>
+        <v>1.006541875217688</v>
       </c>
       <c r="K18">
-        <v>1.030964184234344</v>
+        <v>1.015408825904049</v>
       </c>
       <c r="L18">
-        <v>1.037283482606301</v>
+        <v>1.006902993336622</v>
       </c>
       <c r="M18">
-        <v>1.046487400328558</v>
+        <v>1.004858192439422</v>
       </c>
       <c r="N18">
-        <v>1.031826898613616</v>
+        <v>1.007971280132464</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024258026883995</v>
+        <v>0.9790428400237335</v>
       </c>
       <c r="D19">
-        <v>1.027664452248939</v>
+        <v>1.001887322108036</v>
       </c>
       <c r="E19">
-        <v>1.03402590180094</v>
+        <v>0.9933155987597255</v>
       </c>
       <c r="F19">
-        <v>1.043280909321528</v>
+        <v>0.9913207760340255</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028965663898403</v>
+        <v>1.036687229810002</v>
       </c>
       <c r="J19">
-        <v>1.030412212122813</v>
+        <v>1.006782239053215</v>
       </c>
       <c r="K19">
-        <v>1.031002869996494</v>
+        <v>1.01560918826171</v>
       </c>
       <c r="L19">
-        <v>1.037342302246134</v>
+        <v>1.007185550926312</v>
       </c>
       <c r="M19">
-        <v>1.046565804675659</v>
+        <v>1.005225667017389</v>
       </c>
       <c r="N19">
-        <v>1.031875515653961</v>
+        <v>1.008211985312208</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023916483673694</v>
+        <v>0.9772669822959349</v>
       </c>
       <c r="D20">
-        <v>1.027426033841158</v>
+        <v>1.000678643811272</v>
       </c>
       <c r="E20">
-        <v>1.033697648147136</v>
+        <v>0.99172749245688</v>
       </c>
       <c r="F20">
-        <v>1.042865478927009</v>
+        <v>0.9893437336138595</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02892167540006</v>
+        <v>1.036329644589008</v>
       </c>
       <c r="J20">
-        <v>1.030195070488147</v>
+        <v>1.005703251238872</v>
       </c>
       <c r="K20">
-        <v>1.030829803009407</v>
+        <v>1.014709570573228</v>
       </c>
       <c r="L20">
-        <v>1.037079251632257</v>
+        <v>1.005917380528745</v>
       </c>
       <c r="M20">
-        <v>1.046215208698855</v>
+        <v>1.003576584920074</v>
       </c>
       <c r="N20">
-        <v>1.031658065653266</v>
+        <v>1.007131465211407</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022806486887749</v>
+        <v>0.9713774423760571</v>
       </c>
       <c r="D21">
-        <v>1.026650897232752</v>
+        <v>0.9966761936161129</v>
       </c>
       <c r="E21">
-        <v>1.032631412117964</v>
+        <v>0.9864705227703842</v>
       </c>
       <c r="F21">
-        <v>1.041516479803961</v>
+        <v>0.9827979752553685</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028776736730535</v>
+        <v>1.035129394656068</v>
       </c>
       <c r="J21">
-        <v>1.029488718162469</v>
+        <v>1.002122595140958</v>
       </c>
       <c r="K21">
-        <v>1.030266180052528</v>
+        <v>1.011720811331218</v>
       </c>
       <c r="L21">
-        <v>1.036224132065401</v>
+        <v>1.00171283008444</v>
       </c>
       <c r="M21">
-        <v>1.045076208038212</v>
+        <v>0.9981127420594063</v>
       </c>
       <c r="N21">
-        <v>1.030950710226266</v>
+        <v>1.003545724171126</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022108890686034</v>
+        <v>0.967580699687839</v>
       </c>
       <c r="D22">
-        <v>1.026163531927309</v>
+        <v>0.9941012155814626</v>
       </c>
       <c r="E22">
-        <v>1.031961756958803</v>
+        <v>0.9830894685665814</v>
       </c>
       <c r="F22">
-        <v>1.040669541238313</v>
+        <v>0.9785866358079626</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02868413238975</v>
+        <v>1.034344908653404</v>
       </c>
       <c r="J22">
-        <v>1.029044299478179</v>
+        <v>0.9998128307604508</v>
       </c>
       <c r="K22">
-        <v>1.029911071485355</v>
+        <v>1.009790441302941</v>
       </c>
       <c r="L22">
-        <v>1.035686550534523</v>
+        <v>0.9990035383804288</v>
       </c>
       <c r="M22">
-        <v>1.044360703189233</v>
+        <v>0.9945945750235407</v>
       </c>
       <c r="N22">
-        <v>1.030505660416468</v>
+        <v>1.001232679660265</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022478670832985</v>
+        <v>0.9696026344392867</v>
       </c>
       <c r="D23">
-        <v>1.026421893719385</v>
+        <v>0.9954719767614902</v>
       </c>
       <c r="E23">
-        <v>1.032316684472549</v>
+        <v>0.9848892703896789</v>
       </c>
       <c r="F23">
-        <v>1.041118402718801</v>
+        <v>0.9808285705270249</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028733363445371</v>
+        <v>1.034763671263329</v>
       </c>
       <c r="J23">
-        <v>1.029279923155323</v>
+        <v>1.00104300308356</v>
       </c>
       <c r="K23">
-        <v>1.030099390830363</v>
+        <v>1.010818766360521</v>
       </c>
       <c r="L23">
-        <v>1.03597152627253</v>
+        <v>1.000446228248221</v>
       </c>
       <c r="M23">
-        <v>1.04473994606114</v>
+        <v>0.9964677593207816</v>
       </c>
       <c r="N23">
-        <v>1.030741618706261</v>
+        <v>1.002464598969176</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023935098031062</v>
+        <v>0.9773642015140455</v>
       </c>
       <c r="D24">
-        <v>1.027439028925225</v>
+        <v>1.00074479159031</v>
       </c>
       <c r="E24">
-        <v>1.033715536066387</v>
+        <v>0.9918143970130933</v>
       </c>
       <c r="F24">
-        <v>1.042888115936649</v>
+        <v>0.9894519256380744</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028924080271727</v>
+        <v>1.036349274702588</v>
       </c>
       <c r="J24">
-        <v>1.030206907338026</v>
+        <v>1.005762329382937</v>
       </c>
       <c r="K24">
-        <v>1.030839239687793</v>
+        <v>1.014758840465879</v>
       </c>
       <c r="L24">
-        <v>1.037093588915316</v>
+        <v>1.00598680225815</v>
       </c>
       <c r="M24">
-        <v>1.046234314864286</v>
+        <v>1.003666844501109</v>
       </c>
       <c r="N24">
-        <v>1.03166991931283</v>
+        <v>1.007190627253212</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025626509985362</v>
+        <v>0.985993184829168</v>
       </c>
       <c r="D25">
-        <v>1.028619294477664</v>
+        <v>1.00662533983003</v>
       </c>
       <c r="E25">
-        <v>1.035341984488402</v>
+        <v>0.9995448415938043</v>
       </c>
       <c r="F25">
-        <v>1.04494712671842</v>
+        <v>0.9990745091611697</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029138957801592</v>
+        <v>1.038065286253437</v>
       </c>
       <c r="J25">
-        <v>1.031281267158212</v>
+        <v>1.011001307037127</v>
       </c>
       <c r="K25">
-        <v>1.031694563006964</v>
+        <v>1.019121669242601</v>
       </c>
       <c r="L25">
-        <v>1.03839595388061</v>
+        <v>1.012150227421798</v>
       </c>
       <c r="M25">
-        <v>1.047971183961924</v>
+        <v>1.011687209192164</v>
       </c>
       <c r="N25">
-        <v>1.032745804847192</v>
+        <v>1.01243704485659</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9926009238883238</v>
+        <v>1.003154151893235</v>
       </c>
       <c r="D2">
-        <v>1.011139777931482</v>
+        <v>1.022011404469007</v>
       </c>
       <c r="E2">
-        <v>1.005488054785731</v>
+        <v>1.009208064831457</v>
       </c>
       <c r="F2">
-        <v>1.006471793359923</v>
+        <v>1.026281915650864</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039339862336984</v>
+        <v>1.04322940688373</v>
       </c>
       <c r="J2">
-        <v>1.015005214934612</v>
+        <v>1.025240930364033</v>
       </c>
       <c r="K2">
-        <v>1.022446069195407</v>
+        <v>1.033172371607814</v>
       </c>
       <c r="L2">
-        <v>1.01687145813706</v>
+        <v>1.020540590102931</v>
       </c>
       <c r="M2">
-        <v>1.017841696176932</v>
+        <v>1.037386852858228</v>
       </c>
       <c r="N2">
-        <v>1.01644663876254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012370765437536</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.038161572839692</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.034525963803115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9972527959218721</v>
+        <v>1.006319631601485</v>
       </c>
       <c r="D3">
-        <v>1.014322956303117</v>
+        <v>1.024049599678024</v>
       </c>
       <c r="E3">
-        <v>1.009685020876466</v>
+        <v>1.011642433957248</v>
       </c>
       <c r="F3">
-        <v>1.011696249854357</v>
+        <v>1.029263005017155</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040213357857491</v>
+        <v>1.043938419352379</v>
       </c>
       <c r="J3">
-        <v>1.017818633692024</v>
+        <v>1.026639487208607</v>
       </c>
       <c r="K3">
-        <v>1.024775794486478</v>
+        <v>1.034383737883272</v>
       </c>
       <c r="L3">
-        <v>1.020195461884903</v>
+        <v>1.02212848379591</v>
       </c>
       <c r="M3">
-        <v>1.022181630758019</v>
+        <v>1.039534666041462</v>
       </c>
       <c r="N3">
-        <v>1.019264052897296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01284191087747</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.039861426488414</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.035379833069034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000199383097546</v>
+        <v>1.008335375132476</v>
       </c>
       <c r="D4">
-        <v>1.01634107383936</v>
+        <v>1.025351254222325</v>
       </c>
       <c r="E4">
-        <v>1.012349234253563</v>
+        <v>1.013198241662975</v>
       </c>
       <c r="F4">
-        <v>1.015013324126761</v>
+        <v>1.031157344740925</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04075531407943</v>
+        <v>1.044381227994989</v>
       </c>
       <c r="J4">
-        <v>1.019597990009891</v>
+        <v>1.027528238040044</v>
       </c>
       <c r="K4">
-        <v>1.026246197255297</v>
+        <v>1.035153044962478</v>
       </c>
       <c r="L4">
-        <v>1.022300865123176</v>
+        <v>1.023139943108275</v>
       </c>
       <c r="M4">
-        <v>1.024933866467554</v>
+        <v>1.040893726771277</v>
       </c>
       <c r="N4">
-        <v>1.021045936105229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013141302527229</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.040937032084347</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.035924704688963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001423492434741</v>
+        <v>1.009177708700775</v>
       </c>
       <c r="D5">
-        <v>1.017179836618564</v>
+        <v>1.0258981671989</v>
       </c>
       <c r="E5">
-        <v>1.013457392550329</v>
+        <v>1.013850006438457</v>
       </c>
       <c r="F5">
-        <v>1.016393226287953</v>
+        <v>1.031946177549325</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040977694918617</v>
+        <v>1.044565417193023</v>
       </c>
       <c r="J5">
-        <v>1.02033650576025</v>
+        <v>1.0279005090361</v>
       </c>
       <c r="K5">
-        <v>1.026855729888683</v>
+        <v>1.0354767336813</v>
       </c>
       <c r="L5">
-        <v>1.023175470204583</v>
+        <v>1.023563616798113</v>
       </c>
       <c r="M5">
-        <v>1.026078002041962</v>
+        <v>1.041458413280178</v>
       </c>
       <c r="N5">
-        <v>1.021785500632662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013266890383693</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041383943186004</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.036160789502943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001628183328705</v>
+        <v>1.00932174920547</v>
       </c>
       <c r="D6">
-        <v>1.017320111143831</v>
+        <v>1.025994296972906</v>
       </c>
       <c r="E6">
-        <v>1.013642773479174</v>
+        <v>1.013961900365977</v>
       </c>
       <c r="F6">
-        <v>1.016624079051706</v>
+        <v>1.032078794883234</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041014716676989</v>
+        <v>1.044598320396668</v>
       </c>
       <c r="J6">
-        <v>1.020459956127956</v>
+        <v>1.027965769232039</v>
       </c>
       <c r="K6">
-        <v>1.026957574471522</v>
+        <v>1.03553536893691</v>
       </c>
       <c r="L6">
-        <v>1.023321714665122</v>
+        <v>1.02363722732483</v>
       </c>
       <c r="M6">
-        <v>1.026269364788206</v>
+        <v>1.041553439567543</v>
       </c>
       <c r="N6">
-        <v>1.021909126314051</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013289131401969</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.041459150025135</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.036211039635038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000215796492107</v>
+        <v>1.008354850436032</v>
       </c>
       <c r="D7">
-        <v>1.016352318964359</v>
+        <v>1.025370730047737</v>
       </c>
       <c r="E7">
-        <v>1.012364087603923</v>
+        <v>1.013214285387058</v>
       </c>
       <c r="F7">
-        <v>1.015031819019621</v>
+        <v>1.03116962725295</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040758306846473</v>
+        <v>1.044389598500728</v>
       </c>
       <c r="J7">
-        <v>1.019607895114572</v>
+        <v>1.027541212819438</v>
       </c>
       <c r="K7">
-        <v>1.026254375422613</v>
+        <v>1.035169397843315</v>
       </c>
       <c r="L7">
-        <v>1.022312592440451</v>
+        <v>1.023152850583547</v>
       </c>
       <c r="M7">
-        <v>1.024949204524541</v>
+        <v>1.040902991654534</v>
       </c>
       <c r="N7">
-        <v>1.021055855276295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013146292625445</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.040944364613773</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.035956483184194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9941865391280094</v>
+        <v>1.004241000175508</v>
       </c>
       <c r="D8">
-        <v>1.012224354492856</v>
+        <v>1.022718837415258</v>
       </c>
       <c r="E8">
-        <v>1.006917383832316</v>
+        <v>1.010043975678194</v>
       </c>
       <c r="F8">
-        <v>1.008250945641595</v>
+        <v>1.027298833869574</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039639946930435</v>
+        <v>1.04347966557784</v>
       </c>
       <c r="J8">
-        <v>1.015964732108901</v>
+        <v>1.025726891243183</v>
       </c>
       <c r="K8">
-        <v>1.02324124649906</v>
+        <v>1.033599615988806</v>
       </c>
       <c r="L8">
-        <v>1.018004462994339</v>
+        <v>1.021089592244212</v>
       </c>
       <c r="M8">
-        <v>1.019320300605672</v>
+        <v>1.038121298204198</v>
       </c>
       <c r="N8">
-        <v>1.017407518561279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012535278725222</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.038742838745491</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034851091574084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9830491220448658</v>
+        <v>0.9967202874283073</v>
       </c>
       <c r="D9">
-        <v>1.004616980477023</v>
+        <v>1.017890850129565</v>
       </c>
       <c r="E9">
-        <v>0.9969035238731685</v>
+        <v>1.004292155755297</v>
       </c>
       <c r="F9">
-        <v>0.9957869330395321</v>
+        <v>1.02019977228952</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037485915741624</v>
+        <v>1.041742169139926</v>
       </c>
       <c r="J9">
-        <v>1.009214994443209</v>
+        <v>1.022389394765557</v>
       </c>
       <c r="K9">
-        <v>1.017635591905689</v>
+        <v>1.030700179562796</v>
       </c>
       <c r="L9">
-        <v>1.010047039814955</v>
+        <v>1.017315977458047</v>
       </c>
       <c r="M9">
-        <v>1.00894873615965</v>
+        <v>1.032973408124858</v>
       </c>
       <c r="N9">
-        <v>1.010648195493896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011410232175856</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.034668607293374</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.032797789883726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9752389774564905</v>
+        <v>0.9915624090559981</v>
       </c>
       <c r="D10">
-        <v>0.9992993657813554</v>
+        <v>1.014624366057414</v>
       </c>
       <c r="E10">
-        <v>0.9899156019739176</v>
+        <v>1.00038524014835</v>
       </c>
       <c r="F10">
-        <v>0.9870878966508656</v>
+        <v>1.015817478736954</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035918767872805</v>
+        <v>1.040577122069442</v>
       </c>
       <c r="J10">
-        <v>1.004470650845065</v>
+        <v>1.020114838888424</v>
       </c>
       <c r="K10">
-        <v>1.013681281928621</v>
+        <v>1.028734499682524</v>
       </c>
       <c r="L10">
-        <v>1.004469352145803</v>
+        <v>1.01474754244727</v>
       </c>
       <c r="M10">
-        <v>1.001694263394203</v>
+        <v>1.029906898240904</v>
       </c>
       <c r="N10">
-        <v>1.005897114383659</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010646157518214</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.032293473628458</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.031424822730148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9717559134396689</v>
+        <v>0.9895968753850319</v>
       </c>
       <c r="D11">
-        <v>0.9969331062756895</v>
+        <v>1.013541098730421</v>
       </c>
       <c r="E11">
-        <v>0.9868078927146609</v>
+        <v>0.9989452412590234</v>
       </c>
       <c r="F11">
-        <v>0.9832181269237137</v>
+        <v>1.018122521336283</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035207152176753</v>
+        <v>1.040652914881548</v>
       </c>
       <c r="J11">
-        <v>1.00235278407193</v>
+        <v>1.019408933248572</v>
       </c>
       <c r="K11">
-        <v>1.011913092410612</v>
+        <v>1.028212089382686</v>
       </c>
       <c r="L11">
-        <v>1.001982956044477</v>
+        <v>1.013887076234952</v>
       </c>
       <c r="M11">
-        <v>0.9984636194008555</v>
+        <v>1.032710578981993</v>
       </c>
       <c r="N11">
-        <v>1.003776239996783</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010430389965515</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.034950272478233</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031088471852056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9704460306951098</v>
+        <v>0.9889336321068347</v>
       </c>
       <c r="D12">
-        <v>0.9960441113056182</v>
+        <v>1.013213673509776</v>
       </c>
       <c r="E12">
-        <v>0.9856405210039414</v>
+        <v>0.9984732380065606</v>
       </c>
       <c r="F12">
-        <v>0.981764264239871</v>
+        <v>1.020304810804607</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034937685658491</v>
+        <v>1.040836069684368</v>
       </c>
       <c r="J12">
-        <v>1.001556057857195</v>
+        <v>1.019213838687168</v>
       </c>
       <c r="K12">
-        <v>1.011247494368729</v>
+        <v>1.02809202460047</v>
       </c>
       <c r="L12">
-        <v>1.001048095494429</v>
+        <v>1.013629746937704</v>
       </c>
       <c r="M12">
-        <v>0.997249374663891</v>
+        <v>1.035053074463162</v>
       </c>
       <c r="N12">
-        <v>1.002978382339438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010382030921115</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037130107143934</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.031003581334391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9707277497391645</v>
+        <v>0.9892369601625326</v>
       </c>
       <c r="D13">
-        <v>0.9962352672965841</v>
+        <v>1.013459179593035</v>
       </c>
       <c r="E13">
-        <v>0.9858915281042738</v>
+        <v>0.9987202801402115</v>
       </c>
       <c r="F13">
-        <v>0.9820768840201368</v>
+        <v>1.022576357945979</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034995722783371</v>
+        <v>1.041126592370408</v>
       </c>
       <c r="J13">
-        <v>1.001727422024481</v>
+        <v>1.019409605177441</v>
       </c>
       <c r="K13">
-        <v>1.011390673139266</v>
+        <v>1.028289803297519</v>
       </c>
       <c r="L13">
-        <v>1.0012491478796</v>
+        <v>1.013827922225516</v>
       </c>
       <c r="M13">
-        <v>0.9975104922920378</v>
+        <v>1.037240819507036</v>
       </c>
       <c r="N13">
-        <v>1.003149989863497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010463763519117</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039136706468087</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031140912924652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9716479724318661</v>
+        <v>0.9898835752268346</v>
       </c>
       <c r="D14">
-        <v>0.9968598298778378</v>
+        <v>1.013886481416194</v>
       </c>
       <c r="E14">
-        <v>0.9867116676092232</v>
+        <v>0.9992158538291184</v>
       </c>
       <c r="F14">
-        <v>0.9830982918432682</v>
+        <v>1.02415010585003</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035184983939081</v>
+        <v>1.04136764648165</v>
       </c>
       <c r="J14">
-        <v>1.002287134667723</v>
+        <v>1.019719615631766</v>
       </c>
       <c r="K14">
-        <v>1.011858256134891</v>
+        <v>1.028567817838834</v>
       </c>
       <c r="L14">
-        <v>1.001905914386836</v>
+        <v>1.014169561461251</v>
       </c>
       <c r="M14">
-        <v>0.9983635449215157</v>
+        <v>1.03864690963239</v>
       </c>
       <c r="N14">
-        <v>1.003710497362892</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010578691823748</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04042146900872</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.031338912305163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9722127878383326</v>
+        <v>0.9902593470766348</v>
       </c>
       <c r="D15">
-        <v>0.9972432950486083</v>
+        <v>1.014127046037378</v>
       </c>
       <c r="E15">
-        <v>0.9872152333575579</v>
+        <v>0.9995004914873287</v>
       </c>
       <c r="F15">
-        <v>0.9837254035333941</v>
+        <v>1.024644144263515</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035300907221185</v>
+        <v>1.041466421324527</v>
       </c>
       <c r="J15">
-        <v>1.002630643627674</v>
+        <v>1.01988945952998</v>
       </c>
       <c r="K15">
-        <v>1.012145168819445</v>
+        <v>1.028716899647287</v>
       </c>
       <c r="L15">
-        <v>1.002309053459706</v>
+        <v>1.014359853927249</v>
       </c>
       <c r="M15">
-        <v>0.9988872267263414</v>
+        <v>1.03904637411729</v>
       </c>
       <c r="N15">
-        <v>1.004054494144967</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010638301038698</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040774722766797</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031450221163707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9754679282060438</v>
+        <v>0.9923693447988503</v>
       </c>
       <c r="D16">
-        <v>0.9994550234932712</v>
+        <v>1.015451268672943</v>
       </c>
       <c r="E16">
-        <v>0.9901200642086582</v>
+        <v>1.001088538270177</v>
       </c>
       <c r="F16">
-        <v>0.9873424679409857</v>
+        <v>1.026079667081274</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035965284632562</v>
+        <v>1.041906866765211</v>
       </c>
       <c r="J16">
-        <v>1.004609825345847</v>
+        <v>1.020811252150296</v>
       </c>
       <c r="K16">
-        <v>1.013797417934517</v>
+        <v>1.029511164002005</v>
       </c>
       <c r="L16">
-        <v>1.004632815143679</v>
+        <v>1.015401546552596</v>
       </c>
       <c r="M16">
-        <v>1.001906719342107</v>
+        <v>1.039958143186238</v>
       </c>
       <c r="N16">
-        <v>1.006036486528195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010945196118867</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041456686917575</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032014985875874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9774820709518909</v>
+        <v>0.993657602319764</v>
       </c>
       <c r="D17">
-        <v>1.00082499306942</v>
+        <v>1.016252186550093</v>
       </c>
       <c r="E17">
-        <v>0.9919197664728022</v>
+        <v>1.002055615845602</v>
       </c>
       <c r="F17">
-        <v>0.9895831049246081</v>
+        <v>1.026382251549343</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036373066112464</v>
+        <v>1.042125679055771</v>
       </c>
       <c r="J17">
-        <v>1.005833954881395</v>
+        <v>1.021361710420832</v>
       </c>
       <c r="K17">
-        <v>1.014818572614987</v>
+        <v>1.029981132928737</v>
       </c>
       <c r="L17">
-        <v>1.006070970441742</v>
+        <v>1.016027698413547</v>
       </c>
       <c r="M17">
-        <v>1.003776279000063</v>
+        <v>1.039942993764599</v>
       </c>
       <c r="N17">
-        <v>1.007262354468094</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011122221979736</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041315713873226</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032349877863647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9786471851520766</v>
+        <v>0.9943382813830517</v>
       </c>
       <c r="D18">
-        <v>1.001617962274699</v>
+        <v>1.016642761473419</v>
       </c>
       <c r="E18">
-        <v>0.9929616527170013</v>
+        <v>1.002556687350019</v>
       </c>
       <c r="F18">
-        <v>0.9908801596505424</v>
+        <v>1.025428600984843</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036607743938734</v>
+        <v>1.042120987942792</v>
       </c>
       <c r="J18">
-        <v>1.006541875217688</v>
+        <v>1.02161690127627</v>
       </c>
       <c r="K18">
-        <v>1.015408825904049</v>
+        <v>1.030180272454522</v>
       </c>
       <c r="L18">
-        <v>1.006902993336622</v>
+        <v>1.016331434492806</v>
       </c>
       <c r="M18">
-        <v>1.004858192439422</v>
+        <v>1.038822379307212</v>
       </c>
       <c r="N18">
-        <v>1.007971280132464</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011194257314882</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040192062790699</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.032478980198721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9790428400237335</v>
+        <v>0.9944452310190923</v>
       </c>
       <c r="D19">
-        <v>1.001887322108036</v>
+        <v>1.016638959806482</v>
       </c>
       <c r="E19">
-        <v>0.9933155987597255</v>
+        <v>1.002615505052212</v>
       </c>
       <c r="F19">
-        <v>0.9913207760340255</v>
+        <v>1.023082168694451</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036687229810002</v>
+        <v>1.041864196961759</v>
       </c>
       <c r="J19">
-        <v>1.006782239053215</v>
+        <v>1.021583880737934</v>
       </c>
       <c r="K19">
-        <v>1.01560918826171</v>
+        <v>1.030113496238631</v>
       </c>
       <c r="L19">
-        <v>1.007185550926312</v>
+        <v>1.016324941754944</v>
       </c>
       <c r="M19">
-        <v>1.005225667017389</v>
+        <v>1.036451550200958</v>
       </c>
       <c r="N19">
-        <v>1.008211985312208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011166722883713</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037991305235194</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03243819478656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9772669822959349</v>
+        <v>0.9929184019325439</v>
       </c>
       <c r="D20">
-        <v>1.000678643811272</v>
+        <v>1.015498993043225</v>
       </c>
       <c r="E20">
-        <v>0.99172749245688</v>
+        <v>1.001412984861687</v>
       </c>
       <c r="F20">
-        <v>0.9893437336138595</v>
+        <v>1.01697879843726</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036329644589008</v>
+        <v>1.040899298433873</v>
       </c>
       <c r="J20">
-        <v>1.005703251238872</v>
+        <v>1.020725063348444</v>
       </c>
       <c r="K20">
-        <v>1.014709570573228</v>
+        <v>1.029274678273469</v>
       </c>
       <c r="L20">
-        <v>1.005917380528745</v>
+        <v>1.015431034053871</v>
       </c>
       <c r="M20">
-        <v>1.003576584920074</v>
+        <v>1.03072952474103</v>
       </c>
       <c r="N20">
-        <v>1.007131465211407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010853062564563</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032933872486627</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031849050872139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9713774423760571</v>
+        <v>0.9889895522679284</v>
       </c>
       <c r="D21">
-        <v>0.9966761936161129</v>
+        <v>1.01298414582337</v>
       </c>
       <c r="E21">
-        <v>0.9864705227703842</v>
+        <v>0.9984401950666106</v>
       </c>
       <c r="F21">
-        <v>0.9827979752553685</v>
+        <v>1.012846631614482</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035129394656068</v>
+        <v>1.039887999262783</v>
       </c>
       <c r="J21">
-        <v>1.002122595140958</v>
+        <v>1.018954939379475</v>
       </c>
       <c r="K21">
-        <v>1.011720811331218</v>
+        <v>1.027723635347223</v>
       </c>
       <c r="L21">
-        <v>1.00171283008444</v>
+        <v>1.013451178809852</v>
       </c>
       <c r="M21">
-        <v>0.9981127420594063</v>
+        <v>1.027588640589537</v>
       </c>
       <c r="N21">
-        <v>1.003545724171126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.01025445720372</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.030406877041783</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030755632911473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.967580699687839</v>
+        <v>0.9864875992109136</v>
       </c>
       <c r="D22">
-        <v>0.9941012155814626</v>
+        <v>1.011391391070435</v>
       </c>
       <c r="E22">
-        <v>0.9830894685665814</v>
+        <v>0.9965558506499421</v>
       </c>
       <c r="F22">
-        <v>0.9785866358079626</v>
+        <v>1.010470660858861</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034344908653404</v>
+        <v>1.039265667171118</v>
       </c>
       <c r="J22">
-        <v>0.9998128307604508</v>
+        <v>1.017832538966768</v>
       </c>
       <c r="K22">
-        <v>1.009790441302941</v>
+        <v>1.026740510316954</v>
       </c>
       <c r="L22">
-        <v>0.9990035383804288</v>
+        <v>1.012195846975463</v>
       </c>
       <c r="M22">
-        <v>0.9945945750235407</v>
+        <v>1.025837507048513</v>
       </c>
       <c r="N22">
-        <v>1.001232679660265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009875340356396</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029020951099755</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.030046931064939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9696026344392867</v>
+        <v>0.9878105879783761</v>
       </c>
       <c r="D23">
-        <v>0.9954719767614902</v>
+        <v>1.012227150625879</v>
       </c>
       <c r="E23">
-        <v>0.9848892703896789</v>
+        <v>0.9975504755325686</v>
       </c>
       <c r="F23">
-        <v>0.9808285705270249</v>
+        <v>1.011733107510114</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034763671263329</v>
+        <v>1.039592127751783</v>
       </c>
       <c r="J23">
-        <v>1.00104300308356</v>
+        <v>1.018422319501751</v>
       </c>
       <c r="K23">
-        <v>1.010818766360521</v>
+        <v>1.027252921457987</v>
       </c>
       <c r="L23">
-        <v>1.000446228248221</v>
+        <v>1.012856674001246</v>
       </c>
       <c r="M23">
-        <v>0.9964677593207816</v>
+        <v>1.026768145242822</v>
       </c>
       <c r="N23">
-        <v>1.002464598969176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010073878082515</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029757500420716</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.030399544121392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9773642015140455</v>
+        <v>0.9929392572585765</v>
       </c>
       <c r="D24">
-        <v>1.00074479159031</v>
+        <v>1.01548715150954</v>
       </c>
       <c r="E24">
-        <v>0.9918143970130933</v>
+        <v>1.001423093748604</v>
       </c>
       <c r="F24">
-        <v>0.9894519256380744</v>
+        <v>1.016607528180769</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036349274702588</v>
+        <v>1.040844917142861</v>
       </c>
       <c r="J24">
-        <v>1.005762329382937</v>
+        <v>1.020711840209684</v>
       </c>
       <c r="K24">
-        <v>1.014758840465879</v>
+        <v>1.029247646533172</v>
       </c>
       <c r="L24">
-        <v>1.00598680225815</v>
+        <v>1.015425264271011</v>
       </c>
       <c r="M24">
-        <v>1.003666844501109</v>
+        <v>1.030349141609215</v>
       </c>
       <c r="N24">
-        <v>1.007190627253212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010845747027489</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.032591656250534</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031802384142244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.985993184829168</v>
+        <v>0.9987095736023834</v>
       </c>
       <c r="D25">
-        <v>1.00662533983003</v>
+        <v>1.019174589535248</v>
       </c>
       <c r="E25">
-        <v>0.9995448415938043</v>
+        <v>1.005809731034728</v>
       </c>
       <c r="F25">
-        <v>0.9990745091611697</v>
+        <v>1.022071952358174</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038065286253437</v>
+        <v>1.042215738186556</v>
       </c>
       <c r="J25">
-        <v>1.011001307037127</v>
+        <v>1.023280443921728</v>
       </c>
       <c r="K25">
-        <v>1.019121669242601</v>
+        <v>1.031482362106322</v>
       </c>
       <c r="L25">
-        <v>1.012150227421798</v>
+        <v>1.018318522941274</v>
       </c>
       <c r="M25">
-        <v>1.011687209192164</v>
+        <v>1.03433702644061</v>
       </c>
       <c r="N25">
-        <v>1.01243704485659</v>
+        <v>1.011711664044411</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.035747827762789</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.033379583459655</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003154151893235</v>
+        <v>1.003189097429109</v>
       </c>
       <c r="D2">
-        <v>1.022011404469007</v>
+        <v>1.021710977807201</v>
       </c>
       <c r="E2">
-        <v>1.009208064831457</v>
+        <v>1.009241697470845</v>
       </c>
       <c r="F2">
-        <v>1.026281915650864</v>
+        <v>1.026257658927979</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04322940688373</v>
+        <v>1.043146856033738</v>
       </c>
       <c r="J2">
-        <v>1.025240930364033</v>
+        <v>1.025274839746029</v>
       </c>
       <c r="K2">
-        <v>1.033172371607814</v>
+        <v>1.032875908717181</v>
       </c>
       <c r="L2">
-        <v>1.020540590102931</v>
+        <v>1.02057376490655</v>
       </c>
       <c r="M2">
-        <v>1.037386852858228</v>
+        <v>1.03736291273874</v>
       </c>
       <c r="N2">
-        <v>1.012370765437536</v>
+        <v>1.013940488624978</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.038161572839692</v>
+        <v>1.038142625778274</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.034525963803115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034325157741482</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020850388289461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006319631601485</v>
+        <v>1.006259311670082</v>
       </c>
       <c r="D3">
-        <v>1.024049599678024</v>
+        <v>1.023618482582809</v>
       </c>
       <c r="E3">
-        <v>1.011642433957248</v>
+        <v>1.011593099769664</v>
       </c>
       <c r="F3">
-        <v>1.029263005017155</v>
+        <v>1.02922082204434</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043938419352379</v>
+        <v>1.043793760527806</v>
       </c>
       <c r="J3">
-        <v>1.026639487208607</v>
+        <v>1.026580783844776</v>
       </c>
       <c r="K3">
-        <v>1.034383737883272</v>
+        <v>1.03395782264113</v>
       </c>
       <c r="L3">
-        <v>1.02212848379591</v>
+        <v>1.022079762913284</v>
       </c>
       <c r="M3">
-        <v>1.039534666041462</v>
+        <v>1.039492985438408</v>
       </c>
       <c r="N3">
-        <v>1.01284191087747</v>
+        <v>1.014290078358892</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039861426488414</v>
+        <v>1.039828439055686</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.035379833069034</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035087217053856</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021041870614733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008335375132476</v>
+        <v>1.008214980974806</v>
       </c>
       <c r="D4">
-        <v>1.025351254222325</v>
+        <v>1.024837284152316</v>
       </c>
       <c r="E4">
-        <v>1.013198241662975</v>
+        <v>1.013096514335911</v>
       </c>
       <c r="F4">
-        <v>1.031157344740925</v>
+        <v>1.031103932321747</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044381227994989</v>
+        <v>1.044197184948467</v>
       </c>
       <c r="J4">
-        <v>1.027528238040044</v>
+        <v>1.027410855778105</v>
       </c>
       <c r="K4">
-        <v>1.035153044962478</v>
+        <v>1.034644909063896</v>
       </c>
       <c r="L4">
-        <v>1.023139943108275</v>
+        <v>1.023039404430609</v>
       </c>
       <c r="M4">
-        <v>1.040893726771277</v>
+        <v>1.040840911938728</v>
       </c>
       <c r="N4">
-        <v>1.013141302527229</v>
+        <v>1.014512303914659</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.040937032084347</v>
+        <v>1.04089523270963</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.035924704688963</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.035574033936008</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021161120017419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009177708700775</v>
+        <v>1.009032346219</v>
       </c>
       <c r="D5">
-        <v>1.0258981671989</v>
+        <v>1.02534970410204</v>
       </c>
       <c r="E5">
-        <v>1.013850006438457</v>
+        <v>1.01372648647614</v>
       </c>
       <c r="F5">
-        <v>1.031946177549325</v>
+        <v>1.031888117109219</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044565417193023</v>
+        <v>1.04436496557491</v>
       </c>
       <c r="J5">
-        <v>1.0279005090361</v>
+        <v>1.027758676187127</v>
       </c>
       <c r="K5">
-        <v>1.0354767336813</v>
+        <v>1.034934333350699</v>
       </c>
       <c r="L5">
-        <v>1.023563616798113</v>
+        <v>1.023441501827913</v>
       </c>
       <c r="M5">
-        <v>1.041458413280178</v>
+        <v>1.04140098507351</v>
       </c>
       <c r="N5">
-        <v>1.013266890383693</v>
+        <v>1.014605573939555</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041383943186004</v>
+        <v>1.041338492665095</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036160789502943</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.035786601650043</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021211235304897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00932174920547</v>
+        <v>1.009172124481215</v>
       </c>
       <c r="D6">
-        <v>1.025994296972906</v>
+        <v>1.025439992085968</v>
       </c>
       <c r="E6">
-        <v>1.013961900365977</v>
+        <v>1.013834658023977</v>
       </c>
       <c r="F6">
-        <v>1.032078794883234</v>
+        <v>1.032019945133434</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044598320396668</v>
+        <v>1.044395077205765</v>
       </c>
       <c r="J6">
-        <v>1.027965769232039</v>
+        <v>1.02781975925562</v>
       </c>
       <c r="K6">
-        <v>1.03553536893691</v>
+        <v>1.034987163789386</v>
       </c>
       <c r="L6">
-        <v>1.02363722732483</v>
+        <v>1.023511425712053</v>
       </c>
       <c r="M6">
-        <v>1.041553439567543</v>
+        <v>1.04149522770587</v>
       </c>
       <c r="N6">
-        <v>1.013289131401969</v>
+        <v>1.014622132906364</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041459150025135</v>
+        <v>1.041413079299343</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036211039635038</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035833615675918</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021220903767339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008354850436032</v>
+        <v>1.008240313700228</v>
       </c>
       <c r="D7">
-        <v>1.025370730047737</v>
+        <v>1.024860633066132</v>
       </c>
       <c r="E7">
-        <v>1.013214285387058</v>
+        <v>1.013117760800084</v>
       </c>
       <c r="F7">
-        <v>1.03116962725295</v>
+        <v>1.031116966624286</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044389598500728</v>
+        <v>1.044208140948292</v>
       </c>
       <c r="J7">
-        <v>1.027541212819438</v>
+        <v>1.027429540226149</v>
       </c>
       <c r="K7">
-        <v>1.035169397843315</v>
+        <v>1.034665088837653</v>
       </c>
       <c r="L7">
-        <v>1.023152850583547</v>
+        <v>1.023057453424596</v>
       </c>
       <c r="M7">
-        <v>1.040902991654534</v>
+        <v>1.040850919987157</v>
       </c>
       <c r="N7">
-        <v>1.013146292625445</v>
+        <v>1.014543548296064</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040944364613773</v>
+        <v>1.040903153404557</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.035956483184194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.035610516255891</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021166656502158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004241000175508</v>
+        <v>1.004262862387222</v>
       </c>
       <c r="D8">
-        <v>1.022718837415258</v>
+        <v>1.022387568118451</v>
       </c>
       <c r="E8">
-        <v>1.010043975678194</v>
+        <v>1.010066564794704</v>
       </c>
       <c r="F8">
-        <v>1.027298833869574</v>
+        <v>1.027271034843996</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04347966557784</v>
+        <v>1.043384811142851</v>
       </c>
       <c r="J8">
-        <v>1.025726891243183</v>
+        <v>1.025748126608976</v>
       </c>
       <c r="K8">
-        <v>1.033599615988806</v>
+        <v>1.033272589861834</v>
       </c>
       <c r="L8">
-        <v>1.021089592244212</v>
+        <v>1.021111882971731</v>
       </c>
       <c r="M8">
-        <v>1.038121298204198</v>
+        <v>1.038093851168304</v>
       </c>
       <c r="N8">
-        <v>1.012535278725222</v>
+        <v>1.014146058000957</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038742838745491</v>
+        <v>1.038721116203397</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034851091574084</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034630940779253</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020924551199792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9967202874283073</v>
+        <v>0.9969750149872858</v>
       </c>
       <c r="D9">
-        <v>1.017890850129565</v>
+        <v>1.017874212383679</v>
       </c>
       <c r="E9">
-        <v>1.004292155755297</v>
+        <v>1.004517078659203</v>
       </c>
       <c r="F9">
-        <v>1.02019977228952</v>
+        <v>1.020216192176276</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041742169139926</v>
+        <v>1.041797156654671</v>
       </c>
       <c r="J9">
-        <v>1.022389394765557</v>
+        <v>1.022635047357066</v>
       </c>
       <c r="K9">
-        <v>1.030700179562796</v>
+        <v>1.030683799770322</v>
       </c>
       <c r="L9">
-        <v>1.017315977458047</v>
+        <v>1.017537292079172</v>
       </c>
       <c r="M9">
-        <v>1.032973408124858</v>
+        <v>1.03298957491543</v>
       </c>
       <c r="N9">
-        <v>1.011410232175856</v>
+        <v>1.013321720724758</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034668607293374</v>
+        <v>1.034681402328668</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032797789883726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03279700635476</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02045179351709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9915624090559981</v>
+        <v>0.9920069454145685</v>
       </c>
       <c r="D10">
-        <v>1.014624366057414</v>
+        <v>1.014843169372157</v>
       </c>
       <c r="E10">
-        <v>1.00038524014835</v>
+        <v>1.00077491977531</v>
       </c>
       <c r="F10">
-        <v>1.015817478736954</v>
+        <v>1.015868869009533</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040577122069442</v>
+        <v>1.040747389639499</v>
       </c>
       <c r="J10">
-        <v>1.020114838888424</v>
+        <v>1.020541320697902</v>
       </c>
       <c r="K10">
-        <v>1.028734499682524</v>
+        <v>1.028949499542076</v>
       </c>
       <c r="L10">
-        <v>1.01474754244727</v>
+        <v>1.015130196887837</v>
       </c>
       <c r="M10">
-        <v>1.029906898240904</v>
+        <v>1.029957397720126</v>
       </c>
       <c r="N10">
-        <v>1.010646157518214</v>
+        <v>1.012879443126325</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032293473628458</v>
+        <v>1.032333438511907</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031424822730148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031589316237941</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020130235449515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9895968753850319</v>
+        <v>0.9901429692268965</v>
       </c>
       <c r="D11">
-        <v>1.013541098730421</v>
+        <v>1.013860958286769</v>
       </c>
       <c r="E11">
-        <v>0.9989452412590234</v>
+        <v>0.9994228821407849</v>
       </c>
       <c r="F11">
-        <v>1.018122521336283</v>
+        <v>1.018188706530486</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040652914881548</v>
+        <v>1.040876044889057</v>
       </c>
       <c r="J11">
-        <v>1.019408933248572</v>
+        <v>1.019931640353241</v>
       </c>
       <c r="K11">
-        <v>1.028212089382686</v>
+        <v>1.028526127166304</v>
       </c>
       <c r="L11">
-        <v>1.013887076234952</v>
+        <v>1.014355690272088</v>
       </c>
       <c r="M11">
-        <v>1.032710578981993</v>
+        <v>1.032775573197415</v>
       </c>
       <c r="N11">
-        <v>1.010430389965515</v>
+        <v>1.012959383716698</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034950272478233</v>
+        <v>1.035001682136442</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031088471852056</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031326201725595</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020087168005891</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9889336321068347</v>
+        <v>0.9895138598797819</v>
       </c>
       <c r="D12">
-        <v>1.013213673509776</v>
+        <v>1.01356478654885</v>
       </c>
       <c r="E12">
-        <v>0.9984732380065606</v>
+        <v>0.998979938742277</v>
       </c>
       <c r="F12">
-        <v>1.020304810804607</v>
+        <v>1.020374808934754</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040836069684368</v>
+        <v>1.041075301401016</v>
       </c>
       <c r="J12">
-        <v>1.019213838687168</v>
+        <v>1.019768739069302</v>
       </c>
       <c r="K12">
-        <v>1.02809202460047</v>
+        <v>1.02843664060476</v>
       </c>
       <c r="L12">
-        <v>1.013629746937704</v>
+        <v>1.014126707643769</v>
       </c>
       <c r="M12">
-        <v>1.035053074463162</v>
+        <v>1.035121800197814</v>
       </c>
       <c r="N12">
-        <v>1.010382030921115</v>
+        <v>1.013029251494452</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037130107143934</v>
+        <v>1.037184449917973</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031003581334391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031262932586771</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020092641538349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9892369601625326</v>
+        <v>0.9897921025805638</v>
       </c>
       <c r="D13">
-        <v>1.013459179593035</v>
+        <v>1.013782960022853</v>
       </c>
       <c r="E13">
-        <v>0.9987202801402115</v>
+        <v>0.9992042929408087</v>
       </c>
       <c r="F13">
-        <v>1.022576357945979</v>
+        <v>1.022641089388518</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041126592370408</v>
+        <v>1.04135048894958</v>
       </c>
       <c r="J13">
-        <v>1.019409605177441</v>
+        <v>1.01994062436732</v>
       </c>
       <c r="K13">
-        <v>1.028289803297519</v>
+        <v>1.028607616075451</v>
       </c>
       <c r="L13">
-        <v>1.013827922225516</v>
+        <v>1.014302668124681</v>
       </c>
       <c r="M13">
-        <v>1.037240819507036</v>
+        <v>1.037304384974918</v>
       </c>
       <c r="N13">
-        <v>1.010463763519117</v>
+        <v>1.013063788014635</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039136706468087</v>
+        <v>1.039186956321307</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031140912924652</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031381068355798</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020139757008016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,105 +1183,123 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9898835752268346</v>
+        <v>0.9903950608467812</v>
       </c>
       <c r="D14">
-        <v>1.013886481416194</v>
+        <v>1.014165433580039</v>
       </c>
       <c r="E14">
-        <v>0.9992158538291184</v>
+        <v>0.9996612560741281</v>
       </c>
       <c r="F14">
-        <v>1.02415010585003</v>
+        <v>1.024207345427673</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04136764648165</v>
+        <v>1.041567095190326</v>
       </c>
       <c r="J14">
-        <v>1.019719615631766</v>
+        <v>1.020209182258009</v>
       </c>
       <c r="K14">
-        <v>1.028567817838834</v>
+        <v>1.028841690387256</v>
       </c>
       <c r="L14">
-        <v>1.014169561461251</v>
+        <v>1.014606540689564</v>
       </c>
       <c r="M14">
-        <v>1.03864690963239</v>
+        <v>1.038703133538647</v>
       </c>
       <c r="N14">
-        <v>1.010578691823748</v>
+        <v>1.013072182980488</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04042146900872</v>
+        <v>1.040465909235594</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031338912305163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031548135140712</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020190745619743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.9902593470766348</v>
+        <v>0.9907473631632301</v>
       </c>
       <c r="D15">
-        <v>1.014127046037378</v>
+        <v>1.014381971246661</v>
       </c>
       <c r="E15">
-        <v>0.9995004914873287</v>
+        <v>0.9999253207717286</v>
       </c>
       <c r="F15">
-        <v>1.024644144263515</v>
+        <v>1.024697595501686</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041466421324527</v>
+        <v>1.041653015830131</v>
       </c>
       <c r="J15">
-        <v>1.01988945952998</v>
+        <v>1.020356740792692</v>
       </c>
       <c r="K15">
-        <v>1.028716899647287</v>
+        <v>1.028967217201359</v>
       </c>
       <c r="L15">
-        <v>1.014359853927249</v>
+        <v>1.014776710132514</v>
       </c>
       <c r="M15">
-        <v>1.03904637411729</v>
+        <v>1.039098884542982</v>
       </c>
       <c r="N15">
-        <v>1.010638301038698</v>
+        <v>1.01307184040339</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040774722766797</v>
+        <v>1.040816226716641</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031450221163707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031643358436851</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.0202155815255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9923693447988503</v>
+        <v>0.9927395061813615</v>
       </c>
       <c r="D16">
-        <v>1.015451268672943</v>
+        <v>1.01558227790223</v>
       </c>
       <c r="E16">
-        <v>1.001088538270177</v>
+        <v>1.001410873319913</v>
       </c>
       <c r="F16">
-        <v>1.026079667081274</v>
+        <v>1.026114584838027</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041906866765211</v>
+        <v>1.042029031450527</v>
       </c>
       <c r="J16">
-        <v>1.020811252150296</v>
+        <v>1.021166460869794</v>
       </c>
       <c r="K16">
-        <v>1.029511164002005</v>
+        <v>1.029639907094633</v>
       </c>
       <c r="L16">
-        <v>1.015401546552596</v>
+        <v>1.015718097659725</v>
       </c>
       <c r="M16">
-        <v>1.039958143186238</v>
+        <v>1.039992472910059</v>
       </c>
       <c r="N16">
-        <v>1.010945196118867</v>
+        <v>1.013080224373517</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041456686917575</v>
+        <v>1.041483821709936</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032014985875874</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032122464284669</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020337499377197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.993657602319764</v>
+        <v>0.9939671352177734</v>
       </c>
       <c r="D17">
-        <v>1.016252186550093</v>
+        <v>1.016316181000676</v>
       </c>
       <c r="E17">
-        <v>1.002055615845602</v>
+        <v>1.002325532516128</v>
       </c>
       <c r="F17">
-        <v>1.026382251549343</v>
+        <v>1.026407575542767</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042125679055771</v>
+        <v>1.042214095060688</v>
       </c>
       <c r="J17">
-        <v>1.021361710420832</v>
+        <v>1.021659137994063</v>
       </c>
       <c r="K17">
-        <v>1.029981132928737</v>
+        <v>1.030044051215762</v>
       </c>
       <c r="L17">
-        <v>1.016027698413547</v>
+        <v>1.016292909218641</v>
       </c>
       <c r="M17">
-        <v>1.039942993764599</v>
+        <v>1.039967902616327</v>
       </c>
       <c r="N17">
-        <v>1.011122221979736</v>
+        <v>1.01311235547697</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041315713873226</v>
+        <v>1.041335404199844</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032349877863647</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032411062272857</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020406525711969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9943382813830517</v>
+        <v>0.9946233551966485</v>
       </c>
       <c r="D18">
-        <v>1.016642761473419</v>
+        <v>1.016678505050598</v>
       </c>
       <c r="E18">
-        <v>1.002556687350019</v>
+        <v>1.002805849318092</v>
       </c>
       <c r="F18">
-        <v>1.025428600984843</v>
+        <v>1.025450244887585</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042120987942792</v>
+        <v>1.042196002286474</v>
       </c>
       <c r="J18">
-        <v>1.02161690127627</v>
+        <v>1.021891035923748</v>
       </c>
       <c r="K18">
-        <v>1.030180272454522</v>
+        <v>1.030215424804567</v>
       </c>
       <c r="L18">
-        <v>1.016331434492806</v>
+        <v>1.016576325276031</v>
       </c>
       <c r="M18">
-        <v>1.038822379307212</v>
+        <v>1.03884367302915</v>
       </c>
       <c r="N18">
-        <v>1.011194257314882</v>
+        <v>1.01312363457344</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040192062790699</v>
+        <v>1.040208898870433</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032478980198721</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032519397967809</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020425723677088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9944452310190923</v>
+        <v>0.9947354405824947</v>
       </c>
       <c r="D19">
-        <v>1.016638959806482</v>
+        <v>1.016681102926231</v>
       </c>
       <c r="E19">
-        <v>1.002615505052212</v>
+        <v>1.002869742764548</v>
       </c>
       <c r="F19">
-        <v>1.023082168694451</v>
+        <v>1.023105295475082</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041864196961759</v>
+        <v>1.041943304710712</v>
       </c>
       <c r="J19">
-        <v>1.021583880737934</v>
+        <v>1.021863022727123</v>
       </c>
       <c r="K19">
-        <v>1.030113496238631</v>
+        <v>1.030154946001344</v>
       </c>
       <c r="L19">
-        <v>1.016324941754944</v>
+        <v>1.01657484534042</v>
       </c>
       <c r="M19">
-        <v>1.036451550200958</v>
+        <v>1.036474302608976</v>
       </c>
       <c r="N19">
-        <v>1.011166722883713</v>
+        <v>1.013092883629423</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037991305235194</v>
+        <v>1.038009300523053</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03243819478656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032483688843303</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02039561549788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9929184019325439</v>
+        <v>0.9932947864273451</v>
       </c>
       <c r="D20">
-        <v>1.015498993043225</v>
+        <v>1.015643216322282</v>
       </c>
       <c r="E20">
-        <v>1.001412984861687</v>
+        <v>1.001743152241611</v>
       </c>
       <c r="F20">
-        <v>1.01697879843726</v>
+        <v>1.017018415101512</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040899298433873</v>
+        <v>1.041030941313638</v>
       </c>
       <c r="J20">
-        <v>1.020725063348444</v>
+        <v>1.021086652389797</v>
       </c>
       <c r="K20">
-        <v>1.029274678273469</v>
+        <v>1.029416464904198</v>
       </c>
       <c r="L20">
-        <v>1.015431034053871</v>
+        <v>1.015755419514936</v>
       </c>
       <c r="M20">
-        <v>1.03072952474103</v>
+        <v>1.030768474503902</v>
       </c>
       <c r="N20">
-        <v>1.010853062564563</v>
+        <v>1.012928615132076</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032933872486627</v>
+        <v>1.032964697390099</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031849050872139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031965877499534</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020219865115794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9889895522679284</v>
+        <v>0.9896015823508026</v>
       </c>
       <c r="D21">
-        <v>1.01298414582337</v>
+        <v>1.013374179034836</v>
       </c>
       <c r="E21">
-        <v>0.9984401950666106</v>
+        <v>0.998976725786866</v>
       </c>
       <c r="F21">
-        <v>1.012846631614482</v>
+        <v>1.012926457117658</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039887999262783</v>
+        <v>1.040149933171676</v>
       </c>
       <c r="J21">
-        <v>1.018954939379475</v>
+        <v>1.019540583619476</v>
       </c>
       <c r="K21">
-        <v>1.027723635347223</v>
+        <v>1.028106527452652</v>
       </c>
       <c r="L21">
-        <v>1.013451178809852</v>
+        <v>1.013977510379225</v>
       </c>
       <c r="M21">
-        <v>1.027588640589537</v>
+        <v>1.027667003470213</v>
       </c>
       <c r="N21">
-        <v>1.01025445720372</v>
+        <v>1.01292825537641</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030406877041783</v>
+        <v>1.030468896889667</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030755632911473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031043259294937</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019972654906218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9864875992109136</v>
+        <v>0.987248029117988</v>
       </c>
       <c r="D22">
-        <v>1.011391391070435</v>
+        <v>1.011936243705703</v>
       </c>
       <c r="E22">
-        <v>0.9965558506499421</v>
+        <v>0.9972222894711508</v>
       </c>
       <c r="F22">
-        <v>1.010470660858861</v>
+        <v>1.010576209490452</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039265667171118</v>
+        <v>1.039609669773165</v>
       </c>
       <c r="J22">
-        <v>1.017832538966768</v>
+        <v>1.018558304824501</v>
       </c>
       <c r="K22">
-        <v>1.026740510316954</v>
+        <v>1.027274892722362</v>
       </c>
       <c r="L22">
-        <v>1.012195846975463</v>
+        <v>1.01284897491717</v>
       </c>
       <c r="M22">
-        <v>1.025837507048513</v>
+        <v>1.025941021390962</v>
       </c>
       <c r="N22">
-        <v>1.009875340356396</v>
+        <v>1.012920860985881</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029020951099755</v>
+        <v>1.029102877089019</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030046931064939</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030440369140643</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019814185598643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9878105879783761</v>
+        <v>0.9884821921019948</v>
       </c>
       <c r="D23">
-        <v>1.012227150625879</v>
+        <v>1.012682623469508</v>
       </c>
       <c r="E23">
-        <v>0.9975504755325686</v>
+        <v>0.9981389952011664</v>
       </c>
       <c r="F23">
-        <v>1.011733107510114</v>
+        <v>1.011823535844971</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039592127751783</v>
+        <v>1.039887917272356</v>
       </c>
       <c r="J23">
-        <v>1.018422319501751</v>
+        <v>1.019064193428794</v>
       </c>
       <c r="K23">
-        <v>1.027252921457987</v>
+        <v>1.027699861331759</v>
       </c>
       <c r="L23">
-        <v>1.012856674001246</v>
+        <v>1.013433740698032</v>
       </c>
       <c r="M23">
-        <v>1.026768145242822</v>
+        <v>1.026856876505363</v>
       </c>
       <c r="N23">
-        <v>1.010073878082515</v>
+        <v>1.012881011798152</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029757500420716</v>
+        <v>1.029827726329663</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030399544121392</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030730214256181</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019893334529015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9929392572585765</v>
+        <v>0.9933160536511209</v>
       </c>
       <c r="D24">
-        <v>1.01548715150954</v>
+        <v>1.015632085280067</v>
       </c>
       <c r="E24">
-        <v>1.001423093748604</v>
+        <v>1.001753698529039</v>
       </c>
       <c r="F24">
-        <v>1.016607528180769</v>
+        <v>1.01664736935481</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040844917142861</v>
+        <v>1.040977033287295</v>
       </c>
       <c r="J24">
-        <v>1.020711840209684</v>
+        <v>1.021073846688095</v>
       </c>
       <c r="K24">
-        <v>1.029247646533172</v>
+        <v>1.02939013472329</v>
       </c>
       <c r="L24">
-        <v>1.015425264271011</v>
+        <v>1.015750087089234</v>
       </c>
       <c r="M24">
-        <v>1.030349141609215</v>
+        <v>1.030388312332137</v>
       </c>
       <c r="N24">
-        <v>1.010845747027489</v>
+        <v>1.012919117990136</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032591656250534</v>
+        <v>1.032622657595818</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031802384142244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.031917036129894</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020209679878024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9987095736023834</v>
+        <v>0.9988941843221273</v>
       </c>
       <c r="D25">
-        <v>1.019174589535248</v>
+        <v>1.019068959912704</v>
       </c>
       <c r="E25">
-        <v>1.005809731034728</v>
+        <v>1.005973658929078</v>
       </c>
       <c r="F25">
-        <v>1.022071952358174</v>
+        <v>1.022075398245669</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042215738186556</v>
+        <v>1.042227336018768</v>
       </c>
       <c r="J25">
-        <v>1.023280443921728</v>
+        <v>1.023458820971246</v>
       </c>
       <c r="K25">
-        <v>1.031482362106322</v>
+        <v>1.031378294978098</v>
       </c>
       <c r="L25">
-        <v>1.018318522941274</v>
+        <v>1.018479943949443</v>
       </c>
       <c r="M25">
-        <v>1.03433702644061</v>
+        <v>1.034340421728982</v>
       </c>
       <c r="N25">
-        <v>1.011711664044411</v>
+        <v>1.013510415395622</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035747827762789</v>
+        <v>1.035750514923753</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.033379583459655</v>
+        <v>1.033319601758946</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020582295305537</v>
       </c>
     </row>
   </sheetData>
